--- a/qc_rules_recruitment.xlsx
+++ b/qc_rules_recruitment.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/qaqc_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1B485E-0BC5-CF47-89F8-3F4AC870EDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5D54C8-968A-AC40-9C0E-F6A2A6887CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="500" windowWidth="30240" windowHeight="17780" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
+    <workbookView xWindow="-37580" yWindow="-3480" windowWidth="35920" windowHeight="17780" activeTab="6" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
   </bookViews>
   <sheets>
-    <sheet name="QAQC_staged" sheetId="7" r:id="rId1"/>
-    <sheet name="QAQC" sheetId="1" r:id="rId2"/>
+    <sheet name="QAQC" sheetId="1" r:id="rId1"/>
+    <sheet name="on_deck" sheetId="7" r:id="rId2"/>
     <sheet name="Payment Rules" sheetId="6" r:id="rId3"/>
     <sheet name="Refusal_Withdrawel" sheetId="2" r:id="rId4"/>
     <sheet name="qctype descriptions" sheetId="3" r:id="rId5"/>
@@ -254,8 +254,35 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2BE77726-DB08-3448-8230-B667FCA9D175}</author>
+    <author>tc={13F41FFA-F201-0240-B037-1C67A50FB39B}</author>
+  </authors>
+  <commentList>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{2BE77726-DB08-3448-8230-B667FCA9D175}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Need to add a crossvaligdation option for checking if the cross variable is a valid date in order to execute this rule</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{13F41FFA-F201-0240-B037-1C67A50FB39B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    These ones need a tweak to the code. “crossValid1 is not populated” rule should not flag participants for whom the ConceptID of interest is empty.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="578">
   <si>
     <t>Label</t>
   </si>
@@ -1983,34 +2010,19 @@
     <t>If user profile submitted (d_d_699625233) = yes (353358909) then consented (d_919254129) = yes (353358909)</t>
   </si>
   <si>
-    <t>If verification status (d_821247024) = verified, cannot be verified, or duplicate (197316935, 219863910, 922622075) then sign in (d_230663853) = yes (353358909)</t>
-  </si>
-  <si>
-    <t>If verification status (d_821247024) = verified, cannot be verified, or duplicate (197316935, 219863910, 922622075) then consented (d_919254129) = yes (353358909)</t>
-  </si>
-  <si>
-    <t>If verification status (d_821247024) = verified, cannot be verified, or duplicate (197316935, 219863910, 922622075) then user profile submitted (d_699625233) = yes (353358909)</t>
-  </si>
-  <si>
-    <t>If consent = yes then consent version = should be populated and be version 1 for their site (do one for each site). cross valid 2 rule. If consent = yes and site code = HP then they should have a consent version specific to their site (content should be specific to their site). Start out with rule for version just needing to be populated. Same for HIPAA. Later add rule for version 2 (0.02)</t>
-  </si>
-  <si>
-    <t>Edited rule for outreach required for manual verification- from line 25304 in https://nih.app.box.com/file/1153380782623</t>
-  </si>
-  <si>
-    <t>Edited rule for UP submitted line 30209 onwards in https://nih.app.box.com/file/1153380782623</t>
-  </si>
-  <si>
-    <t>Edited verification status rule from line 30484 in https://nih.app.box.com/file/1153380782623</t>
-  </si>
-  <si>
-    <t>Participant consent date d_982402227 (lines 30549-30696) Looks like this is a yyyymmdd format- This variable is deprecated. This rule can be removed entirely</t>
-  </si>
-  <si>
     <t>875007964, 219863910, 922622075, 160161595</t>
   </si>
   <si>
     <t>crossValid1 is not populated</t>
+  </si>
+  <si>
+    <t>If verification status (d_821247024) = verified (197316935) then sign in (d_230663853) = yes (353358909)</t>
+  </si>
+  <si>
+    <t>If verification status (d_821247024) = verified (197316935) then consented (d_919254129) = yes (353358909)</t>
+  </si>
+  <si>
+    <t>If verification status (d_821247024) = verified (197316935) then user profile submitted (d_699625233) = yes (353358909)</t>
   </si>
 </sst>
 </file>
@@ -2075,20 +2087,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2109,26 +2120,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFACFF9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFA9D8DE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB8F5D3"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCC7C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D8DE"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2218,29 +2217,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2665,531 +2662,24 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E4A111-52C2-714F-AC54-2C2FB898D55D}">
-  <dimension ref="A1:O21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="24.83203125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.83203125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="20" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="17">
-        <v>353358909</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="D3" s="17">
-        <v>353358909</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17">
-        <v>104430631</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>547</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="17">
-        <v>104430631</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="17">
-        <v>104430631</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>554</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="17">
-        <v>875007964</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="17">
-        <v>104430631</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="O13" s="17" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="F14" s="17">
-        <v>922622075</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="17">
-        <v>922622075</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="20">
-        <v>104430631</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="21">
-        <v>353358909</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="21">
-        <v>353358909</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="21">
-        <v>353358909</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F18" s="21">
-        <v>353358909</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>543</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="22">
-        <v>353358909</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="22">
-        <v>353358909</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="22">
-        <v>353358909</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>575</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O2" dT="2023-04-14T18:26:19.03" personId="{2B6314D8-DBC2-0D44-8D0C-B73D0CA261B3}" id="{2BE77726-DB08-3448-8230-B667FCA9D175}">
+    <text>Need to add a crossvaligdation option for checking if the cross variable is a valid date in order to execute this rule</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2023-04-14T19:16:02.66" personId="{2B6314D8-DBC2-0D44-8D0C-B73D0CA261B3}" id="{13F41FFA-F201-0240-B037-1C67A50FB39B}">
+    <text>These ones need a tweak to the code. “crossValid1 is not populated” rule should not flag participants for whom the ConceptID of interest is empty.</text>
+  </threadedComment>
+</ThreadedComments>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE071A-3C83-9E45-B616-577D581A90B9}">
-  <dimension ref="A1:Q189"/>
+  <dimension ref="A1:Q202"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6047,7 +5537,7 @@
       <c r="F129" s="1">
         <v>353358909</v>
       </c>
-      <c r="O129" s="26" t="s">
+      <c r="O129" s="21" t="s">
         <v>353</v>
       </c>
     </row>
@@ -7327,7 +6817,7 @@
         <v>36</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>16</v>
@@ -7378,7 +6868,7 @@
       <c r="C172" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D172" s="25" t="s">
+      <c r="D172" s="20" t="s">
         <v>158</v>
       </c>
       <c r="E172" s="9" t="s">
@@ -7395,7 +6885,7 @@
       <c r="A173" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="B173" s="25" t="s">
+      <c r="B173" s="20" t="s">
         <v>158</v>
       </c>
       <c r="C173" s="9" t="s">
@@ -7684,7 +7174,7 @@
       <c r="A187" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="B187" s="25" t="s">
+      <c r="B187" s="20" t="s">
         <v>222</v>
       </c>
       <c r="C187" s="8" t="s">
@@ -7746,13 +7236,435 @@
       <c r="P188" s="8"/>
       <c r="Q188" s="8"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C189" s="25"/>
-      <c r="D189" s="27"/>
+    <row r="189" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="B189" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C189" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="E189" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F189" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="O189" s="27" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C190" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D190" s="27">
+        <v>104430631</v>
+      </c>
+      <c r="E190" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F190" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="O190" s="27" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="C191" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D191" s="27">
+        <v>104430631</v>
+      </c>
+      <c r="E191" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="F191" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="O191" s="27" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C192" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D192" s="27">
+        <v>104430631</v>
+      </c>
+      <c r="E192" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="F192" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="O192" s="27" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B193" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="C193" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D193" s="27">
+        <v>875007964</v>
+      </c>
+      <c r="E193" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F193" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="O193" s="27" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="B194" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="C194" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D194" s="27">
+        <v>104430631</v>
+      </c>
+      <c r="E194" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F194" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="O194" s="27" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="B195" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D195" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="E195" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="F195" s="27">
+        <v>922622075</v>
+      </c>
+      <c r="O195" s="27" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="B196" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C196" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D196" s="27">
+        <v>922622075</v>
+      </c>
+      <c r="E196" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="F196" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="O196" s="27" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="B197" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D197" s="27">
+        <v>104430631</v>
+      </c>
+      <c r="E197" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="F197" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="O197" s="27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="B198" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C198" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D198" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="E198" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="F198" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="O198" s="27" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="B199" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="C199" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D199" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="E199" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="F199" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="O199" s="27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="B200" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C200" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D200" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="E200" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="F200" s="27">
+        <v>197316935</v>
+      </c>
+      <c r="O200" s="27" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="B201" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="C201" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D201" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="E201" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="F201" s="27">
+        <v>197316935</v>
+      </c>
+      <c r="O201" s="27" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="B202" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C202" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D202" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="E202" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="F202" s="27">
+        <v>197316935</v>
+      </c>
+      <c r="O202" s="27" t="s">
+        <v>577</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E4A111-52C2-714F-AC54-2C2FB898D55D}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="142.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8719,11 +8631,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B3D455-1504-4B42-941B-931C7B0EFB28}">
-  <dimension ref="A1:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B3D455-1504-4B42-941B-931C7B0EFB28}">
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8793,453 +8705,127 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="D2" s="17">
+        <v>353358909</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="17">
-        <v>353358909</v>
-      </c>
       <c r="O2" s="17" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>72</v>
+        <v>545</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="D3" s="17">
-        <v>353358909</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>78</v>
+        <v>574</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>261</v>
-      </c>
       <c r="O4" s="17" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>261</v>
+        <v>554</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>574</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>378</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>547</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>221</v>
+        <v>559</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>556</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>261</v>
+        <v>557</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>261</v>
+        <v>78</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>574</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>378</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="O8" s="17" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>554</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="O13" s="17" t="s">
         <v>565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="F14" s="17">
-        <v>922622075</v>
-      </c>
-      <c r="O14" s="17" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="17">
-        <v>922622075</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="O15" s="17" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
-        <v>543</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="21">
-        <v>353358909</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="21">
-        <v>353358909</v>
-      </c>
-      <c r="O17" s="21" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>548</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="21">
-        <v>353358909</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F18" s="21">
-        <v>353358909</v>
-      </c>
-      <c r="O18" s="21" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>543</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="22">
-        <v>353358909</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="22">
-        <v>353358909</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="22">
-        <v>353358909</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="O22" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:15" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
-        <v>580</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/qc_rules_recruitment.xlsx
+++ b/qc_rules_recruitment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/qaqc_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC51287-D54C-8A41-9EF1-DD5BC974E86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5C287-ABF2-E448-9A92-D73950D4DECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
   </bookViews>
@@ -2681,8 +2681,8 @@
   <dimension ref="A1:Q202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O168" sqref="O168"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15"/>

--- a/qc_rules_recruitment.xlsx
+++ b/qc_rules_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/qaqc_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5D54C8-968A-AC40-9C0E-F6A2A6887CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1E41FD-9712-D14B-97C3-B461B75B05FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37580" yWindow="-3480" windowWidth="35920" windowHeight="17780" activeTab="6" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
+    <workbookView xWindow="3320" yWindow="1780" windowWidth="30240" windowHeight="17780" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
   </bookViews>
   <sheets>
     <sheet name="QAQC" sheetId="1" r:id="rId1"/>
@@ -2029,7 +2029,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2092,14 +2092,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2127,6 +2121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2162,7 +2162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2224,13 +2224,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2238,6 +2231,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2677,9 +2673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE071A-3C83-9E45-B616-577D581A90B9}">
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6748,61 +6744,61 @@
         <v>377</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="C168" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="D168" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F168" s="26">
         <v>486306141</v>
       </c>
-      <c r="M168" s="1" t="s">
+      <c r="M168" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O168" s="1" t="s">
+      <c r="O168" s="26" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="C169" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="D169" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169" s="26">
         <v>854703046</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="H169" s="1">
+      <c r="H169" s="26">
         <v>197316935</v>
       </c>
-      <c r="M169" s="1" t="s">
+      <c r="M169" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O169" s="1" t="s">
+      <c r="O169" s="26" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7236,322 +7232,322 @@
       <c r="P188" s="8"/>
       <c r="Q188" s="8"/>
     </row>
-    <row r="189" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="26" t="s">
+    <row r="189" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="B189" s="26" t="s">
+      <c r="B189" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C189" s="27" t="s">
+      <c r="C189" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="E189" s="27" t="s">
+      <c r="E189" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F189" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="O189" s="27" t="s">
+      <c r="F189" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="O189" s="24" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="190" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="27" t="s">
+    <row r="190" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B190" s="27" t="s">
+      <c r="B190" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C190" s="27" t="s">
+      <c r="C190" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D190" s="27">
+      <c r="D190" s="24">
         <v>104430631</v>
       </c>
-      <c r="E190" s="27" t="s">
+      <c r="E190" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F190" s="27" t="s">
+      <c r="F190" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O190" s="27" t="s">
+      <c r="O190" s="24" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="191" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="27" t="s">
+    <row r="191" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D191" s="27">
+      <c r="D191" s="24">
         <v>104430631</v>
       </c>
-      <c r="E191" s="28" t="s">
+      <c r="E191" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="F191" s="27" t="s">
+      <c r="F191" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O191" s="27" t="s">
+      <c r="O191" s="24" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="192" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="27" t="s">
+    <row r="192" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="B192" s="27" t="s">
+      <c r="B192" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C192" s="27" t="s">
+      <c r="C192" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D192" s="27">
+      <c r="D192" s="24">
         <v>104430631</v>
       </c>
-      <c r="E192" s="28" t="s">
+      <c r="E192" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="F192" s="27" t="s">
+      <c r="F192" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O192" s="27" t="s">
+      <c r="O192" s="24" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="193" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="27" t="s">
+    <row r="193" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="B193" s="27" t="s">
+      <c r="B193" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="C193" s="27" t="s">
+      <c r="C193" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D193" s="27">
+      <c r="D193" s="24">
         <v>875007964</v>
       </c>
-      <c r="E193" s="28" t="s">
+      <c r="E193" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="F193" s="27" t="s">
+      <c r="F193" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O193" s="27" t="s">
+      <c r="O193" s="24" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="194" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="27" t="s">
+    <row r="194" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="B194" s="27" t="s">
+      <c r="B194" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="C194" s="27" t="s">
+      <c r="C194" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D194" s="27">
+      <c r="D194" s="24">
         <v>104430631</v>
       </c>
-      <c r="E194" s="28" t="s">
+      <c r="E194" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F194" s="27" t="s">
+      <c r="F194" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O194" s="27" t="s">
+      <c r="O194" s="24" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="195" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="27" t="s">
+    <row r="195" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="B195" s="27" t="s">
+      <c r="B195" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="C195" s="27" t="s">
+      <c r="C195" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D195" s="27" t="s">
+      <c r="D195" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="E195" s="27" t="s">
+      <c r="E195" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="F195" s="27">
+      <c r="F195" s="24">
         <v>922622075</v>
       </c>
-      <c r="O195" s="27" t="s">
+      <c r="O195" s="24" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="196" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="27" t="s">
+    <row r="196" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="B196" s="27" t="s">
+      <c r="B196" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="C196" s="27" t="s">
+      <c r="C196" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D196" s="27">
+      <c r="D196" s="24">
         <v>922622075</v>
       </c>
-      <c r="E196" s="27" t="s">
+      <c r="E196" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="F196" s="27" t="s">
+      <c r="F196" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="O196" s="27" t="s">
+      <c r="O196" s="24" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="197" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="27" t="s">
+    <row r="197" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="B197" s="27" t="s">
+      <c r="B197" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C197" s="27" t="s">
+      <c r="C197" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D197" s="27">
+      <c r="D197" s="24">
         <v>104430631</v>
       </c>
-      <c r="E197" s="28" t="s">
+      <c r="E197" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="F197" s="27" t="s">
+      <c r="F197" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="O197" s="27" t="s">
+      <c r="O197" s="24" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="198" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="27" t="s">
+    <row r="198" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B198" s="27" t="s">
+      <c r="B198" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C198" s="27" t="s">
+      <c r="C198" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D198" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="E198" s="27" t="s">
+      <c r="D198" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="E198" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="F198" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="O198" s="27" t="s">
+      <c r="F198" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="O198" s="24" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="199" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="27" t="s">
+    <row r="199" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="B199" s="27" t="s">
+      <c r="B199" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="C199" s="27" t="s">
+      <c r="C199" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D199" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="E199" s="27" t="s">
+      <c r="D199" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="E199" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="F199" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="O199" s="27" t="s">
+      <c r="F199" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="O199" s="24" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="200" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="27" t="s">
+    <row r="200" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B200" s="27" t="s">
+      <c r="B200" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C200" s="27" t="s">
+      <c r="C200" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D200" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="E200" s="27" t="s">
+      <c r="D200" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="E200" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="F200" s="27">
+      <c r="F200" s="24">
         <v>197316935</v>
       </c>
-      <c r="O200" s="27" t="s">
+      <c r="O200" s="24" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="201" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="27" t="s">
+    <row r="201" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="B201" s="27" t="s">
+      <c r="B201" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="C201" s="27" t="s">
+      <c r="C201" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D201" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="E201" s="27" t="s">
+      <c r="D201" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="E201" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="F201" s="27">
+      <c r="F201" s="24">
         <v>197316935</v>
       </c>
-      <c r="O201" s="27" t="s">
+      <c r="O201" s="24" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="202" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="27" t="s">
+    <row r="202" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="B202" s="27" t="s">
+      <c r="B202" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C202" s="27" t="s">
+      <c r="C202" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D202" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="E202" s="27" t="s">
+      <c r="D202" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="E202" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="F202" s="27">
+      <c r="F202" s="24">
         <v>197316935</v>
       </c>
-      <c r="O202" s="27" t="s">
+      <c r="O202" s="24" t="s">
         <v>577</v>
       </c>
     </row>
@@ -7635,33 +7631,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8634,7 +8630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B3D455-1504-4B42-941B-931C7B0EFB28}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/qc_rules_recruitment.xlsx
+++ b/qc_rules_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/qaqc_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1E41FD-9712-D14B-97C3-B461B75B05FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5D54C8-968A-AC40-9C0E-F6A2A6887CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="1780" windowWidth="30240" windowHeight="17780" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
+    <workbookView xWindow="-37580" yWindow="-3480" windowWidth="35920" windowHeight="17780" activeTab="6" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
   </bookViews>
   <sheets>
     <sheet name="QAQC" sheetId="1" r:id="rId1"/>
@@ -2029,7 +2029,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2092,8 +2092,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2121,12 +2127,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2162,7 +2162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2224,6 +2224,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2231,9 +2238,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2673,9 +2677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE071A-3C83-9E45-B616-577D581A90B9}">
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6744,61 +6748,61 @@
         <v>377</v>
       </c>
     </row>
-    <row r="168" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="26" t="s">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B168" s="26" t="s">
+      <c r="B168" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C168" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="D168" s="26" t="s">
+      <c r="C168" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E168" s="26" t="s">
+      <c r="E168" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F168" s="26">
+      <c r="F168" s="1">
         <v>486306141</v>
       </c>
-      <c r="M168" s="26" t="s">
+      <c r="M168" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O168" s="26" t="s">
+      <c r="O168" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="169" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="26" t="s">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B169" s="26" t="s">
+      <c r="B169" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C169" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="D169" s="26" t="s">
+      <c r="C169" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E169" s="26" t="s">
+      <c r="E169" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F169" s="26">
+      <c r="F169" s="1">
         <v>854703046</v>
       </c>
-      <c r="G169" s="26" t="s">
+      <c r="G169" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="H169" s="26">
+      <c r="H169" s="1">
         <v>197316935</v>
       </c>
-      <c r="M169" s="26" t="s">
+      <c r="M169" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O169" s="26" t="s">
+      <c r="O169" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7232,322 +7236,322 @@
       <c r="P188" s="8"/>
       <c r="Q188" s="8"/>
     </row>
-    <row r="189" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="23" t="s">
+    <row r="189" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="B189" s="23" t="s">
+      <c r="B189" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C189" s="24" t="s">
+      <c r="C189" s="27" t="s">
         <v>412</v>
       </c>
-      <c r="E189" s="24" t="s">
+      <c r="E189" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F189" s="24">
-        <v>353358909</v>
-      </c>
-      <c r="O189" s="24" t="s">
+      <c r="F189" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="O189" s="27" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="190" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="24" t="s">
+    <row r="190" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="B190" s="24" t="s">
+      <c r="B190" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C190" s="24" t="s">
+      <c r="C190" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D190" s="24">
+      <c r="D190" s="27">
         <v>104430631</v>
       </c>
-      <c r="E190" s="24" t="s">
+      <c r="E190" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="F190" s="24" t="s">
+      <c r="F190" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="O190" s="24" t="s">
+      <c r="O190" s="27" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="191" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="24" t="s">
+    <row r="191" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="B191" s="24" t="s">
+      <c r="B191" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="C191" s="24" t="s">
+      <c r="C191" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D191" s="24">
+      <c r="D191" s="27">
         <v>104430631</v>
       </c>
-      <c r="E191" s="25" t="s">
+      <c r="E191" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="F191" s="24" t="s">
+      <c r="F191" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="O191" s="24" t="s">
+      <c r="O191" s="27" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="192" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="24" t="s">
+    <row r="192" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="B192" s="24" t="s">
+      <c r="B192" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="C192" s="24" t="s">
+      <c r="C192" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D192" s="24">
+      <c r="D192" s="27">
         <v>104430631</v>
       </c>
-      <c r="E192" s="25" t="s">
+      <c r="E192" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="F192" s="24" t="s">
+      <c r="F192" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="O192" s="24" t="s">
+      <c r="O192" s="27" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="193" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="24" t="s">
+    <row r="193" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="B193" s="24" t="s">
+      <c r="B193" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="C193" s="24" t="s">
+      <c r="C193" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D193" s="24">
+      <c r="D193" s="27">
         <v>875007964</v>
       </c>
-      <c r="E193" s="25" t="s">
+      <c r="E193" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="F193" s="24" t="s">
+      <c r="F193" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="O193" s="24" t="s">
+      <c r="O193" s="27" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="194" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="24" t="s">
+    <row r="194" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="B194" s="24" t="s">
+      <c r="B194" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="C194" s="24" t="s">
+      <c r="C194" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D194" s="24">
+      <c r="D194" s="27">
         <v>104430631</v>
       </c>
-      <c r="E194" s="25" t="s">
+      <c r="E194" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F194" s="24" t="s">
+      <c r="F194" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="O194" s="24" t="s">
+      <c r="O194" s="27" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="195" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="24" t="s">
+    <row r="195" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="B195" s="24" t="s">
+      <c r="B195" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="C195" s="24" t="s">
+      <c r="C195" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D195" s="24" t="s">
+      <c r="D195" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="E195" s="24" t="s">
+      <c r="E195" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="F195" s="24">
+      <c r="F195" s="27">
         <v>922622075</v>
       </c>
-      <c r="O195" s="24" t="s">
+      <c r="O195" s="27" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="196" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="24" t="s">
+    <row r="196" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="B196" s="24" t="s">
+      <c r="B196" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="C196" s="24" t="s">
+      <c r="C196" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D196" s="24">
+      <c r="D196" s="27">
         <v>922622075</v>
       </c>
-      <c r="E196" s="24" t="s">
+      <c r="E196" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="F196" s="24" t="s">
+      <c r="F196" s="27" t="s">
         <v>567</v>
       </c>
-      <c r="O196" s="24" t="s">
+      <c r="O196" s="27" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="197" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="24" t="s">
+    <row r="197" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="B197" s="24" t="s">
+      <c r="B197" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="C197" s="24" t="s">
+      <c r="C197" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D197" s="24">
+      <c r="D197" s="27">
         <v>104430631</v>
       </c>
-      <c r="E197" s="25" t="s">
+      <c r="E197" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="F197" s="24" t="s">
+      <c r="F197" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="O197" s="24" t="s">
+      <c r="O197" s="27" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="198" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="24" t="s">
+    <row r="198" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="B198" s="24" t="s">
+      <c r="B198" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C198" s="24" t="s">
+      <c r="C198" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D198" s="24">
-        <v>353358909</v>
-      </c>
-      <c r="E198" s="24" t="s">
+      <c r="D198" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="E198" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="F198" s="24">
-        <v>353358909</v>
-      </c>
-      <c r="O198" s="24" t="s">
+      <c r="F198" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="O198" s="27" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="199" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="24" t="s">
+    <row r="199" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="B199" s="24" t="s">
+      <c r="B199" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="C199" s="24" t="s">
+      <c r="C199" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D199" s="24">
-        <v>353358909</v>
-      </c>
-      <c r="E199" s="24" t="s">
+      <c r="D199" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="E199" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="F199" s="24">
-        <v>353358909</v>
-      </c>
-      <c r="O199" s="24" t="s">
+      <c r="F199" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="O199" s="27" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="200" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="24" t="s">
+    <row r="200" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="B200" s="24" t="s">
+      <c r="B200" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C200" s="24" t="s">
+      <c r="C200" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D200" s="24">
-        <v>353358909</v>
-      </c>
-      <c r="E200" s="24" t="s">
+      <c r="D200" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="E200" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="F200" s="24">
+      <c r="F200" s="27">
         <v>197316935</v>
       </c>
-      <c r="O200" s="24" t="s">
+      <c r="O200" s="27" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="201" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="24" t="s">
+    <row r="201" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="27" t="s">
         <v>547</v>
       </c>
-      <c r="B201" s="24" t="s">
+      <c r="B201" s="27" t="s">
         <v>548</v>
       </c>
-      <c r="C201" s="24" t="s">
+      <c r="C201" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D201" s="24">
-        <v>353358909</v>
-      </c>
-      <c r="E201" s="24" t="s">
+      <c r="D201" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="E201" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="F201" s="24">
+      <c r="F201" s="27">
         <v>197316935</v>
       </c>
-      <c r="O201" s="24" t="s">
+      <c r="O201" s="27" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="202" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="24" t="s">
+    <row r="202" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="B202" s="24" t="s">
+      <c r="B202" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="C202" s="24" t="s">
+      <c r="C202" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D202" s="24">
-        <v>353358909</v>
-      </c>
-      <c r="E202" s="24" t="s">
+      <c r="D202" s="27">
+        <v>353358909</v>
+      </c>
+      <c r="E202" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="F202" s="24">
+      <c r="F202" s="27">
         <v>197316935</v>
       </c>
-      <c r="O202" s="24" t="s">
+      <c r="O202" s="27" t="s">
         <v>577</v>
       </c>
     </row>
@@ -7631,33 +7635,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8630,7 +8634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B3D455-1504-4B42-941B-931C7B0EFB28}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/qc_rules_recruitment.xlsx
+++ b/qc_rules_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/qaqc_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5D54C8-968A-AC40-9C0E-F6A2A6887CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40E8BAF-23B8-9648-8A81-F9443546D137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37580" yWindow="-3480" windowWidth="35920" windowHeight="17780" activeTab="6" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19580" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
   </bookViews>
   <sheets>
     <sheet name="QAQC" sheetId="1" r:id="rId1"/>
@@ -2029,7 +2029,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2091,12 +2091,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2162,7 +2156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2224,13 +2218,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2677,9 +2664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE071A-3C83-9E45-B616-577D581A90B9}">
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6756,7 +6743,7 @@
         <v>66</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>36</v>
+        <v>495</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>67</v>
@@ -6782,7 +6769,7 @@
         <v>66</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>354</v>
+        <v>498</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>67</v>
@@ -7236,322 +7223,322 @@
       <c r="P188" s="8"/>
       <c r="Q188" s="8"/>
     </row>
-    <row r="189" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="26" t="s">
+    <row r="189" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="B189" s="26" t="s">
+      <c r="B189" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C189" s="27" t="s">
+      <c r="C189" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="E189" s="27" t="s">
+      <c r="E189" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F189" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="O189" s="27" t="s">
+      <c r="F189" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="O189" s="24" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="190" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="27" t="s">
+    <row r="190" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B190" s="27" t="s">
+      <c r="B190" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C190" s="27" t="s">
+      <c r="C190" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D190" s="27">
+      <c r="D190" s="24">
         <v>104430631</v>
       </c>
-      <c r="E190" s="27" t="s">
+      <c r="E190" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="F190" s="27" t="s">
+      <c r="F190" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O190" s="27" t="s">
+      <c r="O190" s="24" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="191" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="27" t="s">
+    <row r="191" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B191" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D191" s="27">
+      <c r="D191" s="24">
         <v>104430631</v>
       </c>
-      <c r="E191" s="28" t="s">
+      <c r="E191" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="F191" s="27" t="s">
+      <c r="F191" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O191" s="27" t="s">
+      <c r="O191" s="24" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="192" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="27" t="s">
+    <row r="192" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="B192" s="27" t="s">
+      <c r="B192" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C192" s="27" t="s">
+      <c r="C192" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D192" s="27">
+      <c r="D192" s="24">
         <v>104430631</v>
       </c>
-      <c r="E192" s="28" t="s">
+      <c r="E192" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="F192" s="27" t="s">
+      <c r="F192" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O192" s="27" t="s">
+      <c r="O192" s="24" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="193" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="27" t="s">
+    <row r="193" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="B193" s="27" t="s">
+      <c r="B193" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="C193" s="27" t="s">
+      <c r="C193" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D193" s="27">
+      <c r="D193" s="24">
         <v>875007964</v>
       </c>
-      <c r="E193" s="28" t="s">
+      <c r="E193" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="F193" s="27" t="s">
+      <c r="F193" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O193" s="27" t="s">
+      <c r="O193" s="24" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="194" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="27" t="s">
+    <row r="194" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="B194" s="27" t="s">
+      <c r="B194" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="C194" s="27" t="s">
+      <c r="C194" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D194" s="27">
+      <c r="D194" s="24">
         <v>104430631</v>
       </c>
-      <c r="E194" s="28" t="s">
+      <c r="E194" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F194" s="27" t="s">
+      <c r="F194" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="O194" s="27" t="s">
+      <c r="O194" s="24" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="195" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="27" t="s">
+    <row r="195" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="B195" s="27" t="s">
+      <c r="B195" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="C195" s="27" t="s">
+      <c r="C195" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D195" s="27" t="s">
+      <c r="D195" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="E195" s="27" t="s">
+      <c r="E195" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="F195" s="27">
+      <c r="F195" s="24">
         <v>922622075</v>
       </c>
-      <c r="O195" s="27" t="s">
+      <c r="O195" s="24" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="196" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="27" t="s">
+    <row r="196" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="B196" s="27" t="s">
+      <c r="B196" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="C196" s="27" t="s">
+      <c r="C196" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D196" s="27">
+      <c r="D196" s="24">
         <v>922622075</v>
       </c>
-      <c r="E196" s="27" t="s">
+      <c r="E196" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="F196" s="27" t="s">
+      <c r="F196" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="O196" s="27" t="s">
+      <c r="O196" s="24" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="197" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="27" t="s">
+    <row r="197" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="B197" s="27" t="s">
+      <c r="B197" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C197" s="27" t="s">
+      <c r="C197" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D197" s="27">
+      <c r="D197" s="24">
         <v>104430631</v>
       </c>
-      <c r="E197" s="28" t="s">
+      <c r="E197" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="F197" s="27" t="s">
+      <c r="F197" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="O197" s="27" t="s">
+      <c r="O197" s="24" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="198" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="27" t="s">
+    <row r="198" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B198" s="27" t="s">
+      <c r="B198" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C198" s="27" t="s">
+      <c r="C198" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D198" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="E198" s="27" t="s">
+      <c r="D198" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="E198" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="F198" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="O198" s="27" t="s">
+      <c r="F198" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="O198" s="24" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="199" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="27" t="s">
+    <row r="199" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="B199" s="27" t="s">
+      <c r="B199" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="C199" s="27" t="s">
+      <c r="C199" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D199" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="E199" s="27" t="s">
+      <c r="D199" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="E199" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="F199" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="O199" s="27" t="s">
+      <c r="F199" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="O199" s="24" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="200" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="27" t="s">
+    <row r="200" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B200" s="27" t="s">
+      <c r="B200" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C200" s="27" t="s">
+      <c r="C200" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D200" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="E200" s="27" t="s">
+      <c r="D200" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="E200" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="F200" s="27">
+      <c r="F200" s="24">
         <v>197316935</v>
       </c>
-      <c r="O200" s="27" t="s">
+      <c r="O200" s="24" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="201" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="27" t="s">
+    <row r="201" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="B201" s="27" t="s">
+      <c r="B201" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="C201" s="27" t="s">
+      <c r="C201" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D201" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="E201" s="27" t="s">
+      <c r="D201" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="E201" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="F201" s="27">
+      <c r="F201" s="24">
         <v>197316935</v>
       </c>
-      <c r="O201" s="27" t="s">
+      <c r="O201" s="24" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="202" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="27" t="s">
+    <row r="202" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="B202" s="27" t="s">
+      <c r="B202" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C202" s="27" t="s">
+      <c r="C202" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D202" s="27">
-        <v>353358909</v>
-      </c>
-      <c r="E202" s="27" t="s">
+      <c r="D202" s="24">
+        <v>353358909</v>
+      </c>
+      <c r="E202" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="F202" s="27">
+      <c r="F202" s="24">
         <v>197316935</v>
       </c>
-      <c r="O202" s="27" t="s">
+      <c r="O202" s="24" t="s">
         <v>577</v>
       </c>
     </row>
@@ -7635,33 +7622,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-    </row>
-    <row r="3" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:15" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8634,7 +8621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B3D455-1504-4B42-941B-931C7B0EFB28}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/qc_rules_recruitment.xlsx
+++ b/qc_rules_recruitment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/qaqc_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40E8BAF-23B8-9648-8A81-F9443546D137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94841D67-3F1A-554A-8231-3858B7A7E03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19580" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
   </bookViews>
@@ -2665,7 +2665,7 @@
   <dimension ref="A1:Q202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>

--- a/qc_rules_recruitment.xlsx
+++ b/qc_rules_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/qaqc_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94841D67-3F1A-554A-8231-3858B7A7E03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC51287-D54C-8A41-9EF1-DD5BC974E86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19580" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
   </bookViews>
   <sheets>
     <sheet name="QAQC" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="578">
   <si>
     <t>Label</t>
   </si>
@@ -1129,6 +1129,847 @@
     <t>d_714419972</t>
   </si>
   <si>
+    <t>Address line 1</t>
+  </si>
+  <si>
+    <t>d_521824358</t>
+  </si>
+  <si>
+    <t>Populated from Google Addresses</t>
+  </si>
+  <si>
+    <t>Address line 2</t>
+  </si>
+  <si>
+    <t>d_442166669</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>d_703385619</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>d_634434746</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>d_892050548</t>
+  </si>
+  <si>
+    <t>Previous Cancer</t>
+  </si>
+  <si>
+    <t>d_452166062</t>
+  </si>
+  <si>
+    <t>Cancer Year</t>
+  </si>
+  <si>
+    <t>d_650597106</t>
+  </si>
+  <si>
+    <t>Only shown if answer to RcrtUP_Cancer_v1r0 equals 1</t>
+  </si>
+  <si>
+    <t>Cancer Type</t>
+  </si>
+  <si>
+    <t>d_266952173</t>
+  </si>
+  <si>
+    <t>Only shown if answer to RcrtUP_Cancer_v1r0 equals 1.</t>
+  </si>
+  <si>
+    <t>Cancer Comments</t>
+  </si>
+  <si>
+    <t>d_494982282</t>
+  </si>
+  <si>
+    <t>User Profile submitted</t>
+  </si>
+  <si>
+    <t>Time User Profile submitted</t>
+  </si>
+  <si>
+    <t>d_430551721</t>
+  </si>
+  <si>
+    <t>Yes if RcrtUP_Submitted_v1r0 = 1</t>
+  </si>
+  <si>
+    <t>Verification status</t>
+  </si>
+  <si>
+    <t>d_821247024</t>
+  </si>
+  <si>
+    <t>875007964, 197316935, 219863910, 922622075, 160161595</t>
+  </si>
+  <si>
+    <t>Default, Not yet verified - 0, assigned at submission of StudyIDs from sites for active recruits and when token is assigned from passive recruits. Updates will be received from the sites as part of the verification table.</t>
+  </si>
+  <si>
+    <t>Verification status time</t>
+  </si>
+  <si>
+    <t>d_914594314</t>
+  </si>
+  <si>
+    <t>Yes if RcrtV_Verification_v1r0 =0 or 1 or 2 or 3 or 4</t>
+  </si>
+  <si>
+    <t>Automated verification</t>
+  </si>
+  <si>
+    <t>state_d_444699761</t>
+  </si>
+  <si>
+    <t>734437214, 426360242</t>
+  </si>
+  <si>
+    <t>Sent as part of the verification table from the IHCS.</t>
+  </si>
+  <si>
+    <t>Outreach required for Verification</t>
+  </si>
+  <si>
+    <t>state_d_188797763</t>
+  </si>
+  <si>
+    <t>Sent as part of the verification table from IHCS. Should not = Yes when only Automated verification is used</t>
+  </si>
+  <si>
+    <t>Manual verification</t>
+  </si>
+  <si>
+    <t>state_d_953614051</t>
+  </si>
+  <si>
+    <t>Duplicate type</t>
+  </si>
+  <si>
+    <t>state_d_148197146</t>
+  </si>
+  <si>
+    <t>638335430, 654558118, 283434980, 866029623, 979256174</t>
+  </si>
+  <si>
+    <t>If RcrtV_Verification_v1r0 = 3</t>
+  </si>
+  <si>
+    <t>Update recruit type</t>
+  </si>
+  <si>
+    <t>state_d_793822265</t>
+  </si>
+  <si>
+    <t>132080040, 854903954, 965707001, 604663208</t>
+  </si>
+  <si>
+    <t>First Name Match</t>
+  </si>
+  <si>
+    <t>state_d_147176963</t>
+  </si>
+  <si>
+    <t>356674370, 219803804</t>
+  </si>
+  <si>
+    <t>Last Name Match</t>
+  </si>
+  <si>
+    <t>state_d_557461333</t>
+  </si>
+  <si>
+    <t>DOB Match</t>
+  </si>
+  <si>
+    <t>state_d_725929722</t>
+  </si>
+  <si>
+    <t>PIN Match</t>
+  </si>
+  <si>
+    <t>state_d_711794630</t>
+  </si>
+  <si>
+    <t>Yes for some sites</t>
+  </si>
+  <si>
+    <t>Sent as part of the verification table for HFHS , KP and Sanford.</t>
+  </si>
+  <si>
+    <t>Token Match</t>
+  </si>
+  <si>
+    <t>state_d_679832994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548392715, 125001209, 327912200, 300267574, 452412599, 657167265
+</t>
+  </si>
+  <si>
+    <t>Sent as part of the verification table for HFHS and KP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> duplicate type is required only if verif =3 (duplicate)</t>
+  </si>
+  <si>
+    <t>875007964, 197316935, 219863910, 160161595</t>
+  </si>
+  <si>
+    <t>08/03: If verification != duplicate, but instead equal to either "not yet verif", "verif", "cannot be verified", or "outreach timed out", then "Duplicate type" should be NA</t>
+  </si>
+  <si>
+    <t>Outreach required for manual verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/14/23 If outreach (188797763) = yes (353358909) then manual (953614051) has to = method used (426360242)
+</t>
+  </si>
+  <si>
+    <t>NA or crossValid2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">486306141, 854703046 </t>
+  </si>
+  <si>
+    <t>07/15: Check for deidentified variables (race, sex, age, member) if verification status = verified, and recruitment = passive or active changes based on site.</t>
+  </si>
+  <si>
+    <t>NA or crossValid3</t>
+  </si>
+  <si>
+    <t>07/14: Check for deidentified variables (race, sex, age, member) if verification status = verified, and recruitment = passive or active changes based on site.</t>
+  </si>
+  <si>
+    <t>07/14: Check for deidentified variables (race, sex, member) if verification status = verified, changes based on site.</t>
+  </si>
+  <si>
+    <t>07/14: Check for verification table variables when verification status = verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">638335430, 654558118 </t>
+  </si>
+  <si>
+    <t>Zip code Match</t>
+  </si>
+  <si>
+    <t>state_d_559534463</t>
+  </si>
+  <si>
+    <t>Site Match</t>
+  </si>
+  <si>
+    <t>state_d_570452130</t>
+  </si>
+  <si>
+    <t>539025306, 427405444</t>
+  </si>
+  <si>
+    <t>Age Match</t>
+  </si>
+  <si>
+    <t>state_d_629484663</t>
+  </si>
+  <si>
+    <t>Cancer Status Match</t>
+  </si>
+  <si>
+    <t>state_d_547895941</t>
+  </si>
+  <si>
+    <t>07/15: For Sanford or other sites, we need race when recruitment = active</t>
+  </si>
+  <si>
+    <t>07/15: For Sanford or other sites, we need race when recruitment = passive and verification status = verified</t>
+  </si>
+  <si>
+    <t>Automated method used for verification</t>
+  </si>
+  <si>
+    <t>734437214, NA</t>
+  </si>
+  <si>
+    <t>If you're verified (821247024 = 197316935), you should have a verification mode (444699761 or 953614051 should = 426360242; 188797763 could be yes or no). Verification mode should not be missing if participant is verified</t>
+  </si>
+  <si>
+    <t>Manual method used for verification</t>
+  </si>
+  <si>
+    <t>See above</t>
+  </si>
+  <si>
+    <t>104430631, NA</t>
+  </si>
+  <si>
+    <t>197316935, 219863910, 922622075</t>
+  </si>
+  <si>
+    <t>If User Profile (699625233) = Yes (353358909) and participant is either verified (197316935), cannot be verified (219863910), or duplicate (922622075), should have verification table variables</t>
+  </si>
+  <si>
+    <t>548392715, 657167265, 125001209, 327912200, 300267574, 452412599</t>
+  </si>
+  <si>
+    <t>531629870, 548392715, 125001209, 327912200, 300267574, 452412599</t>
+  </si>
+  <si>
+    <t>Sent as part of the verification table for HP, HFHS and KP.</t>
+  </si>
+  <si>
+    <t>Zip Code Match</t>
+  </si>
+  <si>
+    <t>NA or crossValid4</t>
+  </si>
+  <si>
+    <t>Sent as part of the verification table for HFHS for passive recruits.</t>
+  </si>
+  <si>
+    <t>Campaign Type (667474224) should not be missing for any active recruits with a verification status of not yet verified, verified, cannot be verified, or outreach timed out (512820379 = 486306141 and 821247024 = 875007964, 197316935, 219863910, or 160161595) and for any verified passive recruits (512820379 = 854703046 and 821247024 = 197316935)</t>
+  </si>
+  <si>
+    <t>Verification Status</t>
+  </si>
+  <si>
+    <t>875007964, 219863910, 922622075, 160161595</t>
+  </si>
+  <si>
+    <t>If participants are “not active” (512820379 = 180583933) but they have verification complete (821247024 = 219863910, 922622075, or 197316935), we need to flag and review them</t>
+  </si>
+  <si>
+    <t>Signed in</t>
+  </si>
+  <si>
+    <t>Check flags for if consented but not signed in, if user profile submitted but not
+consented, if verification status is something other than not yet verified but no user profile</t>
+  </si>
+  <si>
+    <t>NA or crossvalid before date()</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) If active recruit, flag if sign-in time before active recruitment time</t>
+  </si>
+  <si>
+    <t>Sign-in time</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) If active recruit, flag if consent time before active sign-in time</t>
+  </si>
+  <si>
+    <t>Consent time</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) If active recruit, flag if user profile submitted time before consent time</t>
+  </si>
+  <si>
+    <t>User profile submit time</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) If active recruit, flag if user profile submitted time before profile submitted time</t>
+  </si>
+  <si>
+    <t>Time sign-in occurred B</t>
+  </si>
+  <si>
+    <t>crossValid1Date</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) If valid sign-in time, signed-in flag should be "yes"</t>
+  </si>
+  <si>
+    <t>Time consent submitted B</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) if valid consented time, censented flag should be "yes"</t>
+  </si>
+  <si>
+    <t>Time User Profile submitted B</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) if valid user profile-submitted time, profile-submitted flag should be "yes"</t>
+  </si>
+  <si>
+    <t>Verification status time B</t>
+  </si>
+  <si>
+    <t>197316935, 219863910, 922622075, 160161595</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) everyone with a verification time should have a verification status of something other than 'not yet verified'</t>
+  </si>
+  <si>
+    <t>Consent submitted A</t>
+  </si>
+  <si>
+    <t>d_471168198</t>
+  </si>
+  <si>
+    <t>crossValid1 is populated</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) if consented, check if consent name (471168198)  is populated</t>
+  </si>
+  <si>
+    <t>Consent submitted B</t>
+  </si>
+  <si>
+    <t>d_736251808</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) if consented, check if consent name (736251808) is populated</t>
+  </si>
+  <si>
+    <t>Consent submitted C</t>
+  </si>
+  <si>
+    <t>d_454205108</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) if consented, check if version (454205108) is populated</t>
+  </si>
+  <si>
+    <t>Consent submitted D</t>
+  </si>
+  <si>
+    <t>if consented, check if date (454445267) is populated</t>
+  </si>
+  <si>
+    <t>User profile submitted A</t>
+  </si>
+  <si>
+    <t>d_399159511</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) if user profile submitted, first name should be available</t>
+  </si>
+  <si>
+    <t>User profile submitted B</t>
+  </si>
+  <si>
+    <t>d_996038075</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) if user profile submitted, check that last name is available</t>
+  </si>
+  <si>
+    <t>User profile submitted C</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb23) if user profile submitted, check that date is available</t>
+  </si>
+  <si>
+    <t>Pre-consent Opt-Out</t>
+  </si>
+  <si>
+    <t>NA or CrossValid1</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Mar 27) Should say if opt out = yes then consent = yes</t>
+  </si>
+  <si>
+    <t>Date of pre-consent opt-out</t>
+  </si>
+  <si>
+    <t>NA or valid before date</t>
+  </si>
+  <si>
+    <t>Michelle/Madhuri/Jake (Feb 17) The QC rule should return anyone whose date of pre-consent opt out is after the date of consent</t>
+  </si>
+  <si>
+    <t>If opt out (state_d_158291096) is yes (353358909) then opt out time (state_d_697256759) exists</t>
+  </si>
+  <si>
+    <t>Sign-in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If sign-in date (d_335767902) does not exist then sign-in (d_230663853) should = no (104430631) or NA </t>
+  </si>
+  <si>
+    <t>Consented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_919254129 </t>
+  </si>
+  <si>
+    <t>If consent time (d_454445267) does not exist then consented (d_919254129) should = no (104430631) or NA</t>
+  </si>
+  <si>
+    <t>User profile submitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If user profile submit time (d_430551721) does not exist then user profile (d_699625233) should = no (104430631) or NA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">d_821247024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If verification time (d_914594314) does not exist then verification status (d_821247024) should = not yet verified (875007964) or NA </t>
+  </si>
+  <si>
+    <t>Pre-consent opt-out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_d_158291096 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If opt out time (state_d_697256759) does not exist then opt-out (state_d_158291096) should = no (104430631) or NA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">state_d_148197146 </t>
+  </si>
+  <si>
+    <t>638335430, 283434980, 866029623, 654558118, 979256174</t>
+  </si>
+  <si>
+    <t>If verifcation status (d_821247024) = duplicate (922622075), there should be a duplicate type (state_d_148197146 = 638335430, 283434980, 866029623, 654558118, 979256174)</t>
+  </si>
+  <si>
+    <t>If there's a duplicate type (state_d_148197146 = 638335430, 283434980, 866029623, 654558118, 979256174), verifcation status (d_821247024) should = duplicate (922622075)</t>
+  </si>
+  <si>
+    <t>If manual verification (state_d_953614051)= method not used (734437214) or NA, then outreach required for manual verification (state_d_188797763)= no (104430631) or NA</t>
+  </si>
+  <si>
+    <t>If user profile submitted (d_d_699625233) = yes (353358909) then sign-in (d_230663853) = yes (353358909)</t>
+  </si>
+  <si>
+    <t>If user profile submitted (d_d_699625233) = yes (353358909) then consented (d_919254129) = yes (353358909)</t>
+  </si>
+  <si>
+    <t>If verification status (d_821247024) = verified (197316935) then sign in (d_230663853) = yes (353358909)</t>
+  </si>
+  <si>
+    <t>If verification status (d_821247024) = verified (197316935) then consented (d_919254129) = yes (353358909)</t>
+  </si>
+  <si>
+    <t>If verification status (d_821247024) = verified (197316935) then user profile submitted (d_699625233) = yes (353358909)</t>
+  </si>
+  <si>
+    <t>Payment issued to participant</t>
+  </si>
+  <si>
+    <t>d_648936790</t>
+  </si>
+  <si>
+    <t>d_130371375_d_266600170_d_731498909</t>
+  </si>
+  <si>
+    <t>Anyone issued a payment (648936790 = 353358909) that was not eligible for payment (731498909 or 222373868 = 104430631)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> d_130371375_d_266600170_d_222373868</t>
+  </si>
+  <si>
+    <t>531629870, 548392715, 125001209, 327912200, 300267574, 452412599, 303349821, 657167265, 517700004, 181769837</t>
+  </si>
+  <si>
+    <t>Anyone issued a payment (648936790 = 353358909) that was not eligible for payment (731498909 or 222373868 = 104430631)- includes NORC payment eligibility variable</t>
+  </si>
+  <si>
+    <t>Refused Baseline Surveys</t>
+  </si>
+  <si>
+    <t>d_685002411_d_994064239</t>
+  </si>
+  <si>
+    <t>If there's a refusal or withdrawal (refusal/withdrawal variable = 353358909) on someone whose verification status is anything other than verified (821247024 = 875007964, 219863910, 922622075, or 160161595, or to simplify if 821247024 NE 197316935) so we know who they are</t>
+  </si>
+  <si>
+    <t>These aren't really errors, more so we just want these flagged to get a list of people that fall in this category</t>
+  </si>
+  <si>
+    <t>Refused Baseline Blood Sample</t>
+  </si>
+  <si>
+    <t>d_685002411_d_194410742</t>
+  </si>
+  <si>
+    <t>Refused Baseline Urine Sample</t>
+  </si>
+  <si>
+    <t>d_685002411_d_949501163</t>
+  </si>
+  <si>
+    <t>Refused Baseline Saliva Sample</t>
+  </si>
+  <si>
+    <t>d_685002411_d_277479354</t>
+  </si>
+  <si>
+    <t>Refused All Future Surveys</t>
+  </si>
+  <si>
+    <t>d_685002411_d_867203506</t>
+  </si>
+  <si>
+    <t>Refused All Future Samples</t>
+  </si>
+  <si>
+    <t>d_685002411_d_352996056</t>
+  </si>
+  <si>
+    <t>Refused Baseline Specimen Surveys</t>
+  </si>
+  <si>
+    <t>d_685002411_d_217367618</t>
+  </si>
+  <si>
+    <t>Wants Data Destroyed</t>
+  </si>
+  <si>
+    <t>d_831041022</t>
+  </si>
+  <si>
+    <t>Revoke HIPAA</t>
+  </si>
+  <si>
+    <t>d_773707518</t>
+  </si>
+  <si>
+    <t>Withdrew Consent</t>
+  </si>
+  <si>
+    <t>d_747006172</t>
+  </si>
+  <si>
+    <t>Refused All Future Activities</t>
+  </si>
+  <si>
+    <t>d_906417725</t>
+  </si>
+  <si>
+    <t>Deceased</t>
+  </si>
+  <si>
+    <t>d_987563196</t>
+  </si>
+  <si>
+    <t>Suspended Contact</t>
+  </si>
+  <si>
+    <t>d_726389747</t>
+  </si>
+  <si>
+    <t>qctype</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Function in QAQC.R</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>The CID’s value must be in set of valid_values</t>
+  </si>
+  <si>
+    <t>The CID’s value must be in set of valid_values OR NA</t>
+  </si>
+  <si>
+    <t>na_or_valid</t>
+  </si>
+  <si>
+    <t>valid before date()</t>
+  </si>
+  <si>
+    <t>The CID’s value must be a date that is before that of the CID in the valid_values column</t>
+  </si>
+  <si>
+    <t>validBeforeDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # should fail if NA or if date to check is later than valid values date</t>
+  </si>
+  <si>
+    <t>crossvalid before date()</t>
+  </si>
+  <si>
+    <t>Same as "valid before date()", but only runs of crossvailidation is met</t>
+  </si>
+  <si>
+    <t>crossvalidBeforeDate</t>
+  </si>
+  <si>
+    <t>NA or valid before date()</t>
+  </si>
+  <si>
+    <t>Same as "valid before date()", but CID can also be NA</t>
+  </si>
+  <si>
+    <t>na_or_validBeforeDate</t>
+  </si>
+  <si>
+    <t>Same as "valid before date(), but CID can also be NA, and test only runs if crossvalidation criterion met</t>
+  </si>
+  <si>
+    <t>na_or_crossvalidBeforeDate</t>
+  </si>
+  <si>
+    <t>is populated</t>
+  </si>
+  <si>
+    <t>The CID must have a value (Not NA or Null)</t>
+  </si>
+  <si>
+    <t>isPopulated</t>
+  </si>
+  <si>
+    <t>The CID must have a value (Not NA or Null), but test only run if crossvalidation criterion is met</t>
+  </si>
+  <si>
+    <t>crossvalidIsPopulated</t>
+  </si>
+  <si>
+    <t>crossValid1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CID’s value must be in set of valid_values, but valid crossvalidation variables must be in set of valid values before the qc test is run </t>
+  </si>
+  <si>
+    <t>crossvalid</t>
+  </si>
+  <si>
+    <t>crossValid2</t>
+  </si>
+  <si>
+    <t>similar to crossValid1, but with additional crossvalidation checks (2)</t>
+  </si>
+  <si>
+    <t>crossValid3</t>
+  </si>
+  <si>
+    <t>similar to crossValid1, but with additional crossvalidation checks (3)</t>
+  </si>
+  <si>
+    <t>crossValid4</t>
+  </si>
+  <si>
+    <t>similar to crossValid1, but with additional crossvalidation checks (4)</t>
+  </si>
+  <si>
+    <t>Similar to crossValid1, but CID can be NA</t>
+  </si>
+  <si>
+    <t>na_or_crossvalid</t>
+  </si>
+  <si>
+    <t>Similar to crossValid2, but CID can be NA</t>
+  </si>
+  <si>
+    <t>Similar to crossValid3, but CID can be NA</t>
+  </si>
+  <si>
+    <t>Similar to crossValid4, but CID can be NA</t>
+  </si>
+  <si>
+    <t>The value of the CID is a valid date, only checked if crossvalidation criterion is met</t>
+  </si>
+  <si>
+    <t>crossvalidDate</t>
+  </si>
+  <si>
+    <t>crossValid1NotNA</t>
+  </si>
+  <si>
+    <t>The value of the CID is not NA, only checked if crossvalication criterion is met</t>
+  </si>
+  <si>
+    <t>crossValid_notNA</t>
+  </si>
+  <si>
+    <t>The value of the CID must be valid dateTime and cannot be NA</t>
+  </si>
+  <si>
+    <t>na_or_datetime</t>
+  </si>
+  <si>
+    <t>NA or date</t>
+  </si>
+  <si>
+    <t>The value of the CID must be a valid date and cannot be NA</t>
+  </si>
+  <si>
+    <t>na_or_date</t>
+  </si>
+  <si>
+    <t>crossValid1 equal to char()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The value of the CID be a character string with a length that is equal to the value listed in the valid_values column, only checked if the crossvalidation criterion is met </t>
+  </si>
+  <si>
+    <t>crossvalid_has_n_characters</t>
+  </si>
+  <si>
+    <t>The value of the CID must be a character string a length equal to the value listed in the valid values column; or NA</t>
+  </si>
+  <si>
+    <t>na_or_has_n_characters</t>
+  </si>
+  <si>
+    <t>The value of the CID must be a character string with a length that is less than or equal to value listed in the valid_values column</t>
+  </si>
+  <si>
+    <t>crossvalid_has_less_than_or_equal_n_characters</t>
+  </si>
+  <si>
+    <t>The value of the CID must be a character string with a length that is less than or equl to the value listed in the valid_values column or NA</t>
+  </si>
+  <si>
+    <t>na_or_has_less_than_or_equal_n_characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">939572698, 512786135, 582670006 
+</t>
+  </si>
+  <si>
+    <t>Sent with de-identified individual demographic variables when participants moved from Eligibility pool to active recruits with submitParticipantsData API call.</t>
+  </si>
+  <si>
+    <t>present when recruitment=active</t>
+  </si>
+  <si>
+    <t>Time from account to consent</t>
+  </si>
+  <si>
+    <t>d_204002618</t>
+  </si>
+  <si>
+    <t>Can be further derived to other time units (e.g. hours + fractions of hours) or as multiple time variables (e.g. hours, minutes, and seconds)</t>
+  </si>
+  <si>
+    <t>Time from consent to user profile</t>
+  </si>
+  <si>
+    <t>d_765924958</t>
+  </si>
+  <si>
+    <t>Verification status month</t>
+  </si>
+  <si>
+    <t>d_139603724</t>
+  </si>
+  <si>
+    <t>MONTHw. SAS format</t>
+  </si>
+  <si>
+    <t>Account UserID</t>
+  </si>
+  <si>
+    <t>d_492983562</t>
+  </si>
+  <si>
     <t>Preferred contact method</t>
   </si>
   <si>
@@ -1145,891 +1986,50 @@
     <t>Question does not appear if only mobile phone OR email given, but not both</t>
   </si>
   <si>
-    <t>Address line 1</t>
-  </si>
-  <si>
-    <t>d_521824358</t>
-  </si>
-  <si>
-    <t>Populated from Google Addresses</t>
-  </si>
-  <si>
-    <t>Address line 2</t>
-  </si>
-  <si>
-    <t>d_442166669</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>d_703385619</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>d_634434746</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>d_892050548</t>
-  </si>
-  <si>
-    <t>Previous Cancer</t>
-  </si>
-  <si>
-    <t>d_452166062</t>
-  </si>
-  <si>
-    <t>Cancer Year</t>
-  </si>
-  <si>
-    <t>d_650597106</t>
-  </si>
-  <si>
-    <t>Only shown if answer to RcrtUP_Cancer_v1r0 equals 1</t>
-  </si>
-  <si>
-    <t>Cancer Type</t>
-  </si>
-  <si>
-    <t>d_266952173</t>
-  </si>
-  <si>
-    <t>Only shown if answer to RcrtUP_Cancer_v1r0 equals 1.</t>
-  </si>
-  <si>
-    <t>Cancer Comments</t>
-  </si>
-  <si>
-    <t>d_494982282</t>
-  </si>
-  <si>
-    <t>User Profile submitted</t>
-  </si>
-  <si>
-    <t>Time User Profile submitted</t>
-  </si>
-  <si>
-    <t>d_430551721</t>
-  </si>
-  <si>
-    <t>Yes if RcrtUP_Submitted_v1r0 = 1</t>
-  </si>
-  <si>
-    <t>Verification status</t>
-  </si>
-  <si>
-    <t>d_821247024</t>
-  </si>
-  <si>
-    <t>875007964, 197316935, 219863910, 922622075, 160161595</t>
-  </si>
-  <si>
-    <t>Default, Not yet verified - 0, assigned at submission of StudyIDs from sites for active recruits and when token is assigned from passive recruits. Updates will be received from the sites as part of the verification table.</t>
-  </si>
-  <si>
-    <t>Verification status time</t>
-  </si>
-  <si>
-    <t>d_914594314</t>
-  </si>
-  <si>
-    <t>Yes if RcrtV_Verification_v1r0 =0 or 1 or 2 or 3 or 4</t>
-  </si>
-  <si>
-    <t>Automated verification</t>
-  </si>
-  <si>
-    <t>state_d_444699761</t>
-  </si>
-  <si>
-    <t>734437214, 426360242</t>
-  </si>
-  <si>
-    <t>Sent as part of the verification table from the IHCS.</t>
-  </si>
-  <si>
-    <t>Outreach required for Verification</t>
-  </si>
-  <si>
-    <t>state_d_188797763</t>
-  </si>
-  <si>
-    <t>Sent as part of the verification table from IHCS. Should not = Yes when only Automated verification is used</t>
-  </si>
-  <si>
-    <t>Manual verification</t>
-  </si>
-  <si>
-    <t>state_d_953614051</t>
-  </si>
-  <si>
-    <t>Duplicate type</t>
-  </si>
-  <si>
-    <t>state_d_148197146</t>
-  </si>
-  <si>
-    <t>638335430, 654558118, 283434980, 866029623, 979256174</t>
-  </si>
-  <si>
-    <t>If RcrtV_Verification_v1r0 = 3</t>
-  </si>
-  <si>
-    <t>Update recruit type</t>
-  </si>
-  <si>
-    <t>state_d_793822265</t>
-  </si>
-  <si>
-    <t>132080040, 854903954, 965707001, 604663208</t>
-  </si>
-  <si>
-    <t>First Name Match</t>
-  </si>
-  <si>
-    <t>state_d_147176963</t>
-  </si>
-  <si>
-    <t>356674370, 219803804</t>
-  </si>
-  <si>
-    <t>Last Name Match</t>
-  </si>
-  <si>
-    <t>state_d_557461333</t>
-  </si>
-  <si>
-    <t>DOB Match</t>
-  </si>
-  <si>
-    <t>state_d_725929722</t>
-  </si>
-  <si>
-    <t>PIN Match</t>
-  </si>
-  <si>
-    <t>state_d_711794630</t>
-  </si>
-  <si>
-    <t>Yes for some sites</t>
-  </si>
-  <si>
-    <t>Sent as part of the verification table for HFHS , KP and Sanford.</t>
-  </si>
-  <si>
-    <t>Token Match</t>
-  </si>
-  <si>
-    <t>state_d_679832994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">548392715, 125001209, 327912200, 300267574, 452412599, 657167265
-</t>
-  </si>
-  <si>
-    <t>Sent as part of the verification table for HFHS and KP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> duplicate type is required only if verif =3 (duplicate)</t>
-  </si>
-  <si>
-    <t>875007964, 197316935, 219863910, 160161595</t>
-  </si>
-  <si>
-    <t>08/03: If verification != duplicate, but instead equal to either "not yet verif", "verif", "cannot be verified", or "outreach timed out", then "Duplicate type" should be NA</t>
-  </si>
-  <si>
-    <t>Outreach required for manual verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/14/23 If outreach (188797763) = yes (353358909) then manual (953614051) has to = method used (426360242)
-</t>
-  </si>
-  <si>
-    <t>NA or crossValid2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">486306141, 854703046 </t>
-  </si>
-  <si>
-    <t>07/15: Check for deidentified variables (race, sex, age, member) if verification status = verified, and recruitment = passive or active changes based on site.</t>
-  </si>
-  <si>
-    <t>NA or crossValid3</t>
-  </si>
-  <si>
-    <t>07/14: Check for deidentified variables (race, sex, age, member) if verification status = verified, and recruitment = passive or active changes based on site.</t>
-  </si>
-  <si>
-    <t>07/14: Check for deidentified variables (race, sex, member) if verification status = verified, changes based on site.</t>
-  </si>
-  <si>
-    <t>07/14: Check for verification table variables when verification status = verified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">638335430, 654558118 </t>
-  </si>
-  <si>
-    <t>Zip code Match</t>
-  </si>
-  <si>
-    <t>state_d_559534463</t>
-  </si>
-  <si>
-    <t>Site Match</t>
-  </si>
-  <si>
-    <t>state_d_570452130</t>
-  </si>
-  <si>
-    <t>539025306, 427405444</t>
-  </si>
-  <si>
-    <t>Age Match</t>
-  </si>
-  <si>
-    <t>state_d_629484663</t>
-  </si>
-  <si>
-    <t>Cancer Status Match</t>
-  </si>
-  <si>
-    <t>state_d_547895941</t>
-  </si>
-  <si>
-    <t>07/15: For Sanford or other sites, we need race when recruitment = active</t>
-  </si>
-  <si>
-    <t>07/15: For Sanford or other sites, we need race when recruitment = passive and verification status = verified</t>
-  </si>
-  <si>
-    <t>Automated method used for verification</t>
-  </si>
-  <si>
-    <t>734437214, NA</t>
-  </si>
-  <si>
-    <t>If you're verified (821247024 = 197316935), you should have a verification mode (444699761 or 953614051 should = 426360242; 188797763 could be yes or no). Verification mode should not be missing if participant is verified</t>
-  </si>
-  <si>
-    <t>Manual method used for verification</t>
-  </si>
-  <si>
-    <t>See above</t>
-  </si>
-  <si>
-    <t>104430631, NA</t>
-  </si>
-  <si>
-    <t>197316935, 219863910, 922622075</t>
-  </si>
-  <si>
-    <t>If User Profile (699625233) = Yes (353358909) and participant is either verified (197316935), cannot be verified (219863910), or duplicate (922622075), should have verification table variables</t>
-  </si>
-  <si>
-    <t>548392715, 657167265, 125001209, 327912200, 300267574, 452412599</t>
-  </si>
-  <si>
-    <t>531629870, 548392715, 125001209, 327912200, 300267574, 452412599</t>
-  </si>
-  <si>
-    <t>Sent as part of the verification table for HP, HFHS and KP.</t>
-  </si>
-  <si>
-    <t>Zip Code Match</t>
-  </si>
-  <si>
-    <t>NA or crossValid4</t>
-  </si>
-  <si>
-    <t>Sent as part of the verification table for HFHS for passive recruits.</t>
-  </si>
-  <si>
-    <t>Campaign Type (667474224) should not be missing for any active recruits (512820379 = 486306141) and for any verified passive recruits (512820379 = 854703046 and 821247024 = 197316935)</t>
-  </si>
-  <si>
-    <t>Verification Status</t>
-  </si>
-  <si>
-    <t>If participants are “not active” (512820379 = 180583933) but they have verification complete (821247024 = 219863910, 922622075, or 197316935), we need to flag and review them</t>
-  </si>
-  <si>
-    <t>Signed in</t>
-  </si>
-  <si>
-    <t>Check flags for if consented but not signed in, if user profile submitted but not
-consented, if verification status is something other than not yet verified but no user profile</t>
-  </si>
-  <si>
-    <t>NA or crossvalid before date()</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) If active recruit, flag if sign-in time before active recruitment time</t>
-  </si>
-  <si>
-    <t>Sign-in time</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) If active recruit, flag if consent time before active sign-in time</t>
-  </si>
-  <si>
-    <t>Consent time</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) If active recruit, flag if user profile submitted time before consent time</t>
-  </si>
-  <si>
-    <t>User profile submit time</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) If active recruit, flag if user profile submitted time before profile submitted time</t>
-  </si>
-  <si>
-    <t>Time sign-in occurred B</t>
-  </si>
-  <si>
-    <t>crossValid1Date</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) If valid sign-in time, signed-in flag should be "yes"</t>
-  </si>
-  <si>
-    <t>Time consent submitted B</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) if valid consented time, censented flag should be "yes"</t>
-  </si>
-  <si>
-    <t>Time User Profile submitted B</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) if valid user profile-submitted time, profile-submitted flag should be "yes"</t>
-  </si>
-  <si>
-    <t>Verification status time B</t>
-  </si>
-  <si>
-    <t>197316935, 219863910, 922622075, 160161595</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) everyone with a verification time should have a verification status of something other than 'not yet verified'</t>
-  </si>
-  <si>
-    <t>Consent submitted A</t>
-  </si>
-  <si>
-    <t>d_471168198</t>
-  </si>
-  <si>
-    <t>crossValid1 is populated</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) if consented, check if consent name (471168198)  is populated</t>
-  </si>
-  <si>
-    <t>Consent submitted B</t>
-  </si>
-  <si>
-    <t>d_736251808</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) if consented, check if consent name (736251808) is populated</t>
-  </si>
-  <si>
-    <t>Consent submitted C</t>
-  </si>
-  <si>
-    <t>d_454205108</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) if consented, check if version (454205108) is populated</t>
-  </si>
-  <si>
-    <t>Consent submitted D</t>
-  </si>
-  <si>
-    <t>if consented, check if date (454445267) is populated</t>
-  </si>
-  <si>
-    <t>User profile submitted A</t>
-  </si>
-  <si>
-    <t>d_399159511</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) if user profile submitted, first name should be available</t>
-  </si>
-  <si>
-    <t>User profile submitted B</t>
-  </si>
-  <si>
-    <t>d_996038075</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) if user profile submitted, check that last name is available</t>
-  </si>
-  <si>
-    <t>User profile submitted C</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb23) if user profile submitted, check that date is available</t>
-  </si>
-  <si>
-    <t>Pre-consent Opt-Out</t>
-  </si>
-  <si>
-    <t>NA or CrossValid1</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Mar 27) Should say if opt out = yes then consent = yes</t>
-  </si>
-  <si>
-    <t>Date of pre-consent opt-out</t>
-  </si>
-  <si>
-    <t>NA or valid before date</t>
-  </si>
-  <si>
-    <t>Michelle/Madhuri/Jake (Feb 17) The QC rule should return anyone whose date of pre-consent opt out is after the date of consent</t>
-  </si>
-  <si>
-    <t>Payment issued to participant</t>
-  </si>
-  <si>
-    <t>d_648936790</t>
-  </si>
-  <si>
-    <t>d_130371375_d_266600170_d_731498909</t>
-  </si>
-  <si>
-    <t>Anyone issued a payment (648936790 = 353358909) that was not eligible for payment (731498909 or 222373868 = 104430631)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> d_130371375_d_266600170_d_222373868</t>
-  </si>
-  <si>
-    <t>531629870, 548392715, 125001209, 327912200, 300267574, 452412599, 303349821, 657167265, 517700004, 181769837</t>
-  </si>
-  <si>
-    <t>Anyone issued a payment (648936790 = 353358909) that was not eligible for payment (731498909 or 222373868 = 104430631)- includes NORC payment eligibility variable</t>
-  </si>
-  <si>
-    <t>Refused Baseline Surveys</t>
-  </si>
-  <si>
-    <t>d_685002411_d_994064239</t>
-  </si>
-  <si>
-    <t>If there's a refusal or withdrawal (refusal/withdrawal variable = 353358909) on someone whose verification status is anything other than verified (821247024 = 875007964, 219863910, 922622075, or 160161595, or to simplify if 821247024 NE 197316935) so we know who they are</t>
-  </si>
-  <si>
-    <t>These aren't really errors, more so we just want these flagged to get a list of people that fall in this category</t>
-  </si>
-  <si>
-    <t>Refused Baseline Blood Sample</t>
-  </si>
-  <si>
-    <t>d_685002411_d_194410742</t>
-  </si>
-  <si>
-    <t>Refused Baseline Urine Sample</t>
-  </si>
-  <si>
-    <t>d_685002411_d_949501163</t>
-  </si>
-  <si>
-    <t>Refused Baseline Saliva Sample</t>
-  </si>
-  <si>
-    <t>d_685002411_d_277479354</t>
-  </si>
-  <si>
-    <t>Refused All Future Surveys</t>
-  </si>
-  <si>
-    <t>d_685002411_d_867203506</t>
-  </si>
-  <si>
-    <t>Refused All Future Samples</t>
-  </si>
-  <si>
-    <t>d_685002411_d_352996056</t>
-  </si>
-  <si>
-    <t>Refused Baseline Specimen Surveys</t>
-  </si>
-  <si>
-    <t>d_685002411_d_217367618</t>
-  </si>
-  <si>
-    <t>Wants Data Destroyed</t>
-  </si>
-  <si>
-    <t>d_831041022</t>
-  </si>
-  <si>
-    <t>Revoke HIPAA</t>
-  </si>
-  <si>
-    <t>d_773707518</t>
-  </si>
-  <si>
-    <t>Withdrew Consent</t>
-  </si>
-  <si>
-    <t>d_747006172</t>
-  </si>
-  <si>
-    <t>Refused All Future Activities</t>
-  </si>
-  <si>
-    <t>d_906417725</t>
-  </si>
-  <si>
-    <t>Deceased</t>
-  </si>
-  <si>
-    <t>d_987563196</t>
-  </si>
-  <si>
-    <t>Suspended Contact</t>
-  </si>
-  <si>
-    <t>d_726389747</t>
-  </si>
-  <si>
-    <t>qctype</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Function in QAQC.R</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>The CID’s value must be in set of valid_values</t>
-  </si>
-  <si>
-    <t>The CID’s value must be in set of valid_values OR NA</t>
-  </si>
-  <si>
-    <t>na_or_valid</t>
-  </si>
-  <si>
-    <t>valid before date()</t>
-  </si>
-  <si>
-    <t>The CID’s value must be a date that is before that of the CID in the valid_values column</t>
-  </si>
-  <si>
-    <t>validBeforeDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  # should fail if NA or if date to check is later than valid values date</t>
-  </si>
-  <si>
-    <t>crossvalid before date()</t>
-  </si>
-  <si>
-    <t>Same as "valid before date()", but only runs of crossvailidation is met</t>
-  </si>
-  <si>
-    <t>crossvalidBeforeDate</t>
-  </si>
-  <si>
-    <t>NA or valid before date()</t>
-  </si>
-  <si>
-    <t>Same as "valid before date()", but CID can also be NA</t>
-  </si>
-  <si>
-    <t>na_or_validBeforeDate</t>
-  </si>
-  <si>
-    <t>Same as "valid before date(), but CID can also be NA, and test only runs if crossvalidation criterion met</t>
-  </si>
-  <si>
-    <t>na_or_crossvalidBeforeDate</t>
-  </si>
-  <si>
-    <t>is populated</t>
-  </si>
-  <si>
-    <t>The CID must have a value (Not NA or Null)</t>
-  </si>
-  <si>
-    <t>isPopulated</t>
-  </si>
-  <si>
-    <t>The CID must have a value (Not NA or Null), but test only run if crossvalidation criterion is met</t>
-  </si>
-  <si>
-    <t>crossvalidIsPopulated</t>
-  </si>
-  <si>
-    <t>crossValid1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The CID’s value must be in set of valid_values, but valid crossvalidation variables must be in set of valid values before the qc test is run </t>
-  </si>
-  <si>
-    <t>crossvalid</t>
-  </si>
-  <si>
-    <t>crossValid2</t>
-  </si>
-  <si>
-    <t>similar to crossValid1, but with additional crossvalidation checks (2)</t>
-  </si>
-  <si>
-    <t>crossValid3</t>
-  </si>
-  <si>
-    <t>similar to crossValid1, but with additional crossvalidation checks (3)</t>
-  </si>
-  <si>
-    <t>crossValid4</t>
-  </si>
-  <si>
-    <t>similar to crossValid1, but with additional crossvalidation checks (4)</t>
-  </si>
-  <si>
-    <t>Similar to crossValid1, but CID can be NA</t>
-  </si>
-  <si>
-    <t>na_or_crossvalid</t>
-  </si>
-  <si>
-    <t>Similar to crossValid2, but CID can be NA</t>
-  </si>
-  <si>
-    <t>Similar to crossValid3, but CID can be NA</t>
-  </si>
-  <si>
-    <t>Similar to crossValid4, but CID can be NA</t>
-  </si>
-  <si>
-    <t>The value of the CID is a valid date, only checked if crossvalidation criterion is met</t>
-  </si>
-  <si>
-    <t>crossvalidDate</t>
-  </si>
-  <si>
-    <t>crossValid1NotNA</t>
-  </si>
-  <si>
-    <t>The value of the CID is not NA, only checked if crossvalication criterion is met</t>
-  </si>
-  <si>
-    <t>crossValid_notNA</t>
-  </si>
-  <si>
-    <t>The value of the CID must be valid dateTime and cannot be NA</t>
-  </si>
-  <si>
-    <t>na_or_datetime</t>
-  </si>
-  <si>
-    <t>NA or date</t>
-  </si>
-  <si>
-    <t>The value of the CID must be a valid date and cannot be NA</t>
-  </si>
-  <si>
-    <t>na_or_date</t>
-  </si>
-  <si>
-    <t>crossValid1 equal to char()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The value of the CID be a character string with a length that is equal to the value listed in the valid_values column, only checked if the crossvalidation criterion is met </t>
-  </si>
-  <si>
-    <t>crossvalid_has_n_characters</t>
-  </si>
-  <si>
-    <t>The value of the CID must be a character string a length equal to the value listed in the valid values column; or NA</t>
-  </si>
-  <si>
-    <t>na_or_has_n_characters</t>
-  </si>
-  <si>
-    <t>The value of the CID must be a character string with a length that is less than or equal to value listed in the valid_values column</t>
-  </si>
-  <si>
-    <t>crossvalid_has_less_than_or_equal_n_characters</t>
-  </si>
-  <si>
-    <t>The value of the CID must be a character string with a length that is less than or equl to the value listed in the valid_values column or NA</t>
-  </si>
-  <si>
-    <t>na_or_has_less_than_or_equal_n_characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">939572698, 512786135, 582670006 
-</t>
-  </si>
-  <si>
-    <t>Sent with de-identified individual demographic variables when participants moved from Eligibility pool to active recruits with submitParticipantsData API call.</t>
-  </si>
-  <si>
-    <t>present when recruitment=active</t>
-  </si>
-  <si>
-    <t>Time from account to consent</t>
-  </si>
-  <si>
-    <t>d_204002618</t>
-  </si>
-  <si>
-    <t>Can be further derived to other time units (e.g. hours + fractions of hours) or as multiple time variables (e.g. hours, minutes, and seconds)</t>
-  </si>
-  <si>
-    <t>Time from consent to user profile</t>
-  </si>
-  <si>
-    <t>d_765924958</t>
-  </si>
-  <si>
-    <t>Verification status month</t>
-  </si>
-  <si>
-    <t>d_139603724</t>
-  </si>
-  <si>
-    <t>MONTHw. SAS format</t>
-  </si>
-  <si>
-    <t>Account UserID</t>
-  </si>
-  <si>
-    <t>d_492983562</t>
-  </si>
-  <si>
-    <t>If opt out (state_d_158291096) is yes (353358909) then opt out time (state_d_697256759) exists</t>
-  </si>
-  <si>
     <t>If valid opt-out date (state_d_697256759), opt-out flag (state_d_158291096) should be yes (353358909)</t>
   </si>
   <si>
-    <t>Sign-in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If sign-in date (d_335767902) does not exist then sign-in (d_230663853) should = no (104430631) or NA </t>
-  </si>
-  <si>
     <t>Date/time signed-in</t>
   </si>
   <si>
+    <t>crossValid1 is not populated</t>
+  </si>
+  <si>
     <t xml:space="preserve">If sign-in (d_230663853) = no (104430631) or NA then sign-in date (d_335767902) should not exist </t>
   </si>
   <si>
-    <t>Consented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d_919254129 </t>
-  </si>
-  <si>
-    <t>If consent time (d_454445267) does not exist then consented (d_919254129) should = no (104430631) or NA</t>
-  </si>
-  <si>
     <t>Date/time consented</t>
   </si>
   <si>
     <t>If consented (d_919254129) = no (104430631) or NA then consent time (d_454445267) should not exist</t>
   </si>
   <si>
-    <t>User profile submitted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If user profile submit time (d_430551721) does not exist then user profile (d_699625233) should = no (104430631) or NA </t>
-  </si>
-  <si>
     <t>Date/time user profile submitted</t>
   </si>
   <si>
     <t xml:space="preserve">If user profile (d_699625233) = no (104430631) or NA then user profile submit time (d_430551721) should not exist </t>
   </si>
   <si>
-    <t xml:space="preserve">d_821247024 </t>
+    <t>Date/time verification status set</t>
   </si>
   <si>
     <t>875007964, NA</t>
   </si>
   <si>
-    <t xml:space="preserve">If verification time (d_914594314) does not exist then verification status (d_821247024) should = not yet verified (875007964) or NA </t>
-  </si>
-  <si>
-    <t>Date/time verification status set</t>
-  </si>
-  <si>
     <t>If verification status (d_821247024) = not yet verified (875007964) or NA then verification time (d_914594314) should not exist</t>
   </si>
   <si>
-    <t>Pre-consent opt-out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_d_158291096 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If opt out time (state_d_697256759) does not exist then opt-out (state_d_158291096) should = no (104430631) or NA </t>
-  </si>
-  <si>
     <t>Date/time of pre-consent opt-out</t>
   </si>
   <si>
     <t>If opt-out (state_d_158291096) = no (104430631) or NA then opt out time (state_d_697256759) should not exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">state_d_148197146 </t>
-  </si>
-  <si>
-    <t>638335430, 283434980, 866029623, 654558118, 979256174</t>
-  </si>
-  <si>
-    <t>If verifcation status (d_821247024) = duplicate (922622075), there should be a duplicate type (state_d_148197146 = 638335430, 283434980, 866029623, 654558118, 979256174)</t>
-  </si>
-  <si>
-    <t>If there's a duplicate type (state_d_148197146 = 638335430, 283434980, 866029623, 654558118, 979256174), verifcation status (d_821247024) should = duplicate (922622075)</t>
-  </si>
-  <si>
-    <t>If manual verification (state_d_953614051)= method not used (734437214) or NA, then outreach required for manual verification (state_d_188797763)= no (104430631) or NA</t>
-  </si>
-  <si>
-    <t>If user profile submitted (d_d_699625233) = yes (353358909) then sign-in (d_230663853) = yes (353358909)</t>
-  </si>
-  <si>
-    <t>If user profile submitted (d_d_699625233) = yes (353358909) then consented (d_919254129) = yes (353358909)</t>
-  </si>
-  <si>
-    <t>875007964, 219863910, 922622075, 160161595</t>
-  </si>
-  <si>
-    <t>crossValid1 is not populated</t>
-  </si>
-  <si>
-    <t>If verification status (d_821247024) = verified (197316935) then sign in (d_230663853) = yes (353358909)</t>
-  </si>
-  <si>
-    <t>If verification status (d_821247024) = verified (197316935) then consented (d_919254129) = yes (353358909)</t>
-  </si>
-  <si>
-    <t>If verification status (d_821247024) = verified (197316935) then user profile submitted (d_699625233) = yes (353358909)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2092,8 +2092,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2121,6 +2127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFACFF9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2156,7 +2168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2225,6 +2237,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2234,9 +2250,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFACFF9"/>
       <color rgb="FFB8F5D3"/>
       <color rgb="FFFCC7C0"/>
-      <color rgb="FFFACFF9"/>
       <color rgb="FFFACFEA"/>
       <color rgb="FFA9D8DE"/>
     </mruColors>
@@ -2666,10 +2682,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
+      <selection pane="bottomLeft" activeCell="O168" sqref="O168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -2690,7 +2706,7 @@
     <col min="17" max="16384" width="17.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +2753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2757,7 +2773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -2783,7 +2799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -2803,7 +2819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2820,7 +2836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2843,7 +2859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -2866,7 +2882,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -2889,7 +2905,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2912,7 +2928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
@@ -2929,7 +2945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -2952,7 +2968,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -2972,7 +2988,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -2986,7 +3002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -3000,7 +3016,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -3017,7 +3033,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -3037,7 +3053,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
@@ -3063,7 +3079,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -3089,7 +3105,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -3115,7 +3131,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>85</v>
       </c>
@@ -3141,7 +3157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -3167,7 +3183,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>89</v>
       </c>
@@ -3193,7 +3209,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>91</v>
       </c>
@@ -3213,7 +3229,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -3239,7 +3255,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>95</v>
       </c>
@@ -3265,7 +3281,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>97</v>
       </c>
@@ -3291,7 +3307,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>99</v>
       </c>
@@ -3317,7 +3333,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>101</v>
       </c>
@@ -3343,7 +3359,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>103</v>
       </c>
@@ -3369,7 +3385,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
@@ -3395,7 +3411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
@@ -3421,7 +3437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -3447,7 +3463,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
         <v>111</v>
       </c>
@@ -3473,7 +3489,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
         <v>113</v>
       </c>
@@ -3499,7 +3515,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
         <v>115</v>
       </c>
@@ -3525,7 +3541,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
         <v>117</v>
       </c>
@@ -3551,7 +3567,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
         <v>119</v>
       </c>
@@ -3577,7 +3593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
         <v>121</v>
       </c>
@@ -3603,7 +3619,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
         <v>123</v>
       </c>
@@ -3629,7 +3645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
         <v>125</v>
       </c>
@@ -3655,7 +3671,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
         <v>127</v>
       </c>
@@ -3681,7 +3697,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
         <v>129</v>
       </c>
@@ -3707,7 +3723,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
         <v>131</v>
       </c>
@@ -3733,7 +3749,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
         <v>133</v>
       </c>
@@ -3759,7 +3775,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
         <v>135</v>
       </c>
@@ -3785,7 +3801,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
@@ -3811,7 +3827,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
         <v>139</v>
       </c>
@@ -3837,7 +3853,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
         <v>141</v>
       </c>
@@ -3863,7 +3879,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
         <v>143</v>
       </c>
@@ -3889,7 +3905,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
         <v>145</v>
       </c>
@@ -3915,7 +3931,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
         <v>147</v>
       </c>
@@ -3935,7 +3951,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
         <v>150</v>
       </c>
@@ -3955,7 +3971,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
         <v>153</v>
       </c>
@@ -3975,7 +3991,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
         <v>157</v>
       </c>
@@ -3992,7 +4008,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
         <v>161</v>
       </c>
@@ -4009,7 +4025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
         <v>163</v>
       </c>
@@ -4029,7 +4045,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14">
       <c r="A57" s="1" t="s">
         <v>166</v>
       </c>
@@ -4049,7 +4065,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
         <v>170</v>
       </c>
@@ -4072,7 +4088,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14">
       <c r="A59" s="1" t="s">
         <v>172</v>
       </c>
@@ -4089,7 +4105,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14">
       <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
@@ -4106,7 +4122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
         <v>176</v>
       </c>
@@ -4123,7 +4139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14">
       <c r="A62" s="1" t="s">
         <v>178</v>
       </c>
@@ -4140,7 +4156,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14">
       <c r="A63" s="1" t="s">
         <v>180</v>
       </c>
@@ -4157,7 +4173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14">
       <c r="A64" s="1" t="s">
         <v>182</v>
       </c>
@@ -4174,7 +4190,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14">
       <c r="A65" s="1" t="s">
         <v>184</v>
       </c>
@@ -4191,7 +4207,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14">
       <c r="A66" s="1" t="s">
         <v>186</v>
       </c>
@@ -4208,7 +4224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14">
       <c r="A67" s="1" t="s">
         <v>188</v>
       </c>
@@ -4225,7 +4241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14">
       <c r="A68" s="1" t="s">
         <v>190</v>
       </c>
@@ -4242,7 +4258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14">
       <c r="A69" s="1" t="s">
         <v>192</v>
       </c>
@@ -4259,7 +4275,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14">
       <c r="A70" s="1" t="s">
         <v>194</v>
       </c>
@@ -4276,7 +4292,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14">
       <c r="A71" s="1" t="s">
         <v>196</v>
       </c>
@@ -4293,7 +4309,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14">
       <c r="A72" s="1" t="s">
         <v>198</v>
       </c>
@@ -4310,7 +4326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14">
       <c r="A73" s="1" t="s">
         <v>200</v>
       </c>
@@ -4327,7 +4343,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14">
       <c r="A74" s="1" t="s">
         <v>202</v>
       </c>
@@ -4344,7 +4360,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14">
       <c r="A75" s="1" t="s">
         <v>204</v>
       </c>
@@ -4361,7 +4377,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14">
       <c r="A76" s="1" t="s">
         <v>206</v>
       </c>
@@ -4378,7 +4394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14">
       <c r="A77" s="1" t="s">
         <v>208</v>
       </c>
@@ -4398,7 +4414,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14">
       <c r="A78" s="1" t="s">
         <v>211</v>
       </c>
@@ -4424,7 +4440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14">
       <c r="A79" s="1" t="s">
         <v>214</v>
       </c>
@@ -4441,7 +4457,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14">
       <c r="A80" s="1" t="s">
         <v>216</v>
       </c>
@@ -4461,7 +4477,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
         <v>220</v>
       </c>
@@ -4487,7 +4503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15">
       <c r="A82" s="1" t="s">
         <v>224</v>
       </c>
@@ -4507,7 +4523,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
         <v>226</v>
       </c>
@@ -4524,7 +4540,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
         <v>229</v>
       </c>
@@ -4541,7 +4557,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
         <v>232</v>
       </c>
@@ -4558,7 +4574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
         <v>216</v>
       </c>
@@ -4578,7 +4594,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
         <v>236</v>
       </c>
@@ -4598,7 +4614,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15">
       <c r="A88" s="1" t="s">
         <v>239</v>
       </c>
@@ -4618,7 +4634,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
         <v>242</v>
       </c>
@@ -4638,7 +4654,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
         <v>245</v>
       </c>
@@ -4658,7 +4674,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
         <v>248</v>
       </c>
@@ -4675,7 +4691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
         <v>250</v>
       </c>
@@ -4692,7 +4708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
         <v>252</v>
       </c>
@@ -4715,7 +4731,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
         <v>258</v>
       </c>
@@ -4738,7 +4754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
         <v>262</v>
       </c>
@@ -4755,7 +4771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
         <v>264</v>
       </c>
@@ -4778,7 +4794,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
         <v>266</v>
       </c>
@@ -4795,7 +4811,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
         <v>268</v>
       </c>
@@ -4815,7 +4831,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
         <v>270</v>
       </c>
@@ -4832,7 +4848,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
         <v>272</v>
       </c>
@@ -4858,7 +4874,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
         <v>275</v>
       </c>
@@ -4884,7 +4900,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
         <v>277</v>
       </c>
@@ -4910,7 +4926,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>279</v>
       </c>
@@ -4936,12 +4952,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>23</v>
@@ -4959,18 +4975,18 @@
         <v>19</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O104" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>23</v>
@@ -4988,18 +5004,18 @@
         <v>75</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O105" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>23</v>
@@ -5017,18 +5033,18 @@
         <v>19</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O106" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>23</v>
@@ -5046,18 +5062,18 @@
         <v>19</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O107" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>23</v>
@@ -5075,18 +5091,18 @@
         <v>19</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O108" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>36</v>
@@ -5104,12 +5120,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>60</v>
@@ -5121,15 +5137,15 @@
         <v>75</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>60</v>
@@ -5141,18 +5157,18 @@
         <v>75</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="O111" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>60</v>
@@ -5164,15 +5180,15 @@
         <v>75</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>274</v>
@@ -5187,12 +5203,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>60</v>
@@ -5201,38 +5217,38 @@
         <v>24</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>60</v>
@@ -5241,38 +5257,38 @@
         <v>24</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N116" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>17</v>
@@ -5284,64 +5300,64 @@
         <v>19</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F121" s="1">
         <v>922622075</v>
@@ -5350,144 +5366,144 @@
         <v>19</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M126" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N126" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N126" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F127" s="1">
         <v>922622075</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>36</v>
@@ -5496,21 +5512,21 @@
         <v>261</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="31.5" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>36</v>
@@ -5519,16 +5535,16 @@
         <v>426360242</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F129" s="1">
         <v>353358909</v>
       </c>
       <c r="O129" s="21" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
         <v>50</v>
       </c>
@@ -5536,13 +5552,13 @@
         <v>51</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F130" s="1">
         <v>197316935</v>
@@ -5551,13 +5567,13 @@
         <v>16</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
         <v>27</v>
       </c>
@@ -5565,13 +5581,13 @@
         <v>28</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F131" s="1">
         <v>197316935</v>
@@ -5580,13 +5596,13 @@
         <v>16</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
         <v>31</v>
       </c>
@@ -5594,13 +5610,13 @@
         <v>32</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F132" s="1">
         <v>197316935</v>
@@ -5609,13 +5625,13 @@
         <v>16</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
         <v>34</v>
       </c>
@@ -5623,7 +5639,7 @@
         <v>35</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>37</v>
@@ -5635,7 +5651,7 @@
         <v>657167265</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H133" s="1">
         <v>197316935</v>
@@ -5644,13 +5660,13 @@
         <v>16</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
         <v>40</v>
       </c>
@@ -5658,7 +5674,7 @@
         <v>41</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>42</v>
@@ -5670,7 +5686,7 @@
         <v>548392715</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H134" s="1">
         <v>197316935</v>
@@ -5679,13 +5695,13 @@
         <v>16</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
         <v>53</v>
       </c>
@@ -5693,7 +5709,7 @@
         <v>54</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>55</v>
@@ -5705,7 +5721,7 @@
         <v>56</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H135" s="1">
         <v>197316935</v>
@@ -5714,27 +5730,27 @@
         <v>16</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F136" s="1">
         <v>197316935</v>
@@ -5743,27 +5759,27 @@
         <v>16</v>
       </c>
       <c r="H136" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O136" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O136" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F137" s="1">
         <v>197316935</v>
@@ -5772,27 +5788,27 @@
         <v>16</v>
       </c>
       <c r="H137" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O137" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O137" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F138" s="1">
         <v>197316935</v>
@@ -5801,27 +5817,27 @@
         <v>16</v>
       </c>
       <c r="H138" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O138" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O138" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F139" s="1">
         <v>197316935</v>
@@ -5830,27 +5846,27 @@
         <v>16</v>
       </c>
       <c r="H139" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O139" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O139" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F140" s="1">
         <v>197316935</v>
@@ -5859,27 +5875,27 @@
         <v>16</v>
       </c>
       <c r="H140" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O140" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O140" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F141" s="1">
         <v>197316935</v>
@@ -5888,27 +5904,27 @@
         <v>16</v>
       </c>
       <c r="H141" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O141" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O141" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F142" s="1">
         <v>197316935</v>
@@ -5917,27 +5933,27 @@
         <v>16</v>
       </c>
       <c r="H142" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O142" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O142" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F143" s="1">
         <v>197316935</v>
@@ -5946,27 +5962,27 @@
         <v>16</v>
       </c>
       <c r="H143" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O143" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O143" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F144" s="1">
         <v>197316935</v>
@@ -5975,27 +5991,27 @@
         <v>16</v>
       </c>
       <c r="H144" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O144" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O144" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F145" s="1">
         <v>197316935</v>
@@ -6004,27 +6020,27 @@
         <v>16</v>
       </c>
       <c r="H145" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O145" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O145" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F146" s="1">
         <v>197316935</v>
@@ -6033,27 +6049,27 @@
         <v>16</v>
       </c>
       <c r="H146" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O146" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O146" s="1" t="s">
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="C147" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F147" s="1">
         <v>197316935</v>
@@ -6062,27 +6078,27 @@
         <v>16</v>
       </c>
       <c r="H147" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O147" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O147" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F148" s="1">
         <v>197316935</v>
@@ -6091,27 +6107,27 @@
         <v>16</v>
       </c>
       <c r="H148" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O148" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O148" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F149" s="1">
         <v>197316935</v>
@@ -6120,13 +6136,13 @@
         <v>16</v>
       </c>
       <c r="H149" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O149" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="O149" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>34</v>
       </c>
@@ -6134,7 +6150,7 @@
         <v>35</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>37</v>
@@ -6152,10 +6168,10 @@
         <v>486306141</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>40</v>
       </c>
@@ -6163,7 +6179,7 @@
         <v>41</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>42</v>
@@ -6181,10 +6197,10 @@
         <v>486306141</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>53</v>
       </c>
@@ -6192,7 +6208,7 @@
         <v>54</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>55</v>
@@ -6210,10 +6226,10 @@
         <v>486306141</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>34</v>
       </c>
@@ -6221,7 +6237,7 @@
         <v>35</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>37</v>
@@ -6239,16 +6255,16 @@
         <v>486306141</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J153" s="1">
         <v>197316935</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>40</v>
       </c>
@@ -6256,7 +6272,7 @@
         <v>41</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>42</v>
@@ -6274,16 +6290,16 @@
         <v>486306141</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J154" s="1">
         <v>197316935</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="16" thickBot="1">
       <c r="A155" s="1" t="s">
         <v>53</v>
       </c>
@@ -6291,7 +6307,7 @@
         <v>54</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>55</v>
@@ -6309,123 +6325,123 @@
         <v>486306141</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="J155" s="1">
         <v>197316935</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" s="4" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" s="4" customFormat="1" ht="16" thickTop="1">
       <c r="A156" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D156" s="4">
         <v>426360242</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F156" s="4">
         <v>197316935</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M156" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O156" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D157" s="1">
         <v>426360242</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F157" s="1">
         <v>197316935</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F158" s="1">
         <v>426360242</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>274</v>
@@ -6434,30 +6450,30 @@
         <v>353358909</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>274</v>
@@ -6466,30 +6482,30 @@
         <v>353358909</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>274</v>
@@ -6498,30 +6514,30 @@
         <v>353358909</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>274</v>
@@ -6530,39 +6546,39 @@
         <v>353358909</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>274</v>
@@ -6571,39 +6587,39 @@
         <v>353358909</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>274</v>
@@ -6612,10 +6628,10 @@
         <v>353358909</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>38</v>
@@ -6633,24 +6649,24 @@
         <v>19</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="O164" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>274</v>
@@ -6659,30 +6675,30 @@
         <v>353358909</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>274</v>
@@ -6691,30 +6707,30 @@
         <v>353358909</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O166" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>274</v>
@@ -6723,88 +6739,94 @@
         <v>353358909</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" s="26" customFormat="1">
+      <c r="A168" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D168" s="1" t="s">
+      <c r="C168" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D168" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F168" s="26">
         <v>486306141</v>
       </c>
-      <c r="M168" s="1" t="s">
+      <c r="G168" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="H168" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="M168" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O168" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="O168" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" s="26" customFormat="1">
+      <c r="A169" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D169" s="1" t="s">
+      <c r="C169" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D169" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169" s="26">
         <v>854703046</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H169" s="1">
+      <c r="G169" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="H169" s="26">
         <v>197316935</v>
       </c>
-      <c r="M169" s="1" t="s">
+      <c r="M169" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O169" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O169" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>573</v>
+        <v>384</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>16</v>
@@ -6816,12 +6838,12 @@
         <v>19</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>154</v>
@@ -6842,10 +6864,10 @@
         <v>19</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" s="9" customFormat="1">
       <c r="A172" s="9" t="s">
         <v>21</v>
       </c>
@@ -6853,7 +6875,7 @@
         <v>22</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D172" s="20" t="s">
         <v>158</v>
@@ -6865,18 +6887,18 @@
         <v>486306141</v>
       </c>
       <c r="O172" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" s="9" customFormat="1">
       <c r="A173" s="9" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B173" s="20" t="s">
         <v>158</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>221</v>
@@ -6888,21 +6910,21 @@
         <v>486306141</v>
       </c>
       <c r="O173" s="9" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" s="9" customFormat="1">
       <c r="A174" s="9" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>16</v>
@@ -6911,21 +6933,21 @@
         <v>486306141</v>
       </c>
       <c r="O174" s="9" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" s="9" customFormat="1" ht="16">
       <c r="A175" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>16</v>
@@ -6934,18 +6956,18 @@
         <v>486306141</v>
       </c>
       <c r="O175" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" s="9" customFormat="1">
       <c r="A176" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>154</v>
@@ -6954,18 +6976,18 @@
         <v>353358909</v>
       </c>
       <c r="O176" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="177" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" s="9" customFormat="1">
       <c r="A177" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>222</v>
@@ -6974,18 +6996,18 @@
         <v>353358909</v>
       </c>
       <c r="O177" s="9" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" s="9" customFormat="1">
       <c r="A178" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>274</v>
@@ -6994,38 +7016,38 @@
         <v>353358909</v>
       </c>
       <c r="O178" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" s="9" customFormat="1">
+      <c r="A179" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="O179" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" s="9" customFormat="1">
+      <c r="A180" s="9" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="179" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="9" t="s">
+      <c r="B180" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="F179" s="10" t="s">
+      <c r="C180" s="9" t="s">
         <v>408</v>
-      </c>
-      <c r="O179" s="9" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>412</v>
       </c>
       <c r="E180" s="9" t="s">
         <v>222</v>
@@ -7034,18 +7056,18 @@
         <v>353358909</v>
       </c>
       <c r="O180" s="9" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" s="9" customFormat="1">
       <c r="A181" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E181" s="9" t="s">
         <v>222</v>
@@ -7054,18 +7076,18 @@
         <v>353358909</v>
       </c>
       <c r="O181" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" s="9" customFormat="1">
       <c r="A182" s="9" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E182" s="9" t="s">
         <v>222</v>
@@ -7074,18 +7096,18 @@
         <v>353358909</v>
       </c>
       <c r="O182" s="9" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" s="9" customFormat="1">
       <c r="A183" s="9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E183" s="9" t="s">
         <v>222</v>
@@ -7094,18 +7116,18 @@
         <v>353358909</v>
       </c>
       <c r="O183" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" s="9" customFormat="1">
       <c r="A184" s="9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E184" s="9" t="s">
         <v>274</v>
@@ -7114,18 +7136,18 @@
         <v>353358909</v>
       </c>
       <c r="O184" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" s="9" customFormat="1">
       <c r="A185" s="9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>274</v>
@@ -7134,18 +7156,18 @@
         <v>353358909</v>
       </c>
       <c r="O185" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="186" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" s="9" customFormat="1">
       <c r="A186" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E186" s="9" t="s">
         <v>274</v>
@@ -7154,18 +7176,18 @@
         <v>353358909</v>
       </c>
       <c r="O186" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
       <c r="A187" s="8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B187" s="20" t="s">
         <v>222</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D187" s="8">
         <v>353358909</v>
@@ -7187,20 +7209,20 @@
       </c>
       <c r="N187" s="8"/>
       <c r="O187" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="P187" s="8"/>
       <c r="Q187" s="8"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17">
       <c r="A188" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>221</v>
@@ -7218,20 +7240,20 @@
       </c>
       <c r="N188" s="8"/>
       <c r="O188" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P188" s="8"/>
       <c r="Q188" s="8"/>
     </row>
-    <row r="189" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" s="24" customFormat="1">
       <c r="A189" s="23" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B189" s="23" t="s">
         <v>78</v>
       </c>
       <c r="C189" s="24" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E189" s="24" t="s">
         <v>73</v>
@@ -7240,12 +7262,12 @@
         <v>353358909</v>
       </c>
       <c r="O189" s="24" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" s="24" customFormat="1">
       <c r="A190" s="24" t="s">
-        <v>543</v>
+        <v>433</v>
       </c>
       <c r="B190" s="24" t="s">
         <v>154</v>
@@ -7263,15 +7285,15 @@
         <v>261</v>
       </c>
       <c r="O190" s="24" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" s="24" customFormat="1">
       <c r="A191" s="24" t="s">
-        <v>547</v>
+        <v>435</v>
       </c>
       <c r="B191" s="24" t="s">
-        <v>548</v>
+        <v>436</v>
       </c>
       <c r="C191" s="24" t="s">
         <v>36</v>
@@ -7286,12 +7308,12 @@
         <v>261</v>
       </c>
       <c r="O191" s="24" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" s="24" customFormat="1">
       <c r="A192" s="24" t="s">
-        <v>552</v>
+        <v>438</v>
       </c>
       <c r="B192" s="24" t="s">
         <v>274</v>
@@ -7303,21 +7325,21 @@
         <v>104430631</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F192" s="24" t="s">
         <v>261</v>
       </c>
       <c r="O192" s="24" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" s="24" customFormat="1">
       <c r="A193" s="24" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B193" s="24" t="s">
-        <v>556</v>
+        <v>440</v>
       </c>
       <c r="C193" s="24" t="s">
         <v>36</v>
@@ -7326,21 +7348,21 @@
         <v>875007964</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F193" s="24" t="s">
         <v>261</v>
       </c>
       <c r="O193" s="24" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" s="24" customFormat="1">
       <c r="A194" s="24" t="s">
-        <v>561</v>
+        <v>442</v>
       </c>
       <c r="B194" s="24" t="s">
-        <v>562</v>
+        <v>443</v>
       </c>
       <c r="C194" s="24" t="s">
         <v>36</v>
@@ -7355,38 +7377,38 @@
         <v>261</v>
       </c>
       <c r="O194" s="24" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" s="24" customFormat="1">
       <c r="A195" s="24" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B195" s="24" t="s">
-        <v>566</v>
+        <v>445</v>
       </c>
       <c r="C195" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D195" s="24" t="s">
-        <v>567</v>
+        <v>446</v>
       </c>
       <c r="E195" s="24" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F195" s="24">
         <v>922622075</v>
       </c>
       <c r="O195" s="24" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" s="24" customFormat="1">
       <c r="A196" s="24" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B196" s="24" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C196" s="24" t="s">
         <v>36</v>
@@ -7395,21 +7417,21 @@
         <v>922622075</v>
       </c>
       <c r="E196" s="24" t="s">
-        <v>566</v>
+        <v>445</v>
       </c>
       <c r="F196" s="24" t="s">
-        <v>567</v>
+        <v>446</v>
       </c>
       <c r="O196" s="24" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" s="24" customFormat="1">
       <c r="A197" s="24" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B197" s="24" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C197" s="24" t="s">
         <v>36</v>
@@ -7418,18 +7440,18 @@
         <v>104430631</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F197" s="24" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="O197" s="24" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" s="24" customFormat="1">
       <c r="A198" s="24" t="s">
-        <v>543</v>
+        <v>433</v>
       </c>
       <c r="B198" s="24" t="s">
         <v>154</v>
@@ -7447,15 +7469,15 @@
         <v>353358909</v>
       </c>
       <c r="O198" s="24" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" s="24" customFormat="1">
       <c r="A199" s="24" t="s">
-        <v>547</v>
+        <v>435</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>548</v>
+        <v>436</v>
       </c>
       <c r="C199" s="24" t="s">
         <v>36</v>
@@ -7470,12 +7492,12 @@
         <v>353358909</v>
       </c>
       <c r="O199" s="24" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" s="24" customFormat="1">
       <c r="A200" s="24" t="s">
-        <v>543</v>
+        <v>433</v>
       </c>
       <c r="B200" s="24" t="s">
         <v>154</v>
@@ -7487,21 +7509,21 @@
         <v>353358909</v>
       </c>
       <c r="E200" s="24" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F200" s="24">
         <v>197316935</v>
       </c>
       <c r="O200" s="24" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" s="24" customFormat="1">
       <c r="A201" s="24" t="s">
-        <v>547</v>
+        <v>435</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>548</v>
+        <v>436</v>
       </c>
       <c r="C201" s="24" t="s">
         <v>36</v>
@@ -7510,18 +7532,18 @@
         <v>353358909</v>
       </c>
       <c r="E201" s="24" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F201" s="24">
         <v>197316935</v>
       </c>
       <c r="O201" s="24" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" s="24" customFormat="1">
       <c r="A202" s="24" t="s">
-        <v>552</v>
+        <v>438</v>
       </c>
       <c r="B202" s="24" t="s">
         <v>274</v>
@@ -7533,13 +7555,13 @@
         <v>353358909</v>
       </c>
       <c r="E202" s="24" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F202" s="24">
         <v>197316935</v>
       </c>
       <c r="O202" s="24" t="s">
-        <v>577</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -7556,7 +7578,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -7575,7 +7597,7 @@
     <col min="15" max="15" width="142.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7622,33 +7644,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15"/>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="E5" s="20"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="15"/>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="15"/>
+    <row r="10" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="15"/>
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="15"/>
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="15"/>
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="15"/>
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="15"/>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7663,14 +7685,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
@@ -7679,7 +7701,7 @@
         <v>353358909</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="F1" s="1">
         <v>353358909</v>
@@ -7688,30 +7710,30 @@
         <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A2" s="1" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D2" s="1">
         <v>353358909</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="F2" s="1">
         <v>353358909</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="H2" s="1">
         <v>353358909</v>
@@ -7720,13 +7742,13 @@
         <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -7743,7 +7765,7 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -7753,12 +7775,12 @@
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A1" s="6" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>36</v>
@@ -7767,7 +7789,7 @@
         <v>353358909</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F1" s="6">
         <v>197316935</v>
@@ -7776,18 +7798,18 @@
         <v>19</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A2" s="6" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>36</v>
@@ -7796,7 +7818,7 @@
         <v>353358909</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F2" s="6">
         <v>197316935</v>
@@ -7805,15 +7827,15 @@
         <v>19</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A3" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>36</v>
@@ -7822,7 +7844,7 @@
         <v>353358909</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F3" s="6">
         <v>197316935</v>
@@ -7831,15 +7853,15 @@
         <v>19</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A4" s="7" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>36</v>
@@ -7848,7 +7870,7 @@
         <v>353358909</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F4" s="6">
         <v>197316935</v>
@@ -7857,15 +7879,15 @@
         <v>19</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A5" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>36</v>
@@ -7874,7 +7896,7 @@
         <v>353358909</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F5" s="6">
         <v>197316935</v>
@@ -7883,15 +7905,15 @@
         <v>19</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A6" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>36</v>
@@ -7900,7 +7922,7 @@
         <v>353358909</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F6" s="6">
         <v>197316935</v>
@@ -7909,15 +7931,15 @@
         <v>19</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A7" s="7" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>36</v>
@@ -7926,7 +7948,7 @@
         <v>353358909</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F7" s="6">
         <v>197316935</v>
@@ -7935,15 +7957,15 @@
         <v>19</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A8" s="7" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>36</v>
@@ -7952,7 +7974,7 @@
         <v>353358909</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F8" s="6">
         <v>197316935</v>
@@ -7961,15 +7983,15 @@
         <v>19</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A9" s="7" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
@@ -7978,7 +8000,7 @@
         <v>353358909</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F9" s="6">
         <v>197316935</v>
@@ -7987,15 +8009,15 @@
         <v>19</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A10" s="7" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>36</v>
@@ -8004,7 +8026,7 @@
         <v>353358909</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F10" s="6">
         <v>197316935</v>
@@ -8013,15 +8035,15 @@
         <v>19</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A11" s="7" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>36</v>
@@ -8030,7 +8052,7 @@
         <v>353358909</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F11" s="6">
         <v>197316935</v>
@@ -8039,15 +8061,15 @@
         <v>19</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A12" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>36</v>
@@ -8056,7 +8078,7 @@
         <v>353358909</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F12" s="6">
         <v>197316935</v>
@@ -8065,15 +8087,15 @@
         <v>19</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="6" customFormat="1" ht="15">
       <c r="A13" s="7" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>36</v>
@@ -8082,7 +8104,7 @@
         <v>353358909</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F13" s="6">
         <v>197316935</v>
@@ -8091,7 +8113,7 @@
         <v>19</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -8107,287 +8129,287 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="78.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="78.83203125" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="16384" width="78.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="20">
       <c r="A1" s="14" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20">
       <c r="A2" s="12" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="40">
       <c r="A4" s="11" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20">
       <c r="A5" s="11" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20">
       <c r="A6" s="12" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40">
       <c r="A7" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20">
       <c r="A8" s="12" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40">
       <c r="A9" s="12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="40" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40">
       <c r="A10" s="12" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20">
       <c r="A11" s="12" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20">
       <c r="A12" s="12" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20">
       <c r="A13" s="12" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20">
       <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20">
       <c r="A15" s="12" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="20" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20">
       <c r="A16" s="12" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20">
       <c r="A17" s="12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="40">
       <c r="A18" s="12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20">
       <c r="A19" s="12" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20">
       <c r="A20" s="12" t="s">
         <v>159</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20">
       <c r="A21" s="12" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60">
       <c r="A22" s="12" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="40">
       <c r="A23" s="12" t="s">
         <v>254</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="40">
       <c r="A24" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="40" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="40">
       <c r="A25" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -8403,21 +8425,21 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>274</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D1" s="1">
         <v>353358909</v>
@@ -8438,21 +8460,21 @@
         <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>154</v>
@@ -8476,10 +8498,10 @@
         <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -8490,7 +8512,7 @@
         <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -8502,18 +8524,18 @@
         <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A4" s="1" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>60</v>
@@ -8525,15 +8547,15 @@
         <v>19</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A5" s="1" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>60</v>
@@ -8545,15 +8567,15 @@
         <v>19</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A6" s="1" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>254</v>
@@ -8562,18 +8584,18 @@
         <v>2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A7" s="1" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>60</v>
@@ -8585,18 +8607,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A8" s="1" t="s">
-        <v>281</v>
+        <v>560</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>282</v>
+        <v>561</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>283</v>
+        <v>562</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>274</v>
@@ -8605,10 +8627,10 @@
         <v>353358909</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>284</v>
+        <v>563</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>285</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -8625,7 +8647,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -8644,7 +8666,7 @@
     <col min="15" max="15" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8691,7 +8713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="17" customFormat="1" ht="15">
       <c r="A2" s="17" t="s">
         <v>72</v>
       </c>
@@ -8699,7 +8721,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D2" s="17">
         <v>353358909</v>
@@ -8708,107 +8730,107 @@
         <v>78</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="17" customFormat="1" ht="15">
       <c r="A3" s="17" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>158</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>154</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="17" customFormat="1" ht="15">
       <c r="A4" s="17" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>221</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>548</v>
+        <v>436</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="17" customFormat="1" ht="15">
       <c r="A5" s="17" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>274</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="17" customFormat="1" ht="15">
       <c r="A6" s="17" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>557</v>
-      </c>
       <c r="O6" s="17" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="17" customFormat="1" ht="15">
       <c r="A7" s="17" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>562</v>
+        <v>443</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/qc_rules_recruitment.xlsx
+++ b/qc_rules_recruitment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/7_qaqc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB593C35-9969-E048-8E56-6249FB2B3B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74BB367C-6CC8-194C-B56E-2D1EC84561C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="7000" windowWidth="30240" windowHeight="17080" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{8AC44F3B-8D47-B14A-85C0-6B36B0621E92}"/>
   </bookViews>
   <sheets>
     <sheet name="QAQC" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="898">
   <si>
     <t>rule_id</t>
   </si>
@@ -2374,6 +2374,9 @@
     <t>d_386488297</t>
   </si>
   <si>
+    <t>crossValid2Date</t>
+  </si>
+  <si>
     <t>Date/time Status of Completion of Where You Live and Work</t>
   </si>
   <si>
@@ -2479,6 +2482,60 @@
     <t xml:space="preserve">Survey must have a end time stamp if the survey has been completed </t>
   </si>
   <si>
+    <t>Refused baseline blood sample</t>
+  </si>
+  <si>
+    <t>d_685002411_d_194410742</t>
+  </si>
+  <si>
+    <t>Refused baseline urine sample</t>
+  </si>
+  <si>
+    <t>Refused baseline surveys</t>
+  </si>
+  <si>
+    <t>Refused baseline mouthwash sample</t>
+  </si>
+  <si>
+    <t>Refused all future surveys</t>
+  </si>
+  <si>
+    <t>Refused all future samples</t>
+  </si>
+  <si>
+    <t>Refused baseline specimen surveys</t>
+  </si>
+  <si>
+    <t>Refused QOL-mo Survey</t>
+  </si>
+  <si>
+    <t>d_685002411_d_936015433</t>
+  </si>
+  <si>
+    <t>Refused all QOL survey</t>
+  </si>
+  <si>
+    <t>d_685002411_d_688142378</t>
+  </si>
+  <si>
+    <t>Refused 2024 Connect Experience Survey</t>
+  </si>
+  <si>
+    <t>d_685002411_d_101763809</t>
+  </si>
+  <si>
+    <t>Refused all future Connect Experience Surveys</t>
+  </si>
+  <si>
+    <t>d_685002411_d_525277409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refused Cancer Screening History Survey </t>
+  </si>
+  <si>
+    <t>d_685002411_d_671903816</t>
+  </si>
+  <si>
     <t>Payment issued to participant</t>
   </si>
   <si>
@@ -2507,9 +2564,6 @@
   </si>
   <si>
     <t>Refused Baseline Blood Sample</t>
-  </si>
-  <si>
-    <t>d_685002411_d_194410742</t>
   </si>
   <si>
     <t>Refused Baseline Urine Sample</t>
@@ -2865,18 +2919,12 @@
     <t>Derivation- Refused 3-mo QOL Survey- Any Refusal or Withdrawal</t>
   </si>
   <si>
-    <t>d_685002411_d_936015433</t>
-  </si>
-  <si>
     <t>If refused 3mo QOL survey = yes, then 'any refusal or withdrawal' = yes</t>
   </si>
   <si>
     <t>Derivation- Refused 2024 Connect Exp Survey- Any Refusal or Withdrawal</t>
   </si>
   <si>
-    <t>d_685002411_d_101763809</t>
-  </si>
-  <si>
     <t>If refused 2024 Connect Experience survey = yes, then 'any refusal or withdrawal' = yes</t>
   </si>
   <si>
@@ -2916,9 +2964,6 @@
     <t>d_130371375_d_266600170_d_222373868</t>
   </si>
   <si>
-    <t>crossValid2Date</t>
-  </si>
-  <si>
     <t>Birthday Card Version Character Length</t>
   </si>
   <si>
@@ -2929,13 +2974,43 @@
   </si>
   <si>
     <t>d_768313785</t>
+  </si>
+  <si>
+    <t>Flag for blood/urine survey</t>
+  </si>
+  <si>
+    <t>Valid values of SrvBlU_BaseComplete_v1r0 are started, submitted, or not started. Should not be null</t>
+  </si>
+  <si>
+    <t>Flag for mouthwash survey</t>
+  </si>
+  <si>
+    <t>SrvMtW_BaseComplete_v1r0 must be started, not started, or null</t>
+  </si>
+  <si>
+    <t>Blood/urine/mouthwash combined research survey</t>
+  </si>
+  <si>
+    <t>972455046,615768760, 231311385</t>
+  </si>
+  <si>
+    <t>d_650516960</t>
+  </si>
+  <si>
+    <t>If collection setting is research, the the research BUM survey flag must be started, not started, or submitted. Cannot be null</t>
+  </si>
+  <si>
+    <t>Refused follow up blood sample</t>
+  </si>
+  <si>
+    <t>d_685002411_d_941963821</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3107,6 +3182,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3193,7 +3287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3369,12 +3463,33 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3 3 2 2 2 2 2 2" xfId="1" xr:uid="{E416645E-FBB9-934E-8707-8A46924C6AD7}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3807,11 +3922,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFE071A-3C83-9E45-B616-577D581A90B9}">
-  <dimension ref="A1:BO291"/>
+  <dimension ref="A1:BQ307"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D289" sqref="D289"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P301" sqref="P301:P303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -10670,7 +10785,7 @@
       <c r="BO209" s="20"/>
     </row>
     <row r="210" spans="1:67" s="5" customFormat="1" ht="15">
-      <c r="A210" s="17"/>
+      <c r="A210" s="19"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
       <c r="D210" s="17"/>
@@ -15629,7 +15744,7 @@
         <v>687</v>
       </c>
       <c r="D278" s="66" t="s">
-        <v>421</v>
+        <v>688</v>
       </c>
       <c r="E278" s="66"/>
       <c r="F278" s="66" t="s">
@@ -15638,6 +15753,12 @@
       <c r="G278" s="63" t="s">
         <v>651</v>
       </c>
+      <c r="H278" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="I278" s="28">
+        <v>104430631</v>
+      </c>
       <c r="P278" s="69" t="s">
         <v>661</v>
       </c>
@@ -15647,17 +15768,17 @@
         <v>309</v>
       </c>
       <c r="B279" s="66" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C279" s="66" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D279" s="66" t="s">
         <v>421</v>
       </c>
       <c r="E279" s="66"/>
       <c r="F279" s="66" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G279" s="66" t="s">
         <v>657</v>
@@ -15671,20 +15792,26 @@
         <v>310</v>
       </c>
       <c r="B280" s="66" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C280" s="66" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D280" s="66" t="s">
-        <v>421</v>
+        <v>688</v>
       </c>
       <c r="E280" s="66"/>
       <c r="F280" s="66" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G280" s="63" t="s">
         <v>651</v>
+      </c>
+      <c r="H280" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="I280" s="28">
+        <v>104430631</v>
       </c>
       <c r="P280" s="69" t="s">
         <v>661</v>
@@ -15695,17 +15822,17 @@
         <v>311</v>
       </c>
       <c r="B281" s="67" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C281" s="67" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D281" s="67" t="s">
         <v>421</v>
       </c>
       <c r="E281" s="67"/>
       <c r="F281" s="67" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G281" s="67">
         <v>231311385</v>
@@ -15719,20 +15846,26 @@
         <v>312</v>
       </c>
       <c r="B282" s="67" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C282" s="67" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D282" s="67" t="s">
-        <v>421</v>
+        <v>688</v>
       </c>
       <c r="E282" s="67"/>
       <c r="F282" s="62" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G282" s="63" t="s">
         <v>651</v>
+      </c>
+      <c r="H282" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="I282" s="28">
+        <v>104430631</v>
       </c>
       <c r="P282" s="69" t="s">
         <v>661</v>
@@ -15743,17 +15876,17 @@
         <v>313</v>
       </c>
       <c r="B283" s="67" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C283" s="67" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D283" s="67" t="s">
         <v>421</v>
       </c>
       <c r="E283" s="67"/>
       <c r="F283" s="67" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G283" s="67">
         <v>231311385</v>
@@ -15767,20 +15900,26 @@
         <v>314</v>
       </c>
       <c r="B284" s="67" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C284" s="67" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D284" s="67" t="s">
-        <v>421</v>
+        <v>688</v>
       </c>
       <c r="E284" s="67"/>
       <c r="F284" s="68" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G284" s="63" t="s">
         <v>651</v>
+      </c>
+      <c r="H284" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="I284" s="28">
+        <v>104430631</v>
       </c>
       <c r="P284" s="69" t="s">
         <v>661</v>
@@ -15791,17 +15930,17 @@
         <v>315</v>
       </c>
       <c r="B285" s="67" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C285" s="67" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D285" s="67" t="s">
         <v>421</v>
       </c>
       <c r="E285" s="67"/>
       <c r="F285" s="67" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G285" s="67">
         <v>231311385</v>
@@ -15815,20 +15954,26 @@
         <v>316</v>
       </c>
       <c r="B286" s="67" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C286" s="67" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D286" s="67" t="s">
-        <v>421</v>
+        <v>688</v>
       </c>
       <c r="E286" s="67"/>
       <c r="F286" s="68" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G286" s="63" t="s">
         <v>651</v>
+      </c>
+      <c r="H286" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="I286" s="28">
+        <v>104430631</v>
       </c>
       <c r="P286" s="69" t="s">
         <v>661</v>
@@ -15839,17 +15984,17 @@
         <v>317</v>
       </c>
       <c r="B287" s="67" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C287" s="67" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D287" s="67" t="s">
         <v>421</v>
       </c>
       <c r="E287" s="67"/>
       <c r="F287" s="67" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G287" s="67">
         <v>231311385</v>
@@ -15863,94 +16008,1156 @@
         <v>318</v>
       </c>
       <c r="B288" s="67" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C288" s="67" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D288" s="67" t="s">
-        <v>421</v>
+        <v>688</v>
       </c>
       <c r="E288" s="67"/>
       <c r="F288" s="62" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G288" s="63" t="s">
         <v>651</v>
       </c>
+      <c r="H288" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="I288" s="28">
+        <v>104430631</v>
+      </c>
       <c r="P288" s="69" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="15">
+    <row r="289" spans="1:69" ht="15">
       <c r="A289" s="19">
         <v>293</v>
       </c>
       <c r="B289" s="17" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C289" s="17" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D289" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E289" s="19" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F289" s="62"/>
       <c r="G289" s="63"/>
       <c r="P289" s="69" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="290" spans="1:16" ht="15">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="290" spans="1:69" ht="15">
       <c r="A290" s="19">
         <v>294</v>
       </c>
       <c r="B290" s="17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C290" s="17" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D290" s="62" t="s">
         <v>421</v>
       </c>
       <c r="E290" s="19"/>
       <c r="F290" s="17" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G290" s="19" t="s">
         <v>677</v>
       </c>
       <c r="P290" s="17" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="291" spans="1:16" ht="15">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="291" spans="1:69" ht="15">
       <c r="A291" s="19">
         <v>296</v>
       </c>
       <c r="B291" s="17" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C291" s="17" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D291" s="62" t="s">
         <v>421</v>
       </c>
       <c r="E291" s="19"/>
       <c r="F291" s="17" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G291" s="19">
         <v>231311385</v>
       </c>
       <c r="P291" s="17" t="s">
-        <v>722</v>
-      </c>
+        <v>723</v>
+      </c>
+    </row>
+    <row r="292" spans="1:69" ht="16">
+      <c r="A292" s="72">
+        <v>321</v>
+      </c>
+      <c r="B292" s="59" t="s">
+        <v>724</v>
+      </c>
+      <c r="C292" s="59" t="s">
+        <v>725</v>
+      </c>
+      <c r="D292" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E292" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F292" s="72"/>
+      <c r="G292" s="72"/>
+      <c r="H292" s="71"/>
+      <c r="I292" s="71"/>
+      <c r="J292" s="71"/>
+      <c r="K292" s="71"/>
+      <c r="L292" s="71"/>
+      <c r="M292" s="71"/>
+      <c r="N292" s="71"/>
+      <c r="O292" s="71"/>
+      <c r="P292" s="73" t="str">
+        <f>_xlfn.CONCAT(B292, " must be yes or no, cannot be null")</f>
+        <v>Refused baseline blood sample must be yes or no, cannot be null</v>
+      </c>
+      <c r="Q292" s="71"/>
+      <c r="R292" s="71" t="str">
+        <f t="shared" ref="R292:R303" si="0">_xlfn.CONCAT(B292, " flag must be yes or null, should not be null")</f>
+        <v>Refused baseline blood sample flag must be yes or null, should not be null</v>
+      </c>
+      <c r="S292" s="71"/>
+      <c r="T292" s="71"/>
+      <c r="U292" s="71"/>
+      <c r="V292" s="71"/>
+      <c r="W292" s="71"/>
+      <c r="X292" s="71"/>
+      <c r="Y292" s="71"/>
+      <c r="Z292" s="71"/>
+      <c r="AA292" s="71"/>
+      <c r="AB292" s="71"/>
+      <c r="AC292" s="71"/>
+      <c r="AD292" s="71"/>
+      <c r="AE292" s="71"/>
+      <c r="AF292" s="71"/>
+      <c r="AG292" s="71"/>
+      <c r="AH292" s="71"/>
+      <c r="AI292" s="71"/>
+      <c r="AJ292" s="71"/>
+      <c r="AK292" s="71"/>
+      <c r="AL292" s="71"/>
+      <c r="AM292" s="71"/>
+      <c r="AN292" s="71"/>
+      <c r="AO292" s="71"/>
+      <c r="AP292" s="71"/>
+      <c r="AQ292" s="71"/>
+      <c r="AR292" s="71"/>
+      <c r="AS292" s="71"/>
+      <c r="AT292" s="71"/>
+      <c r="AU292" s="71"/>
+      <c r="AV292" s="71"/>
+      <c r="AW292" s="71"/>
+      <c r="AX292" s="71"/>
+      <c r="AY292" s="71"/>
+      <c r="AZ292" s="71"/>
+      <c r="BA292" s="71"/>
+      <c r="BB292" s="71"/>
+      <c r="BC292" s="71"/>
+      <c r="BD292" s="71"/>
+      <c r="BE292" s="71"/>
+      <c r="BF292" s="71"/>
+      <c r="BG292" s="71"/>
+      <c r="BH292" s="71"/>
+      <c r="BI292" s="71"/>
+      <c r="BJ292" s="71"/>
+      <c r="BK292" s="71"/>
+      <c r="BL292" s="71"/>
+      <c r="BM292" s="71"/>
+      <c r="BN292" s="71"/>
+      <c r="BO292" s="73"/>
+      <c r="BP292" s="73"/>
+      <c r="BQ292" s="73"/>
+    </row>
+    <row r="293" spans="1:69" ht="16">
+      <c r="A293" s="72">
+        <v>322</v>
+      </c>
+      <c r="B293" s="59" t="s">
+        <v>726</v>
+      </c>
+      <c r="C293" s="59" t="s">
+        <v>576</v>
+      </c>
+      <c r="D293" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E293" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F293" s="72"/>
+      <c r="G293" s="72"/>
+      <c r="H293" s="71"/>
+      <c r="I293" s="71"/>
+      <c r="J293" s="71"/>
+      <c r="K293" s="71"/>
+      <c r="L293" s="71"/>
+      <c r="M293" s="71"/>
+      <c r="N293" s="71"/>
+      <c r="O293" s="71"/>
+      <c r="P293" s="73" t="str">
+        <f t="shared" ref="P293:P300" si="1">_xlfn.CONCAT(B293, " must be yes or no, cannot be null")</f>
+        <v>Refused baseline urine sample must be yes or no, cannot be null</v>
+      </c>
+      <c r="Q293" s="71"/>
+      <c r="R293" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>Refused baseline urine sample flag must be yes or null, should not be null</v>
+      </c>
+      <c r="S293" s="71"/>
+      <c r="T293" s="71"/>
+      <c r="U293" s="71"/>
+      <c r="V293" s="71"/>
+      <c r="W293" s="71"/>
+      <c r="X293" s="71"/>
+      <c r="Y293" s="71"/>
+      <c r="Z293" s="71"/>
+      <c r="AA293" s="71"/>
+      <c r="AB293" s="71"/>
+      <c r="AC293" s="71"/>
+      <c r="AD293" s="71"/>
+      <c r="AE293" s="71"/>
+      <c r="AF293" s="71"/>
+      <c r="AG293" s="71"/>
+      <c r="AH293" s="71"/>
+      <c r="AI293" s="71"/>
+      <c r="AJ293" s="71"/>
+      <c r="AK293" s="71"/>
+      <c r="AL293" s="71"/>
+      <c r="AM293" s="71"/>
+      <c r="AN293" s="71"/>
+      <c r="AO293" s="71"/>
+      <c r="AP293" s="71"/>
+      <c r="AQ293" s="71"/>
+      <c r="AR293" s="71"/>
+      <c r="AS293" s="71"/>
+      <c r="AT293" s="71"/>
+      <c r="AU293" s="71"/>
+      <c r="AV293" s="71"/>
+      <c r="AW293" s="71"/>
+      <c r="AX293" s="71"/>
+      <c r="AY293" s="71"/>
+      <c r="AZ293" s="71"/>
+      <c r="BA293" s="71"/>
+      <c r="BB293" s="71"/>
+      <c r="BC293" s="71"/>
+      <c r="BD293" s="71"/>
+      <c r="BE293" s="71"/>
+      <c r="BF293" s="71"/>
+      <c r="BG293" s="71"/>
+      <c r="BH293" s="71"/>
+      <c r="BI293" s="71"/>
+      <c r="BJ293" s="71"/>
+      <c r="BK293" s="71"/>
+      <c r="BL293" s="71"/>
+      <c r="BM293" s="71"/>
+      <c r="BN293" s="71"/>
+      <c r="BO293" s="73"/>
+      <c r="BP293" s="73"/>
+      <c r="BQ293" s="73"/>
+    </row>
+    <row r="294" spans="1:69" ht="16">
+      <c r="A294" s="72">
+        <f>A293+1</f>
+        <v>323</v>
+      </c>
+      <c r="B294" s="59" t="s">
+        <v>727</v>
+      </c>
+      <c r="C294" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="D294" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E294" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F294" s="17"/>
+      <c r="G294" s="19"/>
+      <c r="H294" s="17"/>
+      <c r="I294" s="17"/>
+      <c r="J294" s="17"/>
+      <c r="K294" s="17"/>
+      <c r="L294" s="17"/>
+      <c r="M294" s="17"/>
+      <c r="N294" s="17"/>
+      <c r="P294" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>Refused baseline surveys must be yes or no, cannot be null</v>
+      </c>
+      <c r="Q294" s="17"/>
+      <c r="R294" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>Refused baseline surveys flag must be yes or null, should not be null</v>
+      </c>
+      <c r="S294" s="17"/>
+      <c r="T294" s="17"/>
+      <c r="U294" s="17"/>
+      <c r="V294" s="17"/>
+      <c r="W294" s="17"/>
+      <c r="X294" s="17"/>
+      <c r="Y294" s="17"/>
+      <c r="Z294" s="17"/>
+      <c r="AA294" s="17"/>
+      <c r="AB294" s="17"/>
+      <c r="AC294" s="17"/>
+      <c r="AD294" s="17"/>
+      <c r="AE294" s="17"/>
+      <c r="AF294" s="17"/>
+      <c r="AG294" s="17"/>
+      <c r="AH294" s="17"/>
+      <c r="AI294" s="17"/>
+      <c r="AJ294" s="17"/>
+      <c r="AK294" s="17"/>
+      <c r="AL294" s="17"/>
+      <c r="AM294" s="17"/>
+      <c r="AN294" s="17"/>
+      <c r="AO294" s="17"/>
+      <c r="AP294" s="17"/>
+      <c r="AQ294" s="17"/>
+      <c r="AR294" s="17"/>
+      <c r="AS294" s="17"/>
+      <c r="AT294" s="17"/>
+      <c r="AU294" s="17"/>
+      <c r="AV294" s="17"/>
+      <c r="AW294" s="17"/>
+      <c r="AX294" s="17"/>
+      <c r="AY294" s="17"/>
+      <c r="AZ294" s="17"/>
+      <c r="BA294" s="17"/>
+      <c r="BB294" s="17"/>
+      <c r="BC294" s="17"/>
+      <c r="BD294" s="17"/>
+      <c r="BE294" s="17"/>
+      <c r="BF294" s="17"/>
+      <c r="BG294" s="17"/>
+      <c r="BH294" s="17"/>
+      <c r="BI294" s="17"/>
+      <c r="BJ294" s="17"/>
+      <c r="BK294" s="17"/>
+      <c r="BL294" s="17"/>
+      <c r="BM294" s="17"/>
+      <c r="BN294" s="17"/>
+      <c r="BO294" s="17"/>
+      <c r="BP294" s="17"/>
+      <c r="BQ294" s="17"/>
+    </row>
+    <row r="295" spans="1:69" ht="16">
+      <c r="A295" s="72">
+        <f>A294+1</f>
+        <v>324</v>
+      </c>
+      <c r="B295" s="59" t="s">
+        <v>728</v>
+      </c>
+      <c r="C295" s="76" t="s">
+        <v>567</v>
+      </c>
+      <c r="D295" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E295" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F295" s="17"/>
+      <c r="G295" s="19"/>
+      <c r="H295" s="17"/>
+      <c r="I295" s="17"/>
+      <c r="J295" s="17"/>
+      <c r="K295" s="17"/>
+      <c r="L295" s="17"/>
+      <c r="M295" s="17"/>
+      <c r="N295" s="17"/>
+      <c r="P295" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>Refused baseline mouthwash sample must be yes or no, cannot be null</v>
+      </c>
+      <c r="Q295" s="17"/>
+      <c r="R295" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>Refused baseline mouthwash sample flag must be yes or null, should not be null</v>
+      </c>
+      <c r="S295" s="17"/>
+      <c r="T295" s="17"/>
+      <c r="U295" s="17"/>
+      <c r="V295" s="17"/>
+      <c r="W295" s="17"/>
+      <c r="X295" s="17"/>
+      <c r="Y295" s="17"/>
+      <c r="Z295" s="17"/>
+      <c r="AA295" s="17"/>
+      <c r="AB295" s="17"/>
+      <c r="AC295" s="17"/>
+      <c r="AD295" s="17"/>
+      <c r="AE295" s="17"/>
+      <c r="AF295" s="17"/>
+      <c r="AG295" s="17"/>
+      <c r="AH295" s="17"/>
+      <c r="AI295" s="17"/>
+      <c r="AJ295" s="17"/>
+      <c r="AK295" s="17"/>
+      <c r="AL295" s="17"/>
+      <c r="AM295" s="17"/>
+      <c r="AN295" s="17"/>
+      <c r="AO295" s="17"/>
+      <c r="AP295" s="17"/>
+      <c r="AQ295" s="17"/>
+      <c r="AR295" s="17"/>
+      <c r="AS295" s="17"/>
+      <c r="AT295" s="17"/>
+      <c r="AU295" s="17"/>
+      <c r="AV295" s="17"/>
+      <c r="AW295" s="17"/>
+      <c r="AX295" s="17"/>
+      <c r="AY295" s="17"/>
+      <c r="AZ295" s="17"/>
+      <c r="BA295" s="17"/>
+      <c r="BB295" s="17"/>
+      <c r="BC295" s="17"/>
+      <c r="BD295" s="17"/>
+      <c r="BE295" s="17"/>
+      <c r="BF295" s="17"/>
+      <c r="BG295" s="17"/>
+      <c r="BH295" s="17"/>
+      <c r="BI295" s="17"/>
+      <c r="BJ295" s="17"/>
+      <c r="BK295" s="17"/>
+      <c r="BL295" s="17"/>
+      <c r="BM295" s="17"/>
+      <c r="BN295" s="17"/>
+      <c r="BO295" s="17"/>
+      <c r="BP295" s="17"/>
+      <c r="BQ295" s="17"/>
+    </row>
+    <row r="296" spans="1:69" ht="16">
+      <c r="A296" s="72">
+        <f>A295+1</f>
+        <v>325</v>
+      </c>
+      <c r="B296" s="59" t="s">
+        <v>729</v>
+      </c>
+      <c r="C296" s="76" t="s">
+        <v>573</v>
+      </c>
+      <c r="D296" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E296" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F296" s="17"/>
+      <c r="G296" s="19"/>
+      <c r="H296" s="17"/>
+      <c r="I296" s="17"/>
+      <c r="J296" s="17"/>
+      <c r="K296" s="17"/>
+      <c r="L296" s="17"/>
+      <c r="M296" s="17"/>
+      <c r="N296" s="17"/>
+      <c r="P296" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>Refused all future surveys must be yes or no, cannot be null</v>
+      </c>
+      <c r="Q296" s="17"/>
+      <c r="R296" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>Refused all future surveys flag must be yes or null, should not be null</v>
+      </c>
+      <c r="S296" s="17"/>
+      <c r="T296" s="17"/>
+      <c r="U296" s="17"/>
+      <c r="V296" s="17"/>
+      <c r="W296" s="17"/>
+      <c r="X296" s="17"/>
+      <c r="Y296" s="17"/>
+      <c r="Z296" s="17"/>
+      <c r="AA296" s="17"/>
+      <c r="AB296" s="17"/>
+      <c r="AC296" s="17"/>
+      <c r="AD296" s="17"/>
+      <c r="AE296" s="17"/>
+      <c r="AF296" s="17"/>
+      <c r="AG296" s="17"/>
+      <c r="AH296" s="17"/>
+      <c r="AI296" s="17"/>
+      <c r="AJ296" s="17"/>
+      <c r="AK296" s="17"/>
+      <c r="AL296" s="17"/>
+      <c r="AM296" s="17"/>
+      <c r="AN296" s="17"/>
+      <c r="AO296" s="17"/>
+      <c r="AP296" s="17"/>
+      <c r="AQ296" s="17"/>
+      <c r="AR296" s="17"/>
+      <c r="AS296" s="17"/>
+      <c r="AT296" s="17"/>
+      <c r="AU296" s="17"/>
+      <c r="AV296" s="17"/>
+      <c r="AW296" s="17"/>
+      <c r="AX296" s="17"/>
+      <c r="AY296" s="17"/>
+      <c r="AZ296" s="17"/>
+      <c r="BA296" s="17"/>
+      <c r="BB296" s="17"/>
+      <c r="BC296" s="17"/>
+      <c r="BD296" s="17"/>
+      <c r="BE296" s="17"/>
+      <c r="BF296" s="17"/>
+      <c r="BG296" s="17"/>
+      <c r="BH296" s="17"/>
+      <c r="BI296" s="17"/>
+      <c r="BJ296" s="17"/>
+      <c r="BK296" s="17"/>
+      <c r="BL296" s="17"/>
+      <c r="BM296" s="17"/>
+      <c r="BN296" s="17"/>
+      <c r="BO296" s="17"/>
+      <c r="BP296" s="17"/>
+      <c r="BQ296" s="17"/>
+    </row>
+    <row r="297" spans="1:69" ht="16">
+      <c r="A297" s="72">
+        <f>A296+1</f>
+        <v>326</v>
+      </c>
+      <c r="B297" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="C297" s="76" t="s">
+        <v>570</v>
+      </c>
+      <c r="D297" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E297" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F297" s="17"/>
+      <c r="G297" s="19"/>
+      <c r="H297" s="17"/>
+      <c r="I297" s="17"/>
+      <c r="J297" s="17"/>
+      <c r="K297" s="17"/>
+      <c r="L297" s="17"/>
+      <c r="M297" s="17"/>
+      <c r="N297" s="17"/>
+      <c r="P297" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>Refused all future samples must be yes or no, cannot be null</v>
+      </c>
+      <c r="Q297" s="17"/>
+      <c r="R297" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>Refused all future samples flag must be yes or null, should not be null</v>
+      </c>
+      <c r="S297" s="17"/>
+      <c r="T297" s="17"/>
+      <c r="U297" s="17"/>
+      <c r="V297" s="17"/>
+      <c r="W297" s="17"/>
+      <c r="X297" s="17"/>
+      <c r="Y297" s="17"/>
+      <c r="Z297" s="17"/>
+      <c r="AA297" s="17"/>
+      <c r="AB297" s="17"/>
+      <c r="AC297" s="17"/>
+      <c r="AD297" s="17"/>
+      <c r="AE297" s="17"/>
+      <c r="AF297" s="17"/>
+      <c r="AG297" s="17"/>
+      <c r="AH297" s="17"/>
+      <c r="AI297" s="17"/>
+      <c r="AJ297" s="17"/>
+      <c r="AK297" s="17"/>
+      <c r="AL297" s="17"/>
+      <c r="AM297" s="17"/>
+      <c r="AN297" s="17"/>
+      <c r="AO297" s="17"/>
+      <c r="AP297" s="17"/>
+      <c r="AQ297" s="17"/>
+      <c r="AR297" s="17"/>
+      <c r="AS297" s="17"/>
+      <c r="AT297" s="17"/>
+      <c r="AU297" s="17"/>
+      <c r="AV297" s="17"/>
+      <c r="AW297" s="17"/>
+      <c r="AX297" s="17"/>
+      <c r="AY297" s="17"/>
+      <c r="AZ297" s="17"/>
+      <c r="BA297" s="17"/>
+      <c r="BB297" s="17"/>
+      <c r="BC297" s="17"/>
+      <c r="BD297" s="17"/>
+      <c r="BE297" s="17"/>
+      <c r="BF297" s="17"/>
+      <c r="BG297" s="17"/>
+      <c r="BH297" s="17"/>
+      <c r="BI297" s="17"/>
+      <c r="BJ297" s="17"/>
+      <c r="BK297" s="17"/>
+      <c r="BL297" s="17"/>
+      <c r="BM297" s="17"/>
+      <c r="BN297" s="17"/>
+      <c r="BO297" s="17"/>
+      <c r="BP297" s="17"/>
+      <c r="BQ297" s="17"/>
+    </row>
+    <row r="298" spans="1:69" ht="16">
+      <c r="A298" s="72">
+        <f>A297+1</f>
+        <v>327</v>
+      </c>
+      <c r="B298" s="59" t="s">
+        <v>731</v>
+      </c>
+      <c r="C298" s="76" t="s">
+        <v>564</v>
+      </c>
+      <c r="D298" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E298" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F298" s="17"/>
+      <c r="G298" s="19"/>
+      <c r="H298" s="17"/>
+      <c r="I298" s="17"/>
+      <c r="J298" s="17"/>
+      <c r="K298" s="17"/>
+      <c r="L298" s="17"/>
+      <c r="M298" s="17"/>
+      <c r="N298" s="17"/>
+      <c r="P298" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>Refused baseline specimen surveys must be yes or no, cannot be null</v>
+      </c>
+      <c r="Q298" s="17"/>
+      <c r="R298" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>Refused baseline specimen surveys flag must be yes or null, should not be null</v>
+      </c>
+      <c r="S298" s="17"/>
+      <c r="T298" s="17"/>
+      <c r="U298" s="17"/>
+      <c r="V298" s="17"/>
+      <c r="W298" s="17"/>
+      <c r="X298" s="17"/>
+      <c r="Y298" s="17"/>
+      <c r="Z298" s="17"/>
+      <c r="AA298" s="17"/>
+      <c r="AB298" s="17"/>
+      <c r="AC298" s="17"/>
+      <c r="AD298" s="17"/>
+      <c r="AE298" s="17"/>
+      <c r="AF298" s="17"/>
+      <c r="AG298" s="17"/>
+      <c r="AH298" s="17"/>
+      <c r="AI298" s="17"/>
+      <c r="AJ298" s="17"/>
+      <c r="AK298" s="17"/>
+      <c r="AL298" s="17"/>
+      <c r="AM298" s="17"/>
+      <c r="AN298" s="17"/>
+      <c r="AO298" s="17"/>
+      <c r="AP298" s="17"/>
+      <c r="AQ298" s="17"/>
+      <c r="AR298" s="17"/>
+      <c r="AS298" s="17"/>
+      <c r="AT298" s="17"/>
+      <c r="AU298" s="17"/>
+      <c r="AV298" s="17"/>
+      <c r="AW298" s="17"/>
+      <c r="AX298" s="17"/>
+      <c r="AY298" s="17"/>
+      <c r="AZ298" s="17"/>
+      <c r="BA298" s="17"/>
+      <c r="BB298" s="17"/>
+      <c r="BC298" s="17"/>
+      <c r="BD298" s="17"/>
+      <c r="BE298" s="17"/>
+      <c r="BF298" s="17"/>
+      <c r="BG298" s="17"/>
+      <c r="BH298" s="17"/>
+      <c r="BI298" s="17"/>
+      <c r="BJ298" s="17"/>
+      <c r="BK298" s="17"/>
+      <c r="BL298" s="17"/>
+      <c r="BM298" s="17"/>
+      <c r="BN298" s="17"/>
+      <c r="BO298" s="17"/>
+      <c r="BP298" s="17"/>
+      <c r="BQ298" s="17"/>
+    </row>
+    <row r="299" spans="1:69" ht="16">
+      <c r="A299" s="72">
+        <f>'Rules to Add'!A31+1</f>
+        <v>329</v>
+      </c>
+      <c r="B299" s="59" t="s">
+        <v>732</v>
+      </c>
+      <c r="C299" s="76" t="s">
+        <v>733</v>
+      </c>
+      <c r="D299" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E299" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F299" s="17"/>
+      <c r="G299" s="19"/>
+      <c r="H299" s="17"/>
+      <c r="I299" s="17"/>
+      <c r="J299" s="17"/>
+      <c r="K299" s="17"/>
+      <c r="L299" s="17"/>
+      <c r="M299" s="17"/>
+      <c r="N299" s="17"/>
+      <c r="P299" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>Refused QOL-mo Survey must be yes or no, cannot be null</v>
+      </c>
+      <c r="Q299" s="17"/>
+      <c r="R299" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>Refused QOL-mo Survey flag must be yes or null, should not be null</v>
+      </c>
+      <c r="S299" s="17"/>
+      <c r="T299" s="17"/>
+      <c r="U299" s="17"/>
+      <c r="V299" s="17"/>
+      <c r="W299" s="17"/>
+      <c r="X299" s="17"/>
+      <c r="Y299" s="17"/>
+      <c r="Z299" s="17"/>
+      <c r="AA299" s="17"/>
+      <c r="AB299" s="17"/>
+      <c r="AC299" s="17"/>
+      <c r="AD299" s="17"/>
+      <c r="AE299" s="17"/>
+      <c r="AF299" s="17"/>
+      <c r="AG299" s="17"/>
+      <c r="AH299" s="17"/>
+      <c r="AI299" s="17"/>
+      <c r="AJ299" s="17"/>
+      <c r="AK299" s="17"/>
+      <c r="AL299" s="17"/>
+      <c r="AM299" s="17"/>
+      <c r="AN299" s="17"/>
+      <c r="AO299" s="17"/>
+      <c r="AP299" s="17"/>
+      <c r="AQ299" s="17"/>
+      <c r="AR299" s="17"/>
+      <c r="AS299" s="17"/>
+      <c r="AT299" s="17"/>
+      <c r="AU299" s="17"/>
+      <c r="AV299" s="17"/>
+      <c r="AW299" s="17"/>
+      <c r="AX299" s="17"/>
+      <c r="AY299" s="17"/>
+      <c r="AZ299" s="17"/>
+      <c r="BA299" s="17"/>
+      <c r="BB299" s="17"/>
+      <c r="BC299" s="17"/>
+      <c r="BD299" s="17"/>
+      <c r="BE299" s="17"/>
+      <c r="BF299" s="17"/>
+      <c r="BG299" s="17"/>
+      <c r="BH299" s="17"/>
+      <c r="BI299" s="17"/>
+      <c r="BJ299" s="17"/>
+      <c r="BK299" s="17"/>
+      <c r="BL299" s="17"/>
+      <c r="BM299" s="17"/>
+      <c r="BN299" s="17"/>
+      <c r="BO299" s="17"/>
+      <c r="BP299" s="17"/>
+      <c r="BQ299" s="17"/>
+    </row>
+    <row r="300" spans="1:69" ht="16">
+      <c r="A300" s="72">
+        <f>A299+1</f>
+        <v>330</v>
+      </c>
+      <c r="B300" s="59" t="s">
+        <v>734</v>
+      </c>
+      <c r="C300" s="76" t="s">
+        <v>735</v>
+      </c>
+      <c r="D300" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E300" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F300" s="17"/>
+      <c r="G300" s="19"/>
+      <c r="H300" s="17"/>
+      <c r="I300" s="17"/>
+      <c r="J300" s="17"/>
+      <c r="K300" s="17"/>
+      <c r="L300" s="17"/>
+      <c r="M300" s="17"/>
+      <c r="N300" s="17"/>
+      <c r="P300" s="73" t="str">
+        <f t="shared" si="1"/>
+        <v>Refused all QOL survey must be yes or no, cannot be null</v>
+      </c>
+      <c r="Q300" s="17"/>
+      <c r="R300" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>Refused all QOL survey flag must be yes or null, should not be null</v>
+      </c>
+      <c r="S300" s="17"/>
+      <c r="T300" s="17"/>
+      <c r="U300" s="17"/>
+      <c r="V300" s="17"/>
+      <c r="W300" s="17"/>
+      <c r="X300" s="17"/>
+      <c r="Y300" s="17"/>
+      <c r="Z300" s="17"/>
+      <c r="AA300" s="17"/>
+      <c r="AB300" s="17"/>
+      <c r="AC300" s="17"/>
+      <c r="AD300" s="17"/>
+      <c r="AE300" s="17"/>
+      <c r="AF300" s="17"/>
+      <c r="AG300" s="17"/>
+      <c r="AH300" s="17"/>
+      <c r="AI300" s="17"/>
+      <c r="AJ300" s="17"/>
+      <c r="AK300" s="17"/>
+      <c r="AL300" s="17"/>
+      <c r="AM300" s="17"/>
+      <c r="AN300" s="17"/>
+      <c r="AO300" s="17"/>
+      <c r="AP300" s="17"/>
+      <c r="AQ300" s="17"/>
+      <c r="AR300" s="17"/>
+      <c r="AS300" s="17"/>
+      <c r="AT300" s="17"/>
+      <c r="AU300" s="17"/>
+      <c r="AV300" s="17"/>
+      <c r="AW300" s="17"/>
+      <c r="AX300" s="17"/>
+      <c r="AY300" s="17"/>
+      <c r="AZ300" s="17"/>
+      <c r="BA300" s="17"/>
+      <c r="BB300" s="17"/>
+      <c r="BC300" s="17"/>
+      <c r="BD300" s="17"/>
+      <c r="BE300" s="17"/>
+      <c r="BF300" s="17"/>
+      <c r="BG300" s="17"/>
+      <c r="BH300" s="17"/>
+      <c r="BI300" s="17"/>
+      <c r="BJ300" s="17"/>
+      <c r="BK300" s="17"/>
+      <c r="BL300" s="17"/>
+      <c r="BM300" s="17"/>
+      <c r="BN300" s="17"/>
+      <c r="BO300" s="17"/>
+      <c r="BP300" s="17"/>
+      <c r="BQ300" s="17"/>
+    </row>
+    <row r="301" spans="1:69" ht="16">
+      <c r="A301" s="72">
+        <f>A300+1</f>
+        <v>331</v>
+      </c>
+      <c r="B301" s="59" t="s">
+        <v>736</v>
+      </c>
+      <c r="C301" s="76" t="s">
+        <v>737</v>
+      </c>
+      <c r="D301" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E301" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F301" s="17"/>
+      <c r="G301" s="19"/>
+      <c r="H301" s="17"/>
+      <c r="I301" s="17"/>
+      <c r="J301" s="17"/>
+      <c r="K301" s="17"/>
+      <c r="L301" s="17"/>
+      <c r="M301" s="17"/>
+      <c r="N301" s="17"/>
+      <c r="P301" s="73" t="str">
+        <f>_xlfn.CONCAT(B301, " must be yess, no, or null, as not everyone is eligible for the survey")</f>
+        <v>Refused 2024 Connect Experience Survey must be yess, no, or null, as not everyone is eligible for the survey</v>
+      </c>
+      <c r="Q301" s="17"/>
+      <c r="R301" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>Refused 2024 Connect Experience Survey flag must be yes or null, should not be null</v>
+      </c>
+      <c r="S301" s="17"/>
+      <c r="T301" s="17"/>
+      <c r="U301" s="17"/>
+      <c r="V301" s="17"/>
+      <c r="W301" s="17"/>
+      <c r="X301" s="17"/>
+      <c r="Y301" s="17"/>
+      <c r="Z301" s="17"/>
+      <c r="AA301" s="17"/>
+      <c r="AB301" s="17"/>
+      <c r="AC301" s="17"/>
+      <c r="AD301" s="17"/>
+      <c r="AE301" s="17"/>
+      <c r="AF301" s="17"/>
+      <c r="AG301" s="17"/>
+      <c r="AH301" s="17"/>
+      <c r="AI301" s="17"/>
+      <c r="AJ301" s="17"/>
+      <c r="AK301" s="17"/>
+      <c r="AL301" s="17"/>
+      <c r="AM301" s="17"/>
+      <c r="AN301" s="17"/>
+      <c r="AO301" s="17"/>
+      <c r="AP301" s="17"/>
+      <c r="AQ301" s="17"/>
+      <c r="AR301" s="17"/>
+      <c r="AS301" s="17"/>
+      <c r="AT301" s="17"/>
+      <c r="AU301" s="17"/>
+      <c r="AV301" s="17"/>
+      <c r="AW301" s="17"/>
+      <c r="AX301" s="17"/>
+      <c r="AY301" s="17"/>
+      <c r="AZ301" s="17"/>
+      <c r="BA301" s="17"/>
+      <c r="BB301" s="17"/>
+      <c r="BC301" s="17"/>
+      <c r="BD301" s="17"/>
+      <c r="BE301" s="17"/>
+      <c r="BF301" s="17"/>
+      <c r="BG301" s="17"/>
+      <c r="BH301" s="17"/>
+      <c r="BI301" s="17"/>
+      <c r="BJ301" s="17"/>
+      <c r="BK301" s="17"/>
+      <c r="BL301" s="17"/>
+      <c r="BM301" s="17"/>
+      <c r="BN301" s="17"/>
+      <c r="BO301" s="17"/>
+      <c r="BP301" s="17"/>
+      <c r="BQ301" s="17"/>
+    </row>
+    <row r="302" spans="1:69" ht="16">
+      <c r="A302" s="72">
+        <f>A301+1</f>
+        <v>332</v>
+      </c>
+      <c r="B302" s="59" t="s">
+        <v>738</v>
+      </c>
+      <c r="C302" s="76" t="s">
+        <v>739</v>
+      </c>
+      <c r="D302" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E302" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F302" s="17"/>
+      <c r="G302" s="19"/>
+      <c r="H302" s="17"/>
+      <c r="I302" s="17"/>
+      <c r="J302" s="17"/>
+      <c r="K302" s="17"/>
+      <c r="L302" s="17"/>
+      <c r="M302" s="17"/>
+      <c r="N302" s="17"/>
+      <c r="P302" s="73" t="str">
+        <f t="shared" ref="P302:P303" si="2">_xlfn.CONCAT(B302, " must be yess, no, or null, as not everyone is eligible for the survey")</f>
+        <v>Refused all future Connect Experience Surveys must be yess, no, or null, as not everyone is eligible for the survey</v>
+      </c>
+      <c r="Q302" s="17"/>
+      <c r="R302" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>Refused all future Connect Experience Surveys flag must be yes or null, should not be null</v>
+      </c>
+      <c r="S302" s="17"/>
+      <c r="T302" s="17"/>
+      <c r="U302" s="17"/>
+      <c r="V302" s="17"/>
+      <c r="W302" s="17"/>
+      <c r="X302" s="17"/>
+      <c r="Y302" s="17"/>
+      <c r="Z302" s="17"/>
+      <c r="AA302" s="17"/>
+      <c r="AB302" s="17"/>
+      <c r="AC302" s="17"/>
+      <c r="AD302" s="17"/>
+      <c r="AE302" s="17"/>
+      <c r="AF302" s="17"/>
+      <c r="AG302" s="17"/>
+      <c r="AH302" s="17"/>
+      <c r="AI302" s="17"/>
+      <c r="AJ302" s="17"/>
+      <c r="AK302" s="17"/>
+      <c r="AL302" s="17"/>
+      <c r="AM302" s="17"/>
+      <c r="AN302" s="17"/>
+      <c r="AO302" s="17"/>
+      <c r="AP302" s="17"/>
+      <c r="AQ302" s="17"/>
+      <c r="AR302" s="17"/>
+      <c r="AS302" s="17"/>
+      <c r="AT302" s="17"/>
+      <c r="AU302" s="17"/>
+      <c r="AV302" s="17"/>
+      <c r="AW302" s="17"/>
+      <c r="AX302" s="17"/>
+      <c r="AY302" s="17"/>
+      <c r="AZ302" s="17"/>
+      <c r="BA302" s="17"/>
+      <c r="BB302" s="17"/>
+      <c r="BC302" s="17"/>
+      <c r="BD302" s="17"/>
+      <c r="BE302" s="17"/>
+      <c r="BF302" s="17"/>
+      <c r="BG302" s="17"/>
+      <c r="BH302" s="17"/>
+      <c r="BI302" s="17"/>
+      <c r="BJ302" s="17"/>
+      <c r="BK302" s="17"/>
+      <c r="BL302" s="17"/>
+      <c r="BM302" s="17"/>
+      <c r="BN302" s="17"/>
+      <c r="BO302" s="17"/>
+      <c r="BP302" s="17"/>
+      <c r="BQ302" s="17"/>
+    </row>
+    <row r="303" spans="1:69" ht="16">
+      <c r="A303" s="72">
+        <f>A302+1</f>
+        <v>333</v>
+      </c>
+      <c r="B303" s="59" t="s">
+        <v>740</v>
+      </c>
+      <c r="C303" s="76" t="s">
+        <v>741</v>
+      </c>
+      <c r="D303" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E303" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="F303" s="17"/>
+      <c r="G303" s="19"/>
+      <c r="H303" s="17"/>
+      <c r="I303" s="17"/>
+      <c r="J303" s="17"/>
+      <c r="K303" s="17"/>
+      <c r="L303" s="17"/>
+      <c r="M303" s="17"/>
+      <c r="N303" s="17"/>
+      <c r="P303" s="73" t="str">
+        <f t="shared" si="2"/>
+        <v>Refused Cancer Screening History Survey  must be yess, no, or null, as not everyone is eligible for the survey</v>
+      </c>
+      <c r="Q303" s="17"/>
+      <c r="R303" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>Refused Cancer Screening History Survey  flag must be yes or null, should not be null</v>
+      </c>
+      <c r="S303" s="17"/>
+      <c r="T303" s="17"/>
+      <c r="U303" s="17"/>
+      <c r="V303" s="17"/>
+      <c r="W303" s="17"/>
+      <c r="X303" s="17"/>
+      <c r="Y303" s="17"/>
+      <c r="Z303" s="17"/>
+      <c r="AA303" s="17"/>
+      <c r="AB303" s="17"/>
+      <c r="AC303" s="17"/>
+      <c r="AD303" s="17"/>
+      <c r="AE303" s="17"/>
+      <c r="AF303" s="17"/>
+      <c r="AG303" s="17"/>
+      <c r="AH303" s="17"/>
+      <c r="AI303" s="17"/>
+      <c r="AJ303" s="17"/>
+      <c r="AK303" s="17"/>
+      <c r="AL303" s="17"/>
+      <c r="AM303" s="17"/>
+      <c r="AN303" s="17"/>
+      <c r="AO303" s="17"/>
+      <c r="AP303" s="17"/>
+      <c r="AQ303" s="17"/>
+      <c r="AR303" s="17"/>
+      <c r="AS303" s="17"/>
+      <c r="AT303" s="17"/>
+      <c r="AU303" s="17"/>
+      <c r="AV303" s="17"/>
+      <c r="AW303" s="17"/>
+      <c r="AX303" s="17"/>
+      <c r="AY303" s="17"/>
+      <c r="AZ303" s="17"/>
+      <c r="BA303" s="17"/>
+      <c r="BB303" s="17"/>
+      <c r="BC303" s="17"/>
+      <c r="BD303" s="17"/>
+      <c r="BE303" s="17"/>
+      <c r="BF303" s="17"/>
+      <c r="BG303" s="17"/>
+      <c r="BH303" s="17"/>
+      <c r="BI303" s="17"/>
+      <c r="BJ303" s="17"/>
+      <c r="BK303" s="17"/>
+      <c r="BL303" s="17"/>
+      <c r="BM303" s="17"/>
+      <c r="BN303" s="17"/>
+      <c r="BO303" s="17"/>
+      <c r="BP303" s="17"/>
+      <c r="BQ303" s="17"/>
+    </row>
+    <row r="304" spans="1:69" ht="16">
+      <c r="P304" s="73"/>
+    </row>
+    <row r="305" spans="16:16" ht="16">
+      <c r="P305" s="73"/>
+    </row>
+    <row r="306" spans="16:16" ht="16">
+      <c r="P306" s="73"/>
+    </row>
+    <row r="307" spans="16:16" ht="16">
+      <c r="P307" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A272" xr:uid="{2AFE071A-3C83-9E45-B616-577D581A90B9}"/>
@@ -15974,10 +17181,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A1" s="18" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>34</v>
@@ -16002,15 +17209,15 @@
       </c>
       <c r="N1" s="18"/>
       <c r="O1" s="18" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A2" s="18" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>394</v>
@@ -16025,7 +17232,7 @@
         <v>353358909</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="H2" s="18">
         <v>353358909</v>
@@ -16034,7 +17241,7 @@
         <v>36</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -16043,7 +17250,7 @@
       </c>
       <c r="N2" s="18"/>
       <c r="O2" s="18" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
@@ -16072,7 +17279,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A1" s="25" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>579</v>
@@ -16100,18 +17307,18 @@
       </c>
       <c r="N1" s="25"/>
       <c r="O1" s="25" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A2" s="25" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>34</v>
@@ -16142,7 +17349,7 @@
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A3" s="4" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>576</v>
@@ -16176,7 +17383,7 @@
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A4" s="4" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>567</v>
@@ -16210,7 +17417,7 @@
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A5" s="4" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>573</v>
@@ -16244,7 +17451,7 @@
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A6" s="4" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
       <c r="B6" s="25" t="s">
         <v>570</v>
@@ -16278,7 +17485,7 @@
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A7" s="4" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>564</v>
@@ -16312,7 +17519,7 @@
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A8" s="4" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>591</v>
@@ -16346,7 +17553,7 @@
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A9" s="4" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>588</v>
@@ -16380,7 +17587,7 @@
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A10" s="4" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>585</v>
@@ -16414,7 +17621,7 @@
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A11" s="4" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>594</v>
@@ -16448,7 +17655,7 @@
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A12" s="4" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
       <c r="B12" s="25" t="s">
         <v>477</v>
@@ -16482,7 +17689,7 @@
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" ht="15">
       <c r="A13" s="4" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>582</v>
@@ -16534,13 +17741,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="20">
       <c r="A1" s="10" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20">
@@ -16548,7 +17755,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>18</v>
@@ -16559,68 +17766,68 @@
         <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40">
       <c r="A4" s="7" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20">
       <c r="A5" s="7" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20">
       <c r="A6" s="8" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40">
       <c r="A7" s="8" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20">
       <c r="A8" s="8" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40">
@@ -16628,10 +17835,10 @@
         <v>432</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40">
@@ -16639,10 +17846,10 @@
         <v>478</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20">
@@ -16650,10 +17857,10 @@
         <v>376</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20">
@@ -16661,21 +17868,21 @@
         <v>380</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20">
       <c r="A13" s="8" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20">
@@ -16683,10 +17890,10 @@
         <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20">
@@ -16694,10 +17901,10 @@
         <v>383</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20">
@@ -16705,10 +17912,10 @@
         <v>394</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20">
@@ -16716,10 +17923,10 @@
         <v>409</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="40">
@@ -16727,21 +17934,21 @@
         <v>421</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20">
       <c r="A19" s="8" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20">
@@ -16749,32 +17956,32 @@
         <v>186</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20">
       <c r="A21" s="8" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="60">
       <c r="A22" s="8" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="40">
@@ -16782,10 +17989,10 @@
         <v>279</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="40">
@@ -16793,10 +18000,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="40">
@@ -16804,10 +18011,10 @@
         <v>58</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20">
@@ -16817,22 +18024,22 @@
     </row>
     <row r="31" spans="1:3" ht="20">
       <c r="A31" s="13" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20">
       <c r="A32" s="13" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="20">
       <c r="A33" s="13" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="20">
       <c r="A34" s="13" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="20">
@@ -16842,32 +18049,32 @@
     </row>
     <row r="36" spans="1:1" ht="20">
       <c r="A36" s="13" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="20">
       <c r="A37" s="13" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="20">
       <c r="A38" s="13" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="20">
       <c r="A39" s="13" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="20">
       <c r="A40" s="13" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="20">
       <c r="A41" s="13" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="20">
@@ -16887,7 +18094,7 @@
     </row>
     <row r="45" spans="1:1" ht="20">
       <c r="A45" s="13" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="20">
@@ -16897,7 +18104,7 @@
     </row>
     <row r="47" spans="1:1" ht="20">
       <c r="A47" s="13" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="20">
@@ -16927,7 +18134,7 @@
     </row>
     <row r="53" spans="1:1" ht="20">
       <c r="A53" s="13" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="20">
@@ -16937,17 +18144,17 @@
     </row>
     <row r="55" spans="1:1" ht="20">
       <c r="A55" s="13" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="20">
       <c r="A56" s="13" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="20">
       <c r="A57" s="13" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="20">
@@ -16962,7 +18169,7 @@
     </row>
     <row r="60" spans="1:1" ht="20">
       <c r="A60" s="13" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="20">
@@ -16972,42 +18179,42 @@
     </row>
     <row r="62" spans="1:1" ht="20">
       <c r="A62" s="13" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="20">
       <c r="A63" s="13" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="20">
       <c r="A64" s="13" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="20">
       <c r="A65" s="13" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="20">
       <c r="A66" s="13" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="20">
       <c r="A67" s="13" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="20">
       <c r="A68" s="13" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="20">
       <c r="A69" s="13" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -17118,7 +18325,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>17</v>
@@ -17136,10 +18343,10 @@
         <v>20</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="17" customFormat="1" ht="15">
@@ -17150,7 +18357,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>185</v>
@@ -17162,15 +18369,15 @@
         <v>486306141</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A5" s="18" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>58</v>
@@ -17190,16 +18397,16 @@
         <v>20</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A6" s="18" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>823</v>
+        <v>841</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>58</v>
@@ -17219,16 +18426,16 @@
         <v>20</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A7" s="18" t="s">
-        <v>824</v>
+        <v>842</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>279</v>
@@ -17248,16 +18455,16 @@
         <v>337</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A8" s="18" t="s">
-        <v>827</v>
+        <v>845</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>58</v>
@@ -17281,16 +18488,16 @@
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" ht="15">
       <c r="A9" s="18" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>299</v>
@@ -17305,10 +18512,10 @@
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="O9" s="18"/>
     </row>
@@ -17320,18 +18527,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B3D455-1504-4B42-941B-931C7B0EFB28}">
-  <dimension ref="A1:BQ272"/>
+  <dimension ref="A1:BQ271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:BQ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="5"/>
     <col min="2" max="2" width="24.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="56.83203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" style="5" customWidth="1"/>
@@ -17463,13 +18670,13 @@
         <v>233</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>375</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="17" t="s">
@@ -17487,7 +18694,7 @@
       <c r="N2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
@@ -17546,13 +18753,13 @@
         <v>234</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="17" t="s">
@@ -17570,7 +18777,7 @@
       <c r="N3" s="17"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
@@ -17629,13 +18836,13 @@
         <v>235</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="17" t="s">
@@ -17653,7 +18860,7 @@
       <c r="N4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
@@ -17712,13 +18919,13 @@
         <v>236</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="17" t="s">
@@ -17736,7 +18943,7 @@
       <c r="N5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -17795,13 +19002,13 @@
         <v>237</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="17" t="s">
@@ -17819,7 +19026,7 @@
       <c r="N6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
@@ -17878,13 +19085,13 @@
         <v>238</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="17" t="s">
@@ -17902,7 +19109,7 @@
       <c r="N7" s="17"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
@@ -17961,13 +19168,13 @@
         <v>239</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>412</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="17" t="s">
@@ -17985,7 +19192,7 @@
       <c r="N8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -18044,13 +19251,13 @@
         <v>240</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="17" t="s">
@@ -18068,7 +19275,7 @@
       <c r="N9" s="17"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -18127,7 +19334,7 @@
         <v>241</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>560</v>
@@ -18139,7 +19346,7 @@
         <v>353358909</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>851</v>
+        <v>733</v>
       </c>
       <c r="G10" s="23">
         <v>353358909</v>
@@ -18155,7 +19362,7 @@
       <c r="P10" s="28"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="22" t="s">
-        <v>852</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:69">
@@ -18163,7 +19370,7 @@
         <v>242</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>853</v>
+        <v>870</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>560</v>
@@ -18175,7 +19382,7 @@
         <v>353358909</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>854</v>
+        <v>737</v>
       </c>
       <c r="G11" s="23">
         <v>353358909</v>
@@ -18189,7 +19396,7 @@
       <c r="N11" s="14"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="22" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
@@ -18248,7 +19455,7 @@
         <v>243</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>611</v>
@@ -18260,7 +19467,7 @@
         <v>622008261</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>851</v>
+        <v>733</v>
       </c>
       <c r="G12" s="24">
         <v>353358909</v>
@@ -18274,7 +19481,7 @@
       <c r="N12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
@@ -18333,7 +19540,7 @@
         <v>243</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>611</v>
@@ -18345,7 +19552,7 @@
         <v>622008261</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>854</v>
+        <v>737</v>
       </c>
       <c r="G13" s="24">
         <v>353358909</v>
@@ -18359,7 +19566,7 @@
       <c r="N13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
@@ -18694,7 +19901,7 @@
         <v>223</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>49</v>
@@ -18720,10 +19927,10 @@
       <c r="N18" s="17"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="41" t="s">
-        <v>861</v>
+        <v>877</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>862</v>
+        <v>878</v>
       </c>
       <c r="T18" s="17"/>
       <c r="U18" s="17"/>
@@ -18870,13 +20077,13 @@
         <v>291</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="C20" s="63" t="s">
         <v>650</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>648</v>
@@ -18953,13 +20160,13 @@
         <v>292</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="C21" s="63" t="s">
         <v>653</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>648</v>
@@ -19161,7 +20368,7 @@
       <c r="N23" s="28"/>
       <c r="Q23" s="28"/>
       <c r="R23" s="28" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="S23" s="28"/>
       <c r="T23" s="28"/>
@@ -19220,10 +20427,10 @@
         <v>277</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>478</v>
@@ -19246,7 +20453,7 @@
       <c r="N24" s="28"/>
       <c r="Q24" s="28"/>
       <c r="R24" s="18" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="S24" s="28"/>
       <c r="T24" s="28"/>
@@ -19305,17 +20512,17 @@
         <v>294</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>868</v>
+        <v>688</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="17" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>677</v>
@@ -19335,7 +20542,7 @@
       </c>
       <c r="Q25" s="17"/>
       <c r="R25" s="17" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
@@ -19394,10 +20601,10 @@
         <v>319</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="D26" s="70" t="s">
         <v>279</v>
@@ -19473,10 +20680,10 @@
         <v>320</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>186</v>
@@ -19545,219 +20752,264 @@
       <c r="BP27" s="17"/>
       <c r="BQ27" s="17"/>
     </row>
-    <row r="28" spans="1:69">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="17"/>
-      <c r="AO28" s="17"/>
-      <c r="AP28" s="17"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
-      <c r="AW28" s="17"/>
-      <c r="AX28" s="17"/>
-      <c r="AY28" s="17"/>
-      <c r="AZ28" s="17"/>
-      <c r="BA28" s="17"/>
-      <c r="BB28" s="17"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="17"/>
-      <c r="BE28" s="17"/>
-      <c r="BF28" s="17"/>
-      <c r="BG28" s="17"/>
-      <c r="BH28" s="17"/>
-      <c r="BI28" s="17"/>
-      <c r="BJ28" s="17"/>
-      <c r="BK28" s="17"/>
-      <c r="BL28" s="17"/>
-      <c r="BM28" s="17"/>
-      <c r="BN28" s="17"/>
-      <c r="BO28" s="17"/>
-      <c r="BP28" s="17"/>
-      <c r="BQ28" s="17"/>
-    </row>
-    <row r="29" spans="1:69">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="17"/>
-      <c r="AO29" s="17"/>
-      <c r="AP29" s="17"/>
-      <c r="AQ29" s="17"/>
-      <c r="AR29" s="17"/>
-      <c r="AS29" s="17"/>
-      <c r="AT29" s="17"/>
-      <c r="AU29" s="17"/>
-      <c r="AV29" s="17"/>
-      <c r="AW29" s="17"/>
-      <c r="AX29" s="17"/>
-      <c r="AY29" s="17"/>
-      <c r="AZ29" s="17"/>
-      <c r="BA29" s="17"/>
-      <c r="BB29" s="17"/>
-      <c r="BC29" s="17"/>
-      <c r="BD29" s="17"/>
-      <c r="BE29" s="17"/>
-      <c r="BF29" s="17"/>
-      <c r="BG29" s="17"/>
-      <c r="BH29" s="17"/>
-      <c r="BI29" s="17"/>
-      <c r="BJ29" s="17"/>
-      <c r="BK29" s="17"/>
-      <c r="BL29" s="17"/>
-      <c r="BM29" s="17"/>
-      <c r="BN29" s="17"/>
-      <c r="BO29" s="17"/>
-      <c r="BP29" s="17"/>
-      <c r="BQ29" s="17"/>
-    </row>
-    <row r="30" spans="1:69">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="17"/>
-      <c r="AN30" s="17"/>
-      <c r="AO30" s="17"/>
-      <c r="AP30" s="17"/>
-      <c r="AQ30" s="17"/>
-      <c r="AR30" s="17"/>
-      <c r="AS30" s="17"/>
-      <c r="AT30" s="17"/>
-      <c r="AU30" s="17"/>
-      <c r="AV30" s="17"/>
-      <c r="AW30" s="17"/>
-      <c r="AX30" s="17"/>
-      <c r="AY30" s="17"/>
-      <c r="AZ30" s="17"/>
-      <c r="BA30" s="17"/>
-      <c r="BB30" s="17"/>
-      <c r="BC30" s="17"/>
-      <c r="BD30" s="17"/>
-      <c r="BE30" s="17"/>
-      <c r="BF30" s="17"/>
-      <c r="BG30" s="17"/>
-      <c r="BH30" s="17"/>
-      <c r="BI30" s="17"/>
-      <c r="BJ30" s="17"/>
-      <c r="BK30" s="17"/>
-      <c r="BL30" s="17"/>
-      <c r="BM30" s="17"/>
-      <c r="BN30" s="17"/>
-      <c r="BO30" s="17"/>
-      <c r="BP30" s="17"/>
-      <c r="BQ30" s="17"/>
+    <row r="28" spans="1:69" s="73" customFormat="1" ht="16">
+      <c r="A28" s="71">
+        <v>334</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>888</v>
+      </c>
+      <c r="C28" s="71" t="s">
+        <v>664</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="72" t="s">
+        <v>647</v>
+      </c>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71" t="s">
+        <v>889</v>
+      </c>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="71"/>
+      <c r="AE28" s="71"/>
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="71"/>
+      <c r="AH28" s="71"/>
+      <c r="AI28" s="71"/>
+      <c r="AJ28" s="71"/>
+      <c r="AK28" s="71"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="71"/>
+      <c r="AN28" s="71"/>
+      <c r="AO28" s="71"/>
+      <c r="AP28" s="71"/>
+      <c r="AQ28" s="71"/>
+      <c r="AR28" s="71"/>
+      <c r="AS28" s="71"/>
+      <c r="AT28" s="71"/>
+      <c r="AU28" s="71"/>
+      <c r="AV28" s="71"/>
+      <c r="AW28" s="71"/>
+      <c r="AX28" s="71"/>
+      <c r="AY28" s="71"/>
+      <c r="AZ28" s="71"/>
+      <c r="BA28" s="71"/>
+      <c r="BB28" s="71"/>
+      <c r="BC28" s="71"/>
+      <c r="BD28" s="71"/>
+      <c r="BE28" s="71"/>
+      <c r="BF28" s="71"/>
+      <c r="BG28" s="71"/>
+      <c r="BH28" s="71"/>
+      <c r="BI28" s="71"/>
+      <c r="BJ28" s="71"/>
+      <c r="BK28" s="71"/>
+      <c r="BL28" s="71"/>
+      <c r="BM28" s="71"/>
+      <c r="BN28" s="71"/>
+    </row>
+    <row r="29" spans="1:69" s="73" customFormat="1" ht="16">
+      <c r="A29" s="71">
+        <v>335</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>890</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>669</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>647</v>
+      </c>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71" t="s">
+        <v>891</v>
+      </c>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="71"/>
+      <c r="AL29" s="71"/>
+      <c r="AM29" s="71"/>
+      <c r="AN29" s="71"/>
+      <c r="AO29" s="71"/>
+      <c r="AP29" s="71"/>
+      <c r="AQ29" s="71"/>
+      <c r="AR29" s="71"/>
+      <c r="AS29" s="71"/>
+      <c r="AT29" s="71"/>
+      <c r="AU29" s="71"/>
+      <c r="AV29" s="71"/>
+      <c r="AW29" s="71"/>
+      <c r="AX29" s="71"/>
+      <c r="AY29" s="71"/>
+      <c r="AZ29" s="71"/>
+      <c r="BA29" s="71"/>
+      <c r="BB29" s="71"/>
+      <c r="BC29" s="71"/>
+      <c r="BD29" s="71"/>
+      <c r="BE29" s="71"/>
+      <c r="BF29" s="71"/>
+      <c r="BG29" s="71"/>
+      <c r="BH29" s="71"/>
+      <c r="BI29" s="71"/>
+      <c r="BJ29" s="71"/>
+      <c r="BK29" s="71"/>
+      <c r="BL29" s="71"/>
+      <c r="BM29" s="71"/>
+      <c r="BN29" s="71"/>
+    </row>
+    <row r="30" spans="1:69" s="75" customFormat="1" ht="33" customHeight="1">
+      <c r="A30" s="71">
+        <v>88</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>892</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>656</v>
+      </c>
+      <c r="D30" s="71" t="s">
+        <v>478</v>
+      </c>
+      <c r="E30" s="74" t="s">
+        <v>893</v>
+      </c>
+      <c r="F30" s="71" t="s">
+        <v>894</v>
+      </c>
+      <c r="G30" s="72">
+        <v>534621077</v>
+      </c>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71" t="s">
+        <v>895</v>
+      </c>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="71"/>
+      <c r="AH30" s="71"/>
+      <c r="AI30" s="71"/>
+      <c r="AJ30" s="71"/>
+      <c r="AK30" s="71"/>
+      <c r="AL30" s="71"/>
+      <c r="AM30" s="71"/>
+      <c r="AN30" s="71"/>
+      <c r="AO30" s="71"/>
+      <c r="AP30" s="71"/>
+      <c r="AQ30" s="71"/>
+      <c r="AR30" s="71"/>
+      <c r="AS30" s="71"/>
+      <c r="AT30" s="71"/>
+      <c r="AU30" s="71"/>
+      <c r="AV30" s="71"/>
+      <c r="AW30" s="71"/>
+      <c r="AX30" s="71"/>
+      <c r="AY30" s="71"/>
+      <c r="AZ30" s="71"/>
+      <c r="BA30" s="71"/>
+      <c r="BB30" s="71"/>
+      <c r="BC30" s="71"/>
+      <c r="BD30" s="71"/>
+      <c r="BE30" s="71"/>
+      <c r="BF30" s="71"/>
+      <c r="BG30" s="71"/>
+      <c r="BH30" s="71"/>
+      <c r="BI30" s="71"/>
+      <c r="BJ30" s="71"/>
+      <c r="BK30" s="71"/>
+      <c r="BL30" s="71"/>
+      <c r="BM30" s="71"/>
+      <c r="BN30" s="71"/>
     </row>
     <row r="31" spans="1:69">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="19"/>
+      <c r="A31" s="72">
+        <f>QAQC!A298+1</f>
+        <v>328</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>896</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>897</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>69</v>
+      </c>
       <c r="F31" s="17"/>
       <c r="G31" s="19"/>
       <c r="H31" s="17"/>
@@ -19768,7 +21020,10 @@
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
       <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
+      <c r="R31" s="71" t="str">
+        <f>_xlfn.CONCAT(B31, " flag must be yes or null, should not be null")</f>
+        <v>Refused follow up blood sample flag must be yes or null, should not be null</v>
+      </c>
       <c r="S31" s="17"/>
       <c r="T31" s="17"/>
       <c r="U31" s="17"/>
@@ -19890,6 +21145,2460 @@
       <c r="BP32" s="17"/>
       <c r="BQ32" s="17"/>
     </row>
+    <row r="33" spans="1:69">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="17"/>
+      <c r="AO33" s="17"/>
+      <c r="AP33" s="17"/>
+      <c r="AQ33" s="17"/>
+      <c r="AR33" s="17"/>
+      <c r="AS33" s="17"/>
+      <c r="AT33" s="17"/>
+      <c r="AU33" s="17"/>
+      <c r="AV33" s="17"/>
+      <c r="AW33" s="17"/>
+      <c r="AX33" s="17"/>
+      <c r="AY33" s="17"/>
+      <c r="AZ33" s="17"/>
+      <c r="BA33" s="17"/>
+      <c r="BB33" s="17"/>
+      <c r="BC33" s="17"/>
+      <c r="BD33" s="17"/>
+      <c r="BE33" s="17"/>
+      <c r="BF33" s="17"/>
+      <c r="BG33" s="17"/>
+      <c r="BH33" s="17"/>
+      <c r="BI33" s="17"/>
+      <c r="BJ33" s="17"/>
+      <c r="BK33" s="17"/>
+      <c r="BL33" s="17"/>
+      <c r="BM33" s="17"/>
+      <c r="BN33" s="17"/>
+      <c r="BO33" s="17"/>
+      <c r="BP33" s="17"/>
+      <c r="BQ33" s="17"/>
+    </row>
+    <row r="34" spans="1:69">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="17"/>
+      <c r="AP34" s="17"/>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="17"/>
+      <c r="AT34" s="17"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+      <c r="AW34" s="17"/>
+      <c r="AX34" s="17"/>
+      <c r="AY34" s="17"/>
+      <c r="AZ34" s="17"/>
+      <c r="BA34" s="17"/>
+      <c r="BB34" s="17"/>
+      <c r="BC34" s="17"/>
+      <c r="BD34" s="17"/>
+      <c r="BE34" s="17"/>
+      <c r="BF34" s="17"/>
+      <c r="BG34" s="17"/>
+      <c r="BH34" s="17"/>
+      <c r="BI34" s="17"/>
+      <c r="BJ34" s="17"/>
+      <c r="BK34" s="17"/>
+      <c r="BL34" s="17"/>
+      <c r="BM34" s="17"/>
+      <c r="BN34" s="17"/>
+      <c r="BO34" s="17"/>
+      <c r="BP34" s="17"/>
+      <c r="BQ34" s="17"/>
+    </row>
+    <row r="35" spans="1:69">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+      <c r="AN35" s="17"/>
+      <c r="AO35" s="17"/>
+      <c r="AP35" s="17"/>
+      <c r="AQ35" s="17"/>
+      <c r="AR35" s="17"/>
+      <c r="AS35" s="17"/>
+      <c r="AT35" s="17"/>
+      <c r="AU35" s="17"/>
+      <c r="AV35" s="17"/>
+      <c r="AW35" s="17"/>
+      <c r="AX35" s="17"/>
+      <c r="AY35" s="17"/>
+      <c r="AZ35" s="17"/>
+      <c r="BA35" s="17"/>
+      <c r="BB35" s="17"/>
+      <c r="BC35" s="17"/>
+      <c r="BD35" s="17"/>
+      <c r="BE35" s="17"/>
+      <c r="BF35" s="17"/>
+      <c r="BG35" s="17"/>
+      <c r="BH35" s="17"/>
+      <c r="BI35" s="17"/>
+      <c r="BJ35" s="17"/>
+      <c r="BK35" s="17"/>
+      <c r="BL35" s="17"/>
+      <c r="BM35" s="17"/>
+      <c r="BN35" s="17"/>
+      <c r="BO35" s="17"/>
+      <c r="BP35" s="17"/>
+      <c r="BQ35" s="17"/>
+    </row>
+    <row r="36" spans="1:69">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="17"/>
+      <c r="AP36" s="17"/>
+      <c r="AQ36" s="17"/>
+      <c r="AR36" s="17"/>
+      <c r="AS36" s="17"/>
+      <c r="AT36" s="17"/>
+      <c r="AU36" s="17"/>
+      <c r="AV36" s="17"/>
+      <c r="AW36" s="17"/>
+      <c r="AX36" s="17"/>
+      <c r="AY36" s="17"/>
+      <c r="AZ36" s="17"/>
+      <c r="BA36" s="17"/>
+      <c r="BB36" s="17"/>
+      <c r="BC36" s="17"/>
+      <c r="BD36" s="17"/>
+      <c r="BE36" s="17"/>
+      <c r="BF36" s="17"/>
+      <c r="BG36" s="17"/>
+      <c r="BH36" s="17"/>
+      <c r="BI36" s="17"/>
+      <c r="BJ36" s="17"/>
+      <c r="BK36" s="17"/>
+      <c r="BL36" s="17"/>
+      <c r="BM36" s="17"/>
+      <c r="BN36" s="17"/>
+      <c r="BO36" s="17"/>
+      <c r="BP36" s="17"/>
+      <c r="BQ36" s="17"/>
+    </row>
+    <row r="37" spans="1:69">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="17"/>
+      <c r="AR37" s="17"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="17"/>
+      <c r="AW37" s="17"/>
+      <c r="AX37" s="17"/>
+      <c r="AY37" s="17"/>
+      <c r="AZ37" s="17"/>
+      <c r="BA37" s="17"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="17"/>
+      <c r="BD37" s="17"/>
+      <c r="BE37" s="17"/>
+      <c r="BF37" s="17"/>
+      <c r="BG37" s="17"/>
+      <c r="BH37" s="17"/>
+      <c r="BI37" s="17"/>
+      <c r="BJ37" s="17"/>
+      <c r="BK37" s="17"/>
+      <c r="BL37" s="17"/>
+      <c r="BM37" s="17"/>
+      <c r="BN37" s="17"/>
+      <c r="BO37" s="17"/>
+      <c r="BP37" s="17"/>
+      <c r="BQ37" s="17"/>
+    </row>
+    <row r="38" spans="1:69">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="17"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="17"/>
+      <c r="AP38" s="17"/>
+      <c r="AQ38" s="17"/>
+      <c r="AR38" s="17"/>
+      <c r="AS38" s="17"/>
+      <c r="AT38" s="17"/>
+      <c r="AU38" s="17"/>
+      <c r="AV38" s="17"/>
+      <c r="AW38" s="17"/>
+      <c r="AX38" s="17"/>
+      <c r="AY38" s="17"/>
+      <c r="AZ38" s="17"/>
+      <c r="BA38" s="17"/>
+      <c r="BB38" s="17"/>
+      <c r="BC38" s="17"/>
+      <c r="BD38" s="17"/>
+      <c r="BE38" s="17"/>
+      <c r="BF38" s="17"/>
+      <c r="BG38" s="17"/>
+      <c r="BH38" s="17"/>
+      <c r="BI38" s="17"/>
+      <c r="BJ38" s="17"/>
+      <c r="BK38" s="17"/>
+      <c r="BL38" s="17"/>
+      <c r="BM38" s="17"/>
+      <c r="BN38" s="17"/>
+      <c r="BO38" s="17"/>
+      <c r="BP38" s="17"/>
+      <c r="BQ38" s="17"/>
+    </row>
+    <row r="39" spans="1:69">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="17"/>
+      <c r="AO39" s="17"/>
+      <c r="AP39" s="17"/>
+      <c r="AQ39" s="17"/>
+      <c r="AR39" s="17"/>
+      <c r="AS39" s="17"/>
+      <c r="AT39" s="17"/>
+      <c r="AU39" s="17"/>
+      <c r="AV39" s="17"/>
+      <c r="AW39" s="17"/>
+      <c r="AX39" s="17"/>
+      <c r="AY39" s="17"/>
+      <c r="AZ39" s="17"/>
+      <c r="BA39" s="17"/>
+      <c r="BB39" s="17"/>
+      <c r="BC39" s="17"/>
+      <c r="BD39" s="17"/>
+      <c r="BE39" s="17"/>
+      <c r="BF39" s="17"/>
+      <c r="BG39" s="17"/>
+      <c r="BH39" s="17"/>
+      <c r="BI39" s="17"/>
+      <c r="BJ39" s="17"/>
+      <c r="BK39" s="17"/>
+      <c r="BL39" s="17"/>
+      <c r="BM39" s="17"/>
+      <c r="BN39" s="17"/>
+      <c r="BO39" s="17"/>
+      <c r="BP39" s="17"/>
+      <c r="BQ39" s="17"/>
+    </row>
+    <row r="40" spans="1:69">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="17"/>
+      <c r="AI40" s="17"/>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="17"/>
+      <c r="AO40" s="17"/>
+      <c r="AP40" s="17"/>
+      <c r="AQ40" s="17"/>
+      <c r="AR40" s="17"/>
+      <c r="AS40" s="17"/>
+      <c r="AT40" s="17"/>
+      <c r="AU40" s="17"/>
+      <c r="AV40" s="17"/>
+      <c r="AW40" s="17"/>
+      <c r="AX40" s="17"/>
+      <c r="AY40" s="17"/>
+      <c r="AZ40" s="17"/>
+      <c r="BA40" s="17"/>
+      <c r="BB40" s="17"/>
+      <c r="BC40" s="17"/>
+      <c r="BD40" s="17"/>
+      <c r="BE40" s="17"/>
+      <c r="BF40" s="17"/>
+      <c r="BG40" s="17"/>
+      <c r="BH40" s="17"/>
+      <c r="BI40" s="17"/>
+      <c r="BJ40" s="17"/>
+      <c r="BK40" s="17"/>
+      <c r="BL40" s="17"/>
+      <c r="BM40" s="17"/>
+      <c r="BN40" s="17"/>
+      <c r="BO40" s="17"/>
+      <c r="BP40" s="17"/>
+      <c r="BQ40" s="17"/>
+    </row>
+    <row r="41" spans="1:69">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+      <c r="AL41" s="17"/>
+      <c r="AM41" s="17"/>
+      <c r="AN41" s="17"/>
+      <c r="AO41" s="17"/>
+      <c r="AP41" s="17"/>
+      <c r="AQ41" s="17"/>
+      <c r="AR41" s="17"/>
+      <c r="AS41" s="17"/>
+      <c r="AT41" s="17"/>
+      <c r="AU41" s="17"/>
+      <c r="AV41" s="17"/>
+      <c r="AW41" s="17"/>
+      <c r="AX41" s="17"/>
+      <c r="AY41" s="17"/>
+      <c r="AZ41" s="17"/>
+      <c r="BA41" s="17"/>
+      <c r="BB41" s="17"/>
+      <c r="BC41" s="17"/>
+      <c r="BD41" s="17"/>
+      <c r="BE41" s="17"/>
+      <c r="BF41" s="17"/>
+      <c r="BG41" s="17"/>
+      <c r="BH41" s="17"/>
+      <c r="BI41" s="17"/>
+      <c r="BJ41" s="17"/>
+      <c r="BK41" s="17"/>
+      <c r="BL41" s="17"/>
+      <c r="BM41" s="17"/>
+      <c r="BN41" s="17"/>
+      <c r="BO41" s="17"/>
+      <c r="BP41" s="17"/>
+      <c r="BQ41" s="17"/>
+    </row>
+    <row r="42" spans="1:69">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="17"/>
+      <c r="AN42" s="17"/>
+      <c r="AO42" s="17"/>
+      <c r="AP42" s="17"/>
+      <c r="AQ42" s="17"/>
+      <c r="AR42" s="17"/>
+      <c r="AS42" s="17"/>
+      <c r="AT42" s="17"/>
+      <c r="AU42" s="17"/>
+      <c r="AV42" s="17"/>
+      <c r="AW42" s="17"/>
+      <c r="AX42" s="17"/>
+      <c r="AY42" s="17"/>
+      <c r="AZ42" s="17"/>
+      <c r="BA42" s="17"/>
+      <c r="BB42" s="17"/>
+      <c r="BC42" s="17"/>
+      <c r="BD42" s="17"/>
+      <c r="BE42" s="17"/>
+      <c r="BF42" s="17"/>
+      <c r="BG42" s="17"/>
+      <c r="BH42" s="17"/>
+      <c r="BI42" s="17"/>
+      <c r="BJ42" s="17"/>
+      <c r="BK42" s="17"/>
+      <c r="BL42" s="17"/>
+      <c r="BM42" s="17"/>
+      <c r="BN42" s="17"/>
+      <c r="BO42" s="17"/>
+      <c r="BP42" s="17"/>
+      <c r="BQ42" s="17"/>
+    </row>
+    <row r="43" spans="1:69">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
+      <c r="AM43" s="17"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="17"/>
+      <c r="AP43" s="17"/>
+      <c r="AQ43" s="17"/>
+      <c r="AR43" s="17"/>
+      <c r="AS43" s="17"/>
+      <c r="AT43" s="17"/>
+      <c r="AU43" s="17"/>
+      <c r="AV43" s="17"/>
+      <c r="AW43" s="17"/>
+      <c r="AX43" s="17"/>
+      <c r="AY43" s="17"/>
+      <c r="AZ43" s="17"/>
+      <c r="BA43" s="17"/>
+      <c r="BB43" s="17"/>
+      <c r="BC43" s="17"/>
+      <c r="BD43" s="17"/>
+      <c r="BE43" s="17"/>
+      <c r="BF43" s="17"/>
+      <c r="BG43" s="17"/>
+      <c r="BH43" s="17"/>
+      <c r="BI43" s="17"/>
+      <c r="BJ43" s="17"/>
+      <c r="BK43" s="17"/>
+      <c r="BL43" s="17"/>
+      <c r="BM43" s="17"/>
+      <c r="BN43" s="17"/>
+      <c r="BO43" s="17"/>
+      <c r="BP43" s="17"/>
+      <c r="BQ43" s="17"/>
+    </row>
+    <row r="44" spans="1:69">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="17"/>
+      <c r="AM44" s="17"/>
+      <c r="AN44" s="17"/>
+      <c r="AO44" s="17"/>
+      <c r="AP44" s="17"/>
+      <c r="AQ44" s="17"/>
+      <c r="AR44" s="17"/>
+      <c r="AS44" s="17"/>
+      <c r="AT44" s="17"/>
+      <c r="AU44" s="17"/>
+      <c r="AV44" s="17"/>
+      <c r="AW44" s="17"/>
+      <c r="AX44" s="17"/>
+      <c r="AY44" s="17"/>
+      <c r="AZ44" s="17"/>
+      <c r="BA44" s="17"/>
+      <c r="BB44" s="17"/>
+      <c r="BC44" s="17"/>
+      <c r="BD44" s="17"/>
+      <c r="BE44" s="17"/>
+      <c r="BF44" s="17"/>
+      <c r="BG44" s="17"/>
+      <c r="BH44" s="17"/>
+      <c r="BI44" s="17"/>
+      <c r="BJ44" s="17"/>
+      <c r="BK44" s="17"/>
+      <c r="BL44" s="17"/>
+      <c r="BM44" s="17"/>
+      <c r="BN44" s="17"/>
+      <c r="BO44" s="17"/>
+      <c r="BP44" s="17"/>
+      <c r="BQ44" s="17"/>
+    </row>
+    <row r="45" spans="1:69">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="17"/>
+      <c r="AH45" s="17"/>
+      <c r="AI45" s="17"/>
+      <c r="AJ45" s="17"/>
+      <c r="AK45" s="17"/>
+      <c r="AL45" s="17"/>
+      <c r="AM45" s="17"/>
+      <c r="AN45" s="17"/>
+      <c r="AO45" s="17"/>
+      <c r="AP45" s="17"/>
+      <c r="AQ45" s="17"/>
+      <c r="AR45" s="17"/>
+      <c r="AS45" s="17"/>
+      <c r="AT45" s="17"/>
+      <c r="AU45" s="17"/>
+      <c r="AV45" s="17"/>
+      <c r="AW45" s="17"/>
+      <c r="AX45" s="17"/>
+      <c r="AY45" s="17"/>
+      <c r="AZ45" s="17"/>
+      <c r="BA45" s="17"/>
+      <c r="BB45" s="17"/>
+      <c r="BC45" s="17"/>
+      <c r="BD45" s="17"/>
+      <c r="BE45" s="17"/>
+      <c r="BF45" s="17"/>
+      <c r="BG45" s="17"/>
+      <c r="BH45" s="17"/>
+      <c r="BI45" s="17"/>
+      <c r="BJ45" s="17"/>
+      <c r="BK45" s="17"/>
+      <c r="BL45" s="17"/>
+      <c r="BM45" s="17"/>
+      <c r="BN45" s="17"/>
+      <c r="BO45" s="17"/>
+      <c r="BP45" s="17"/>
+      <c r="BQ45" s="17"/>
+    </row>
+    <row r="46" spans="1:69">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="17"/>
+      <c r="AI46" s="17"/>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="17"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="17"/>
+      <c r="AN46" s="17"/>
+      <c r="AO46" s="17"/>
+      <c r="AP46" s="17"/>
+      <c r="AQ46" s="17"/>
+      <c r="AR46" s="17"/>
+      <c r="AS46" s="17"/>
+      <c r="AT46" s="17"/>
+      <c r="AU46" s="17"/>
+      <c r="AV46" s="17"/>
+      <c r="AW46" s="17"/>
+      <c r="AX46" s="17"/>
+      <c r="AY46" s="17"/>
+      <c r="AZ46" s="17"/>
+      <c r="BA46" s="17"/>
+      <c r="BB46" s="17"/>
+      <c r="BC46" s="17"/>
+      <c r="BD46" s="17"/>
+      <c r="BE46" s="17"/>
+      <c r="BF46" s="17"/>
+      <c r="BG46" s="17"/>
+      <c r="BH46" s="17"/>
+      <c r="BI46" s="17"/>
+      <c r="BJ46" s="17"/>
+      <c r="BK46" s="17"/>
+      <c r="BL46" s="17"/>
+      <c r="BM46" s="17"/>
+      <c r="BN46" s="17"/>
+      <c r="BO46" s="17"/>
+      <c r="BP46" s="17"/>
+      <c r="BQ46" s="17"/>
+    </row>
+    <row r="47" spans="1:69">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="17"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
+      <c r="AJ47" s="17"/>
+      <c r="AK47" s="17"/>
+      <c r="AL47" s="17"/>
+      <c r="AM47" s="17"/>
+      <c r="AN47" s="17"/>
+      <c r="AO47" s="17"/>
+      <c r="AP47" s="17"/>
+      <c r="AQ47" s="17"/>
+      <c r="AR47" s="17"/>
+      <c r="AS47" s="17"/>
+      <c r="AT47" s="17"/>
+      <c r="AU47" s="17"/>
+      <c r="AV47" s="17"/>
+      <c r="AW47" s="17"/>
+      <c r="AX47" s="17"/>
+      <c r="AY47" s="17"/>
+      <c r="AZ47" s="17"/>
+      <c r="BA47" s="17"/>
+      <c r="BB47" s="17"/>
+      <c r="BC47" s="17"/>
+      <c r="BD47" s="17"/>
+      <c r="BE47" s="17"/>
+      <c r="BF47" s="17"/>
+      <c r="BG47" s="17"/>
+      <c r="BH47" s="17"/>
+      <c r="BI47" s="17"/>
+      <c r="BJ47" s="17"/>
+      <c r="BK47" s="17"/>
+      <c r="BL47" s="17"/>
+      <c r="BM47" s="17"/>
+      <c r="BN47" s="17"/>
+      <c r="BO47" s="17"/>
+      <c r="BP47" s="17"/>
+      <c r="BQ47" s="17"/>
+    </row>
+    <row r="48" spans="1:69">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="17"/>
+      <c r="AH48" s="17"/>
+      <c r="AI48" s="17"/>
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="17"/>
+      <c r="AL48" s="17"/>
+      <c r="AM48" s="17"/>
+      <c r="AN48" s="17"/>
+      <c r="AO48" s="17"/>
+      <c r="AP48" s="17"/>
+      <c r="AQ48" s="17"/>
+      <c r="AR48" s="17"/>
+      <c r="AS48" s="17"/>
+      <c r="AT48" s="17"/>
+      <c r="AU48" s="17"/>
+      <c r="AV48" s="17"/>
+      <c r="AW48" s="17"/>
+      <c r="AX48" s="17"/>
+      <c r="AY48" s="17"/>
+      <c r="AZ48" s="17"/>
+      <c r="BA48" s="17"/>
+      <c r="BB48" s="17"/>
+      <c r="BC48" s="17"/>
+      <c r="BD48" s="17"/>
+      <c r="BE48" s="17"/>
+      <c r="BF48" s="17"/>
+      <c r="BG48" s="17"/>
+      <c r="BH48" s="17"/>
+      <c r="BI48" s="17"/>
+      <c r="BJ48" s="17"/>
+      <c r="BK48" s="17"/>
+      <c r="BL48" s="17"/>
+      <c r="BM48" s="17"/>
+      <c r="BN48" s="17"/>
+      <c r="BO48" s="17"/>
+      <c r="BP48" s="17"/>
+      <c r="BQ48" s="17"/>
+    </row>
+    <row r="106" spans="1:69">
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P106" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="17"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="17"/>
+      <c r="V106" s="17"/>
+      <c r="W106" s="17"/>
+      <c r="X106" s="17"/>
+      <c r="Y106" s="17"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="17"/>
+      <c r="AB106" s="17"/>
+      <c r="AC106" s="17"/>
+      <c r="AD106" s="17"/>
+      <c r="AE106" s="17"/>
+      <c r="AF106" s="17"/>
+      <c r="AG106" s="17"/>
+      <c r="AH106" s="17"/>
+      <c r="AI106" s="17"/>
+      <c r="AJ106" s="17"/>
+      <c r="AK106" s="17"/>
+      <c r="AL106" s="17"/>
+      <c r="AM106" s="17"/>
+      <c r="AN106" s="17"/>
+      <c r="AO106" s="17"/>
+      <c r="AP106" s="17"/>
+      <c r="AQ106" s="17"/>
+      <c r="AR106" s="17"/>
+      <c r="AS106" s="17"/>
+      <c r="AT106" s="17"/>
+      <c r="AU106" s="17"/>
+      <c r="AV106" s="17"/>
+      <c r="AW106" s="17"/>
+      <c r="AX106" s="17"/>
+      <c r="AY106" s="17"/>
+      <c r="AZ106" s="17"/>
+      <c r="BA106" s="17"/>
+      <c r="BB106" s="17"/>
+      <c r="BC106" s="17"/>
+      <c r="BD106" s="17"/>
+      <c r="BE106" s="17"/>
+      <c r="BF106" s="17"/>
+      <c r="BG106" s="17"/>
+      <c r="BH106" s="17"/>
+      <c r="BI106" s="17"/>
+      <c r="BJ106" s="17"/>
+      <c r="BK106" s="17"/>
+      <c r="BL106" s="17"/>
+      <c r="BM106" s="17"/>
+      <c r="BN106" s="17"/>
+      <c r="BO106" s="17"/>
+      <c r="BP106" s="17"/>
+      <c r="BQ106" s="17"/>
+    </row>
+    <row r="107" spans="1:69">
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="P107" s="28">
+        <v>197316935</v>
+      </c>
+      <c r="Q107" s="17"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="17"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="17"/>
+      <c r="V107" s="17"/>
+      <c r="W107" s="17"/>
+      <c r="X107" s="17"/>
+      <c r="Y107" s="17"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="17"/>
+      <c r="AB107" s="17"/>
+      <c r="AC107" s="17"/>
+      <c r="AD107" s="17"/>
+      <c r="AE107" s="17"/>
+      <c r="AF107" s="17"/>
+      <c r="AG107" s="17"/>
+      <c r="AH107" s="17"/>
+      <c r="AI107" s="17"/>
+      <c r="AJ107" s="17"/>
+      <c r="AK107" s="17"/>
+      <c r="AL107" s="17"/>
+      <c r="AM107" s="17"/>
+      <c r="AN107" s="17"/>
+      <c r="AO107" s="17"/>
+      <c r="AP107" s="17"/>
+      <c r="AQ107" s="17"/>
+      <c r="AR107" s="17"/>
+      <c r="AS107" s="17"/>
+      <c r="AT107" s="17"/>
+      <c r="AU107" s="17"/>
+      <c r="AV107" s="17"/>
+      <c r="AW107" s="17"/>
+      <c r="AX107" s="17"/>
+      <c r="AY107" s="17"/>
+      <c r="AZ107" s="17"/>
+      <c r="BA107" s="17"/>
+      <c r="BB107" s="17"/>
+      <c r="BC107" s="17"/>
+      <c r="BD107" s="17"/>
+      <c r="BE107" s="17"/>
+      <c r="BF107" s="17"/>
+      <c r="BG107" s="17"/>
+      <c r="BH107" s="17"/>
+      <c r="BI107" s="17"/>
+      <c r="BJ107" s="17"/>
+      <c r="BK107" s="17"/>
+      <c r="BL107" s="17"/>
+      <c r="BM107" s="17"/>
+      <c r="BN107" s="17"/>
+      <c r="BO107" s="17"/>
+      <c r="BP107" s="17"/>
+      <c r="BQ107" s="17"/>
+    </row>
+    <row r="108" spans="1:69">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="P108" s="28">
+        <v>197316935</v>
+      </c>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="17"/>
+      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="17"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="17"/>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="17"/>
+      <c r="AI108" s="17"/>
+      <c r="AJ108" s="17"/>
+      <c r="AK108" s="17"/>
+      <c r="AL108" s="17"/>
+      <c r="AM108" s="17"/>
+      <c r="AN108" s="17"/>
+      <c r="AO108" s="17"/>
+      <c r="AP108" s="17"/>
+      <c r="AQ108" s="17"/>
+      <c r="AR108" s="17"/>
+      <c r="AS108" s="17"/>
+      <c r="AT108" s="17"/>
+      <c r="AU108" s="17"/>
+      <c r="AV108" s="17"/>
+      <c r="AW108" s="17"/>
+      <c r="AX108" s="17"/>
+      <c r="AY108" s="17"/>
+      <c r="AZ108" s="17"/>
+      <c r="BA108" s="17"/>
+      <c r="BB108" s="17"/>
+      <c r="BC108" s="17"/>
+      <c r="BD108" s="17"/>
+      <c r="BE108" s="17"/>
+      <c r="BF108" s="17"/>
+      <c r="BG108" s="17"/>
+      <c r="BH108" s="17"/>
+      <c r="BI108" s="17"/>
+      <c r="BJ108" s="17"/>
+      <c r="BK108" s="17"/>
+      <c r="BL108" s="17"/>
+      <c r="BM108" s="17"/>
+      <c r="BN108" s="17"/>
+      <c r="BO108" s="17"/>
+      <c r="BP108" s="17"/>
+      <c r="BQ108" s="17"/>
+    </row>
+    <row r="109" spans="1:69">
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P109" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="17"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="17"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="17"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="17"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="17"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
+      <c r="AI109" s="17"/>
+      <c r="AJ109" s="17"/>
+      <c r="AK109" s="17"/>
+      <c r="AL109" s="17"/>
+      <c r="AM109" s="17"/>
+      <c r="AN109" s="17"/>
+      <c r="AO109" s="17"/>
+      <c r="AP109" s="17"/>
+      <c r="AQ109" s="17"/>
+      <c r="AR109" s="17"/>
+      <c r="AS109" s="17"/>
+      <c r="AT109" s="17"/>
+      <c r="AU109" s="17"/>
+      <c r="AV109" s="17"/>
+      <c r="AW109" s="17"/>
+      <c r="AX109" s="17"/>
+      <c r="AY109" s="17"/>
+      <c r="AZ109" s="17"/>
+      <c r="BA109" s="17"/>
+      <c r="BB109" s="17"/>
+      <c r="BC109" s="17"/>
+      <c r="BD109" s="17"/>
+      <c r="BE109" s="17"/>
+      <c r="BF109" s="17"/>
+      <c r="BG109" s="17"/>
+      <c r="BH109" s="17"/>
+      <c r="BI109" s="17"/>
+      <c r="BJ109" s="17"/>
+      <c r="BK109" s="17"/>
+      <c r="BL109" s="17"/>
+      <c r="BM109" s="17"/>
+      <c r="BN109" s="17"/>
+      <c r="BO109" s="17"/>
+      <c r="BP109" s="17"/>
+      <c r="BQ109" s="17"/>
+    </row>
+    <row r="110" spans="1:69">
+      <c r="A110" s="17"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P110" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="17"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="17"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="17"/>
+      <c r="X110" s="17"/>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="17"/>
+      <c r="AB110" s="17"/>
+      <c r="AC110" s="17"/>
+      <c r="AD110" s="17"/>
+      <c r="AE110" s="17"/>
+      <c r="AF110" s="17"/>
+      <c r="AG110" s="17"/>
+      <c r="AH110" s="17"/>
+      <c r="AI110" s="17"/>
+      <c r="AJ110" s="17"/>
+      <c r="AK110" s="17"/>
+      <c r="AL110" s="17"/>
+      <c r="AM110" s="17"/>
+      <c r="AN110" s="17"/>
+      <c r="AO110" s="17"/>
+      <c r="AP110" s="17"/>
+      <c r="AQ110" s="17"/>
+      <c r="AR110" s="17"/>
+      <c r="AS110" s="17"/>
+      <c r="AT110" s="17"/>
+      <c r="AU110" s="17"/>
+      <c r="AV110" s="17"/>
+      <c r="AW110" s="17"/>
+      <c r="AX110" s="17"/>
+      <c r="AY110" s="17"/>
+      <c r="AZ110" s="17"/>
+      <c r="BA110" s="17"/>
+      <c r="BB110" s="17"/>
+      <c r="BC110" s="17"/>
+      <c r="BD110" s="17"/>
+      <c r="BE110" s="17"/>
+      <c r="BF110" s="17"/>
+      <c r="BG110" s="17"/>
+      <c r="BH110" s="17"/>
+      <c r="BI110" s="17"/>
+      <c r="BJ110" s="17"/>
+      <c r="BK110" s="17"/>
+      <c r="BL110" s="17"/>
+      <c r="BM110" s="17"/>
+      <c r="BN110" s="17"/>
+      <c r="BO110" s="17"/>
+      <c r="BP110" s="17"/>
+      <c r="BQ110" s="17"/>
+    </row>
+    <row r="111" spans="1:69">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P111" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="17"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="17"/>
+      <c r="V111" s="17"/>
+      <c r="W111" s="17"/>
+      <c r="X111" s="17"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="17"/>
+      <c r="AA111" s="17"/>
+      <c r="AB111" s="17"/>
+      <c r="AC111" s="17"/>
+      <c r="AD111" s="17"/>
+      <c r="AE111" s="17"/>
+      <c r="AF111" s="17"/>
+      <c r="AG111" s="17"/>
+      <c r="AH111" s="17"/>
+      <c r="AI111" s="17"/>
+      <c r="AJ111" s="17"/>
+      <c r="AK111" s="17"/>
+      <c r="AL111" s="17"/>
+      <c r="AM111" s="17"/>
+      <c r="AN111" s="17"/>
+      <c r="AO111" s="17"/>
+      <c r="AP111" s="17"/>
+      <c r="AQ111" s="17"/>
+      <c r="AR111" s="17"/>
+      <c r="AS111" s="17"/>
+      <c r="AT111" s="17"/>
+      <c r="AU111" s="17"/>
+      <c r="AV111" s="17"/>
+      <c r="AW111" s="17"/>
+      <c r="AX111" s="17"/>
+      <c r="AY111" s="17"/>
+      <c r="AZ111" s="17"/>
+      <c r="BA111" s="17"/>
+      <c r="BB111" s="17"/>
+      <c r="BC111" s="17"/>
+      <c r="BD111" s="17"/>
+      <c r="BE111" s="17"/>
+      <c r="BF111" s="17"/>
+      <c r="BG111" s="17"/>
+      <c r="BH111" s="17"/>
+      <c r="BI111" s="17"/>
+      <c r="BJ111" s="17"/>
+      <c r="BK111" s="17"/>
+      <c r="BL111" s="17"/>
+      <c r="BM111" s="17"/>
+      <c r="BN111" s="17"/>
+      <c r="BO111" s="17"/>
+      <c r="BP111" s="17"/>
+      <c r="BQ111" s="17"/>
+    </row>
+    <row r="112" spans="1:69">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P112" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="17"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="17"/>
+      <c r="V112" s="17"/>
+      <c r="W112" s="17"/>
+      <c r="X112" s="17"/>
+      <c r="Y112" s="17"/>
+      <c r="Z112" s="17"/>
+      <c r="AA112" s="17"/>
+      <c r="AB112" s="17"/>
+      <c r="AC112" s="17"/>
+      <c r="AD112" s="17"/>
+      <c r="AE112" s="17"/>
+      <c r="AF112" s="17"/>
+      <c r="AG112" s="17"/>
+      <c r="AH112" s="17"/>
+      <c r="AI112" s="17"/>
+      <c r="AJ112" s="17"/>
+      <c r="AK112" s="17"/>
+      <c r="AL112" s="17"/>
+      <c r="AM112" s="17"/>
+      <c r="AN112" s="17"/>
+      <c r="AO112" s="17"/>
+      <c r="AP112" s="17"/>
+      <c r="AQ112" s="17"/>
+      <c r="AR112" s="17"/>
+      <c r="AS112" s="17"/>
+      <c r="AT112" s="17"/>
+      <c r="AU112" s="17"/>
+      <c r="AV112" s="17"/>
+      <c r="AW112" s="17"/>
+      <c r="AX112" s="17"/>
+      <c r="AY112" s="17"/>
+      <c r="AZ112" s="17"/>
+      <c r="BA112" s="17"/>
+      <c r="BB112" s="17"/>
+      <c r="BC112" s="17"/>
+      <c r="BD112" s="17"/>
+      <c r="BE112" s="17"/>
+      <c r="BF112" s="17"/>
+      <c r="BG112" s="17"/>
+      <c r="BH112" s="17"/>
+      <c r="BI112" s="17"/>
+      <c r="BJ112" s="17"/>
+      <c r="BK112" s="17"/>
+      <c r="BL112" s="17"/>
+      <c r="BM112" s="17"/>
+      <c r="BN112" s="17"/>
+      <c r="BO112" s="17"/>
+      <c r="BP112" s="17"/>
+      <c r="BQ112" s="17"/>
+    </row>
+    <row r="113" spans="1:69">
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P113" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="17"/>
+      <c r="S113" s="17"/>
+      <c r="T113" s="17"/>
+      <c r="U113" s="17"/>
+      <c r="V113" s="17"/>
+      <c r="W113" s="17"/>
+      <c r="X113" s="17"/>
+      <c r="Y113" s="17"/>
+      <c r="Z113" s="17"/>
+      <c r="AA113" s="17"/>
+      <c r="AB113" s="17"/>
+      <c r="AC113" s="17"/>
+      <c r="AD113" s="17"/>
+      <c r="AE113" s="17"/>
+      <c r="AF113" s="17"/>
+      <c r="AG113" s="17"/>
+      <c r="AH113" s="17"/>
+      <c r="AI113" s="17"/>
+      <c r="AJ113" s="17"/>
+      <c r="AK113" s="17"/>
+      <c r="AL113" s="17"/>
+      <c r="AM113" s="17"/>
+      <c r="AN113" s="17"/>
+      <c r="AO113" s="17"/>
+      <c r="AP113" s="17"/>
+      <c r="AQ113" s="17"/>
+      <c r="AR113" s="17"/>
+      <c r="AS113" s="17"/>
+      <c r="AT113" s="17"/>
+      <c r="AU113" s="17"/>
+      <c r="AV113" s="17"/>
+      <c r="AW113" s="17"/>
+      <c r="AX113" s="17"/>
+      <c r="AY113" s="17"/>
+      <c r="AZ113" s="17"/>
+      <c r="BA113" s="17"/>
+      <c r="BB113" s="17"/>
+      <c r="BC113" s="17"/>
+      <c r="BD113" s="17"/>
+      <c r="BE113" s="17"/>
+      <c r="BF113" s="17"/>
+      <c r="BG113" s="17"/>
+      <c r="BH113" s="17"/>
+      <c r="BI113" s="17"/>
+      <c r="BJ113" s="17"/>
+      <c r="BK113" s="17"/>
+      <c r="BL113" s="17"/>
+      <c r="BM113" s="17"/>
+      <c r="BN113" s="17"/>
+      <c r="BO113" s="17"/>
+      <c r="BP113" s="17"/>
+      <c r="BQ113" s="17"/>
+    </row>
+    <row r="114" spans="1:69">
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P114" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q114" s="17"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="17"/>
+      <c r="T114" s="17"/>
+      <c r="U114" s="17"/>
+      <c r="V114" s="17"/>
+      <c r="W114" s="17"/>
+      <c r="X114" s="17"/>
+      <c r="Y114" s="17"/>
+      <c r="Z114" s="17"/>
+      <c r="AA114" s="17"/>
+      <c r="AB114" s="17"/>
+      <c r="AC114" s="17"/>
+      <c r="AD114" s="17"/>
+      <c r="AE114" s="17"/>
+      <c r="AF114" s="17"/>
+      <c r="AG114" s="17"/>
+      <c r="AH114" s="17"/>
+      <c r="AI114" s="17"/>
+      <c r="AJ114" s="17"/>
+      <c r="AK114" s="17"/>
+      <c r="AL114" s="17"/>
+      <c r="AM114" s="17"/>
+      <c r="AN114" s="17"/>
+      <c r="AO114" s="17"/>
+      <c r="AP114" s="17"/>
+      <c r="AQ114" s="17"/>
+      <c r="AR114" s="17"/>
+      <c r="AS114" s="17"/>
+      <c r="AT114" s="17"/>
+      <c r="AU114" s="17"/>
+      <c r="AV114" s="17"/>
+      <c r="AW114" s="17"/>
+      <c r="AX114" s="17"/>
+      <c r="AY114" s="17"/>
+      <c r="AZ114" s="17"/>
+      <c r="BA114" s="17"/>
+      <c r="BB114" s="17"/>
+      <c r="BC114" s="17"/>
+      <c r="BD114" s="17"/>
+      <c r="BE114" s="17"/>
+      <c r="BF114" s="17"/>
+      <c r="BG114" s="17"/>
+      <c r="BH114" s="17"/>
+      <c r="BI114" s="17"/>
+      <c r="BJ114" s="17"/>
+      <c r="BK114" s="17"/>
+      <c r="BL114" s="17"/>
+      <c r="BM114" s="17"/>
+      <c r="BN114" s="17"/>
+      <c r="BO114" s="17"/>
+      <c r="BP114" s="17"/>
+      <c r="BQ114" s="17"/>
+    </row>
+    <row r="115" spans="1:69">
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P115" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q115" s="17"/>
+      <c r="R115" s="17"/>
+      <c r="S115" s="17"/>
+      <c r="T115" s="17"/>
+      <c r="U115" s="17"/>
+      <c r="V115" s="17"/>
+      <c r="W115" s="17"/>
+      <c r="X115" s="17"/>
+      <c r="Y115" s="17"/>
+      <c r="Z115" s="17"/>
+      <c r="AA115" s="17"/>
+      <c r="AB115" s="17"/>
+      <c r="AC115" s="17"/>
+      <c r="AD115" s="17"/>
+      <c r="AE115" s="17"/>
+      <c r="AF115" s="17"/>
+      <c r="AG115" s="17"/>
+      <c r="AH115" s="17"/>
+      <c r="AI115" s="17"/>
+      <c r="AJ115" s="17"/>
+      <c r="AK115" s="17"/>
+      <c r="AL115" s="17"/>
+      <c r="AM115" s="17"/>
+      <c r="AN115" s="17"/>
+      <c r="AO115" s="17"/>
+      <c r="AP115" s="17"/>
+      <c r="AQ115" s="17"/>
+      <c r="AR115" s="17"/>
+      <c r="AS115" s="17"/>
+      <c r="AT115" s="17"/>
+      <c r="AU115" s="17"/>
+      <c r="AV115" s="17"/>
+      <c r="AW115" s="17"/>
+      <c r="AX115" s="17"/>
+      <c r="AY115" s="17"/>
+      <c r="AZ115" s="17"/>
+      <c r="BA115" s="17"/>
+      <c r="BB115" s="17"/>
+      <c r="BC115" s="17"/>
+      <c r="BD115" s="17"/>
+      <c r="BE115" s="17"/>
+      <c r="BF115" s="17"/>
+      <c r="BG115" s="17"/>
+      <c r="BH115" s="17"/>
+      <c r="BI115" s="17"/>
+      <c r="BJ115" s="17"/>
+      <c r="BK115" s="17"/>
+      <c r="BL115" s="17"/>
+      <c r="BM115" s="17"/>
+      <c r="BN115" s="17"/>
+      <c r="BO115" s="17"/>
+      <c r="BP115" s="17"/>
+      <c r="BQ115" s="17"/>
+    </row>
+    <row r="116" spans="1:69">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P116" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="17"/>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="17"/>
+      <c r="V116" s="17"/>
+      <c r="W116" s="17"/>
+      <c r="X116" s="17"/>
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="17"/>
+      <c r="AB116" s="17"/>
+      <c r="AC116" s="17"/>
+      <c r="AD116" s="17"/>
+      <c r="AE116" s="17"/>
+      <c r="AF116" s="17"/>
+      <c r="AG116" s="17"/>
+      <c r="AH116" s="17"/>
+      <c r="AI116" s="17"/>
+      <c r="AJ116" s="17"/>
+      <c r="AK116" s="17"/>
+      <c r="AL116" s="17"/>
+      <c r="AM116" s="17"/>
+      <c r="AN116" s="17"/>
+      <c r="AO116" s="17"/>
+      <c r="AP116" s="17"/>
+      <c r="AQ116" s="17"/>
+      <c r="AR116" s="17"/>
+      <c r="AS116" s="17"/>
+      <c r="AT116" s="17"/>
+      <c r="AU116" s="17"/>
+      <c r="AV116" s="17"/>
+      <c r="AW116" s="17"/>
+      <c r="AX116" s="17"/>
+      <c r="AY116" s="17"/>
+      <c r="AZ116" s="17"/>
+      <c r="BA116" s="17"/>
+      <c r="BB116" s="17"/>
+      <c r="BC116" s="17"/>
+      <c r="BD116" s="17"/>
+      <c r="BE116" s="17"/>
+      <c r="BF116" s="17"/>
+      <c r="BG116" s="17"/>
+      <c r="BH116" s="17"/>
+      <c r="BI116" s="17"/>
+      <c r="BJ116" s="17"/>
+      <c r="BK116" s="17"/>
+      <c r="BL116" s="17"/>
+      <c r="BM116" s="17"/>
+      <c r="BN116" s="17"/>
+      <c r="BO116" s="17"/>
+      <c r="BP116" s="17"/>
+      <c r="BQ116" s="17"/>
+    </row>
+    <row r="117" spans="1:69">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P117" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q117" s="17"/>
+      <c r="R117" s="17"/>
+      <c r="S117" s="17"/>
+      <c r="T117" s="17"/>
+      <c r="U117" s="17"/>
+      <c r="V117" s="17"/>
+      <c r="W117" s="17"/>
+      <c r="X117" s="17"/>
+      <c r="Y117" s="17"/>
+      <c r="Z117" s="17"/>
+      <c r="AA117" s="17"/>
+      <c r="AB117" s="17"/>
+      <c r="AC117" s="17"/>
+      <c r="AD117" s="17"/>
+      <c r="AE117" s="17"/>
+      <c r="AF117" s="17"/>
+      <c r="AG117" s="17"/>
+      <c r="AH117" s="17"/>
+      <c r="AI117" s="17"/>
+      <c r="AJ117" s="17"/>
+      <c r="AK117" s="17"/>
+      <c r="AL117" s="17"/>
+      <c r="AM117" s="17"/>
+      <c r="AN117" s="17"/>
+      <c r="AO117" s="17"/>
+      <c r="AP117" s="17"/>
+      <c r="AQ117" s="17"/>
+      <c r="AR117" s="17"/>
+      <c r="AS117" s="17"/>
+      <c r="AT117" s="17"/>
+      <c r="AU117" s="17"/>
+      <c r="AV117" s="17"/>
+      <c r="AW117" s="17"/>
+      <c r="AX117" s="17"/>
+      <c r="AY117" s="17"/>
+      <c r="AZ117" s="17"/>
+      <c r="BA117" s="17"/>
+      <c r="BB117" s="17"/>
+      <c r="BC117" s="17"/>
+      <c r="BD117" s="17"/>
+      <c r="BE117" s="17"/>
+      <c r="BF117" s="17"/>
+      <c r="BG117" s="17"/>
+      <c r="BH117" s="17"/>
+      <c r="BI117" s="17"/>
+      <c r="BJ117" s="17"/>
+      <c r="BK117" s="17"/>
+      <c r="BL117" s="17"/>
+      <c r="BM117" s="17"/>
+      <c r="BN117" s="17"/>
+      <c r="BO117" s="17"/>
+      <c r="BP117" s="17"/>
+      <c r="BQ117" s="17"/>
+    </row>
+    <row r="118" spans="1:69">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="P118" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q118" s="17"/>
+      <c r="R118" s="17"/>
+      <c r="S118" s="17"/>
+      <c r="T118" s="17"/>
+      <c r="U118" s="17"/>
+      <c r="V118" s="17"/>
+      <c r="W118" s="17"/>
+      <c r="X118" s="17"/>
+      <c r="Y118" s="17"/>
+      <c r="Z118" s="17"/>
+      <c r="AA118" s="17"/>
+      <c r="AB118" s="17"/>
+      <c r="AC118" s="17"/>
+      <c r="AD118" s="17"/>
+      <c r="AE118" s="17"/>
+      <c r="AF118" s="17"/>
+      <c r="AG118" s="17"/>
+      <c r="AH118" s="17"/>
+      <c r="AI118" s="17"/>
+      <c r="AJ118" s="17"/>
+      <c r="AK118" s="17"/>
+      <c r="AL118" s="17"/>
+      <c r="AM118" s="17"/>
+      <c r="AN118" s="17"/>
+      <c r="AO118" s="17"/>
+      <c r="AP118" s="17"/>
+      <c r="AQ118" s="17"/>
+      <c r="AR118" s="17"/>
+      <c r="AS118" s="17"/>
+      <c r="AT118" s="17"/>
+      <c r="AU118" s="17"/>
+      <c r="AV118" s="17"/>
+      <c r="AW118" s="17"/>
+      <c r="AX118" s="17"/>
+      <c r="AY118" s="17"/>
+      <c r="AZ118" s="17"/>
+      <c r="BA118" s="17"/>
+      <c r="BB118" s="17"/>
+      <c r="BC118" s="17"/>
+      <c r="BD118" s="17"/>
+      <c r="BE118" s="17"/>
+      <c r="BF118" s="17"/>
+      <c r="BG118" s="17"/>
+      <c r="BH118" s="17"/>
+      <c r="BI118" s="17"/>
+      <c r="BJ118" s="17"/>
+      <c r="BK118" s="17"/>
+      <c r="BL118" s="17"/>
+      <c r="BM118" s="17"/>
+      <c r="BN118" s="17"/>
+      <c r="BO118" s="17"/>
+      <c r="BP118" s="17"/>
+      <c r="BQ118" s="17"/>
+    </row>
+    <row r="119" spans="1:69">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P119" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q119" s="17"/>
+      <c r="R119" s="17"/>
+      <c r="S119" s="17"/>
+      <c r="T119" s="17"/>
+      <c r="U119" s="17"/>
+      <c r="V119" s="17"/>
+      <c r="W119" s="17"/>
+      <c r="X119" s="17"/>
+      <c r="Y119" s="17"/>
+      <c r="Z119" s="17"/>
+      <c r="AA119" s="17"/>
+      <c r="AB119" s="17"/>
+      <c r="AC119" s="17"/>
+      <c r="AD119" s="17"/>
+      <c r="AE119" s="17"/>
+      <c r="AF119" s="17"/>
+      <c r="AG119" s="17"/>
+      <c r="AH119" s="17"/>
+      <c r="AI119" s="17"/>
+      <c r="AJ119" s="17"/>
+      <c r="AK119" s="17"/>
+      <c r="AL119" s="17"/>
+      <c r="AM119" s="17"/>
+      <c r="AN119" s="17"/>
+      <c r="AO119" s="17"/>
+      <c r="AP119" s="17"/>
+      <c r="AQ119" s="17"/>
+      <c r="AR119" s="17"/>
+      <c r="AS119" s="17"/>
+      <c r="AT119" s="17"/>
+      <c r="AU119" s="17"/>
+      <c r="AV119" s="17"/>
+      <c r="AW119" s="17"/>
+      <c r="AX119" s="17"/>
+      <c r="AY119" s="17"/>
+      <c r="AZ119" s="17"/>
+      <c r="BA119" s="17"/>
+      <c r="BB119" s="17"/>
+      <c r="BC119" s="17"/>
+      <c r="BD119" s="17"/>
+      <c r="BE119" s="17"/>
+      <c r="BF119" s="17"/>
+      <c r="BG119" s="17"/>
+      <c r="BH119" s="17"/>
+      <c r="BI119" s="17"/>
+      <c r="BJ119" s="17"/>
+      <c r="BK119" s="17"/>
+      <c r="BL119" s="17"/>
+      <c r="BM119" s="17"/>
+      <c r="BN119" s="17"/>
+      <c r="BO119" s="17"/>
+      <c r="BP119" s="17"/>
+      <c r="BQ119" s="17"/>
+    </row>
+    <row r="120" spans="1:69">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P120" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q120" s="17"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="17"/>
+      <c r="T120" s="17"/>
+      <c r="U120" s="17"/>
+      <c r="V120" s="17"/>
+      <c r="W120" s="17"/>
+      <c r="X120" s="17"/>
+      <c r="Y120" s="17"/>
+      <c r="Z120" s="17"/>
+      <c r="AA120" s="17"/>
+      <c r="AB120" s="17"/>
+      <c r="AC120" s="17"/>
+      <c r="AD120" s="17"/>
+      <c r="AE120" s="17"/>
+      <c r="AF120" s="17"/>
+      <c r="AG120" s="17"/>
+      <c r="AH120" s="17"/>
+      <c r="AI120" s="17"/>
+      <c r="AJ120" s="17"/>
+      <c r="AK120" s="17"/>
+      <c r="AL120" s="17"/>
+      <c r="AM120" s="17"/>
+      <c r="AN120" s="17"/>
+      <c r="AO120" s="17"/>
+      <c r="AP120" s="17"/>
+      <c r="AQ120" s="17"/>
+      <c r="AR120" s="17"/>
+      <c r="AS120" s="17"/>
+      <c r="AT120" s="17"/>
+      <c r="AU120" s="17"/>
+      <c r="AV120" s="17"/>
+      <c r="AW120" s="17"/>
+      <c r="AX120" s="17"/>
+      <c r="AY120" s="17"/>
+      <c r="AZ120" s="17"/>
+      <c r="BA120" s="17"/>
+      <c r="BB120" s="17"/>
+      <c r="BC120" s="17"/>
+      <c r="BD120" s="17"/>
+      <c r="BE120" s="17"/>
+      <c r="BF120" s="17"/>
+      <c r="BG120" s="17"/>
+      <c r="BH120" s="17"/>
+      <c r="BI120" s="17"/>
+      <c r="BJ120" s="17"/>
+      <c r="BK120" s="17"/>
+      <c r="BL120" s="17"/>
+      <c r="BM120" s="17"/>
+      <c r="BN120" s="17"/>
+      <c r="BO120" s="17"/>
+      <c r="BP120" s="17"/>
+      <c r="BQ120" s="17"/>
+    </row>
+    <row r="121" spans="1:69">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P121" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q121" s="17"/>
+      <c r="R121" s="17"/>
+      <c r="S121" s="17"/>
+      <c r="T121" s="17"/>
+      <c r="U121" s="17"/>
+      <c r="V121" s="17"/>
+      <c r="W121" s="17"/>
+      <c r="X121" s="17"/>
+      <c r="Y121" s="17"/>
+      <c r="Z121" s="17"/>
+      <c r="AA121" s="17"/>
+      <c r="AB121" s="17"/>
+      <c r="AC121" s="17"/>
+      <c r="AD121" s="17"/>
+      <c r="AE121" s="17"/>
+      <c r="AF121" s="17"/>
+      <c r="AG121" s="17"/>
+      <c r="AH121" s="17"/>
+      <c r="AI121" s="17"/>
+      <c r="AJ121" s="17"/>
+      <c r="AK121" s="17"/>
+      <c r="AL121" s="17"/>
+      <c r="AM121" s="17"/>
+      <c r="AN121" s="17"/>
+      <c r="AO121" s="17"/>
+      <c r="AP121" s="17"/>
+      <c r="AQ121" s="17"/>
+      <c r="AR121" s="17"/>
+      <c r="AS121" s="17"/>
+      <c r="AT121" s="17"/>
+      <c r="AU121" s="17"/>
+      <c r="AV121" s="17"/>
+      <c r="AW121" s="17"/>
+      <c r="AX121" s="17"/>
+      <c r="AY121" s="17"/>
+      <c r="AZ121" s="17"/>
+      <c r="BA121" s="17"/>
+      <c r="BB121" s="17"/>
+      <c r="BC121" s="17"/>
+      <c r="BD121" s="17"/>
+      <c r="BE121" s="17"/>
+      <c r="BF121" s="17"/>
+      <c r="BG121" s="17"/>
+      <c r="BH121" s="17"/>
+      <c r="BI121" s="17"/>
+      <c r="BJ121" s="17"/>
+      <c r="BK121" s="17"/>
+      <c r="BL121" s="17"/>
+      <c r="BM121" s="17"/>
+      <c r="BN121" s="17"/>
+      <c r="BO121" s="17"/>
+      <c r="BP121" s="17"/>
+      <c r="BQ121" s="17"/>
+    </row>
+    <row r="122" spans="1:69">
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P122" s="28">
+        <v>486306141</v>
+      </c>
+      <c r="Q122" s="17"/>
+      <c r="R122" s="17"/>
+      <c r="S122" s="17"/>
+      <c r="T122" s="17"/>
+      <c r="U122" s="17"/>
+      <c r="V122" s="17"/>
+      <c r="W122" s="17"/>
+      <c r="X122" s="17"/>
+      <c r="Y122" s="17"/>
+      <c r="Z122" s="17"/>
+      <c r="AA122" s="17"/>
+      <c r="AB122" s="17"/>
+      <c r="AC122" s="17"/>
+      <c r="AD122" s="17"/>
+      <c r="AE122" s="17"/>
+      <c r="AF122" s="17"/>
+      <c r="AG122" s="17"/>
+      <c r="AH122" s="17"/>
+      <c r="AI122" s="17"/>
+      <c r="AJ122" s="17"/>
+      <c r="AK122" s="17"/>
+      <c r="AL122" s="17"/>
+      <c r="AM122" s="17"/>
+      <c r="AN122" s="17"/>
+      <c r="AO122" s="17"/>
+      <c r="AP122" s="17"/>
+      <c r="AQ122" s="17"/>
+      <c r="AR122" s="17"/>
+      <c r="AS122" s="17"/>
+      <c r="AT122" s="17"/>
+      <c r="AU122" s="17"/>
+      <c r="AV122" s="17"/>
+      <c r="AW122" s="17"/>
+      <c r="AX122" s="17"/>
+      <c r="AY122" s="17"/>
+      <c r="AZ122" s="17"/>
+      <c r="BA122" s="17"/>
+      <c r="BB122" s="17"/>
+      <c r="BC122" s="17"/>
+      <c r="BD122" s="17"/>
+      <c r="BE122" s="17"/>
+      <c r="BF122" s="17"/>
+      <c r="BG122" s="17"/>
+      <c r="BH122" s="17"/>
+      <c r="BI122" s="17"/>
+      <c r="BJ122" s="17"/>
+      <c r="BK122" s="17"/>
+      <c r="BL122" s="17"/>
+      <c r="BM122" s="17"/>
+      <c r="BN122" s="17"/>
+      <c r="BO122" s="17"/>
+      <c r="BP122" s="17"/>
+      <c r="BQ122" s="17"/>
+    </row>
+    <row r="123" spans="1:69">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P123" s="28">
+        <v>486306141</v>
+      </c>
+      <c r="Q123" s="17"/>
+      <c r="R123" s="17"/>
+      <c r="S123" s="17"/>
+      <c r="T123" s="17"/>
+      <c r="U123" s="17"/>
+      <c r="V123" s="17"/>
+      <c r="W123" s="17"/>
+      <c r="X123" s="17"/>
+      <c r="Y123" s="17"/>
+      <c r="Z123" s="17"/>
+      <c r="AA123" s="17"/>
+      <c r="AB123" s="17"/>
+      <c r="AC123" s="17"/>
+      <c r="AD123" s="17"/>
+      <c r="AE123" s="17"/>
+      <c r="AF123" s="17"/>
+      <c r="AG123" s="17"/>
+      <c r="AH123" s="17"/>
+      <c r="AI123" s="17"/>
+      <c r="AJ123" s="17"/>
+      <c r="AK123" s="17"/>
+      <c r="AL123" s="17"/>
+      <c r="AM123" s="17"/>
+      <c r="AN123" s="17"/>
+      <c r="AO123" s="17"/>
+      <c r="AP123" s="17"/>
+      <c r="AQ123" s="17"/>
+      <c r="AR123" s="17"/>
+      <c r="AS123" s="17"/>
+      <c r="AT123" s="17"/>
+      <c r="AU123" s="17"/>
+      <c r="AV123" s="17"/>
+      <c r="AW123" s="17"/>
+      <c r="AX123" s="17"/>
+      <c r="AY123" s="17"/>
+      <c r="AZ123" s="17"/>
+      <c r="BA123" s="17"/>
+      <c r="BB123" s="17"/>
+      <c r="BC123" s="17"/>
+      <c r="BD123" s="17"/>
+      <c r="BE123" s="17"/>
+      <c r="BF123" s="17"/>
+      <c r="BG123" s="17"/>
+      <c r="BH123" s="17"/>
+      <c r="BI123" s="17"/>
+      <c r="BJ123" s="17"/>
+      <c r="BK123" s="17"/>
+      <c r="BL123" s="17"/>
+      <c r="BM123" s="17"/>
+      <c r="BN123" s="17"/>
+      <c r="BO123" s="17"/>
+      <c r="BP123" s="17"/>
+      <c r="BQ123" s="17"/>
+    </row>
     <row r="124" spans="1:69">
       <c r="A124" s="17"/>
       <c r="B124" s="17"/>
@@ -19908,8 +23617,8 @@
       <c r="O124" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="P124" s="28" t="s">
-        <v>378</v>
+      <c r="P124" s="28">
+        <v>486306141</v>
       </c>
       <c r="Q124" s="17"/>
       <c r="R124" s="17"/>
@@ -19981,10 +23690,10 @@
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
       <c r="O125" s="28" t="s">
-        <v>332</v>
+        <v>17</v>
       </c>
       <c r="P125" s="28">
-        <v>197316935</v>
+        <v>486306141</v>
       </c>
       <c r="Q125" s="17"/>
       <c r="R125" s="17"/>
@@ -20056,10 +23765,10 @@
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
       <c r="O126" s="28" t="s">
-        <v>332</v>
+        <v>17</v>
       </c>
       <c r="P126" s="28">
-        <v>197316935</v>
+        <v>486306141</v>
       </c>
       <c r="Q126" s="17"/>
       <c r="R126" s="17"/>
@@ -20133,8 +23842,8 @@
       <c r="O127" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="P127" s="28" t="s">
-        <v>378</v>
+      <c r="P127" s="28">
+        <v>486306141</v>
       </c>
       <c r="Q127" s="17"/>
       <c r="R127" s="17"/>
@@ -20205,11 +23914,11 @@
       <c r="L128" s="17"/>
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
-      <c r="O128" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="P128" s="28" t="s">
-        <v>378</v>
+      <c r="O128" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="P128" s="32" t="s">
+        <v>397</v>
       </c>
       <c r="Q128" s="17"/>
       <c r="R128" s="17"/>
@@ -20281,10 +23990,10 @@
       <c r="M129" s="17"/>
       <c r="N129" s="17"/>
       <c r="O129" s="28" t="s">
-        <v>17</v>
+        <v>339</v>
       </c>
       <c r="P129" s="28" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="Q129" s="17"/>
       <c r="R129" s="17"/>
@@ -20356,10 +24065,10 @@
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
       <c r="O130" s="28" t="s">
-        <v>17</v>
+        <v>346</v>
       </c>
       <c r="P130" s="28" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="Q130" s="17"/>
       <c r="R130" s="17"/>
@@ -20431,10 +24140,10 @@
       <c r="M131" s="17"/>
       <c r="N131" s="17"/>
       <c r="O131" s="28" t="s">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="P131" s="28" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="Q131" s="17"/>
       <c r="R131" s="17"/>
@@ -20506,10 +24215,10 @@
       <c r="M132" s="17"/>
       <c r="N132" s="17"/>
       <c r="O132" s="28" t="s">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="P132" s="28" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="Q132" s="17"/>
       <c r="R132" s="17"/>
@@ -20581,10 +24290,10 @@
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
       <c r="O133" s="28" t="s">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="P133" s="28" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="Q133" s="17"/>
       <c r="R133" s="17"/>
@@ -20655,11 +24364,11 @@
       <c r="L134" s="17"/>
       <c r="M134" s="17"/>
       <c r="N134" s="17"/>
-      <c r="O134" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P134" s="16" t="s">
-        <v>378</v>
+      <c r="O134" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="P134" s="28" t="s">
+        <v>402</v>
       </c>
       <c r="Q134" s="17"/>
       <c r="R134" s="17"/>
@@ -20731,10 +24440,10 @@
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
       <c r="O135" s="28" t="s">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="P135" s="28" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="Q135" s="17"/>
       <c r="R135" s="17"/>
@@ -20805,11 +24514,11 @@
       <c r="L136" s="17"/>
       <c r="M136" s="17"/>
       <c r="N136" s="17"/>
-      <c r="O136" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P136" s="16" t="s">
-        <v>378</v>
+      <c r="O136" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="P136" s="28" t="s">
+        <v>402</v>
       </c>
       <c r="Q136" s="17"/>
       <c r="R136" s="17"/>
@@ -20881,10 +24590,10 @@
       <c r="M137" s="17"/>
       <c r="N137" s="17"/>
       <c r="O137" s="28" t="s">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="P137" s="28" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="Q137" s="17"/>
       <c r="R137" s="17"/>
@@ -20956,10 +24665,10 @@
       <c r="M138" s="17"/>
       <c r="N138" s="17"/>
       <c r="O138" s="28" t="s">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="P138" s="28" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="Q138" s="17"/>
       <c r="R138" s="17"/>
@@ -21031,10 +24740,10 @@
       <c r="M139" s="17"/>
       <c r="N139" s="17"/>
       <c r="O139" s="28" t="s">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="P139" s="28" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="Q139" s="17"/>
       <c r="R139" s="17"/>
@@ -21106,10 +24815,10 @@
       <c r="M140" s="17"/>
       <c r="N140" s="17"/>
       <c r="O140" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="P140" s="28">
-        <v>486306141</v>
+        <v>332</v>
+      </c>
+      <c r="P140" s="34" t="s">
+        <v>370</v>
       </c>
       <c r="Q140" s="17"/>
       <c r="R140" s="17"/>
@@ -21181,10 +24890,10 @@
       <c r="M141" s="17"/>
       <c r="N141" s="17"/>
       <c r="O141" s="28" t="s">
-        <v>17</v>
+        <v>332</v>
       </c>
       <c r="P141" s="28">
-        <v>486306141</v>
+        <v>197316935</v>
       </c>
       <c r="Q141" s="17"/>
       <c r="R141" s="17"/>
@@ -21255,12 +24964,6 @@
       <c r="L142" s="17"/>
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
-      <c r="O142" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="P142" s="28">
-        <v>486306141</v>
-      </c>
       <c r="Q142" s="17"/>
       <c r="R142" s="17"/>
       <c r="S142" s="17"/>
@@ -21330,12 +25033,6 @@
       <c r="L143" s="17"/>
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
-      <c r="O143" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="P143" s="28">
-        <v>486306141</v>
-      </c>
       <c r="Q143" s="17"/>
       <c r="R143" s="17"/>
       <c r="S143" s="17"/>
@@ -21405,12 +25102,8 @@
       <c r="L144" s="17"/>
       <c r="M144" s="17"/>
       <c r="N144" s="17"/>
-      <c r="O144" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="P144" s="28">
-        <v>486306141</v>
-      </c>
+      <c r="O144" s="35"/>
+      <c r="P144" s="35"/>
       <c r="Q144" s="17"/>
       <c r="R144" s="17"/>
       <c r="S144" s="17"/>
@@ -21480,12 +25173,8 @@
       <c r="L145" s="17"/>
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
-      <c r="O145" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="P145" s="28">
-        <v>486306141</v>
-      </c>
+      <c r="O145" s="35"/>
+      <c r="P145" s="35"/>
       <c r="Q145" s="17"/>
       <c r="R145" s="17"/>
       <c r="S145" s="17"/>
@@ -21555,12 +25244,8 @@
       <c r="L146" s="17"/>
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
-      <c r="O146" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="P146" s="32" t="s">
-        <v>397</v>
-      </c>
+      <c r="O146" s="35"/>
+      <c r="P146" s="35"/>
       <c r="Q146" s="17"/>
       <c r="R146" s="17"/>
       <c r="S146" s="17"/>
@@ -21630,12 +25315,8 @@
       <c r="L147" s="17"/>
       <c r="M147" s="17"/>
       <c r="N147" s="17"/>
-      <c r="O147" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="P147" s="28" t="s">
-        <v>397</v>
-      </c>
+      <c r="O147" s="35"/>
+      <c r="P147" s="35"/>
       <c r="Q147" s="17"/>
       <c r="R147" s="17"/>
       <c r="S147" s="17"/>
@@ -21705,12 +25386,8 @@
       <c r="L148" s="17"/>
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
-      <c r="O148" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="P148" s="28" t="s">
-        <v>397</v>
-      </c>
+      <c r="O148" s="35"/>
+      <c r="P148" s="35"/>
       <c r="Q148" s="17"/>
       <c r="R148" s="17"/>
       <c r="S148" s="17"/>
@@ -21780,12 +25457,8 @@
       <c r="L149" s="17"/>
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
-      <c r="O149" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="P149" s="28" t="s">
-        <v>402</v>
-      </c>
+      <c r="O149" s="35"/>
+      <c r="P149" s="35"/>
       <c r="Q149" s="17"/>
       <c r="R149" s="17"/>
       <c r="S149" s="17"/>
@@ -21855,12 +25528,8 @@
       <c r="L150" s="17"/>
       <c r="M150" s="17"/>
       <c r="N150" s="17"/>
-      <c r="O150" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="P150" s="28" t="s">
-        <v>402</v>
-      </c>
+      <c r="O150" s="35"/>
+      <c r="P150" s="35"/>
       <c r="Q150" s="17"/>
       <c r="R150" s="17"/>
       <c r="S150" s="17"/>
@@ -21930,12 +25599,8 @@
       <c r="L151" s="17"/>
       <c r="M151" s="17"/>
       <c r="N151" s="17"/>
-      <c r="O151" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="P151" s="28" t="s">
-        <v>402</v>
-      </c>
+      <c r="O151" s="35"/>
+      <c r="P151" s="35"/>
       <c r="Q151" s="17"/>
       <c r="R151" s="17"/>
       <c r="S151" s="17"/>
@@ -22005,12 +25670,8 @@
       <c r="L152" s="17"/>
       <c r="M152" s="17"/>
       <c r="N152" s="17"/>
-      <c r="O152" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="P152" s="28" t="s">
-        <v>402</v>
-      </c>
+      <c r="O152" s="35"/>
+      <c r="P152" s="35"/>
       <c r="Q152" s="17"/>
       <c r="R152" s="17"/>
       <c r="S152" s="17"/>
@@ -22080,12 +25741,8 @@
       <c r="L153" s="17"/>
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
-      <c r="O153" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="P153" s="28" t="s">
-        <v>402</v>
-      </c>
+      <c r="O153" s="35"/>
+      <c r="P153" s="35"/>
       <c r="Q153" s="17"/>
       <c r="R153" s="17"/>
       <c r="S153" s="17"/>
@@ -22155,12 +25812,8 @@
       <c r="L154" s="17"/>
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
-      <c r="O154" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="P154" s="28" t="s">
-        <v>402</v>
-      </c>
+      <c r="O154" s="35"/>
+      <c r="P154" s="35"/>
       <c r="Q154" s="17"/>
       <c r="R154" s="17"/>
       <c r="S154" s="17"/>
@@ -22230,12 +25883,8 @@
       <c r="L155" s="17"/>
       <c r="M155" s="17"/>
       <c r="N155" s="17"/>
-      <c r="O155" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="P155" s="28" t="s">
-        <v>402</v>
-      </c>
+      <c r="O155" s="35"/>
+      <c r="P155" s="35"/>
       <c r="Q155" s="17"/>
       <c r="R155" s="17"/>
       <c r="S155" s="17"/>
@@ -22305,12 +25954,8 @@
       <c r="L156" s="17"/>
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
-      <c r="O156" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="P156" s="28" t="s">
-        <v>402</v>
-      </c>
+      <c r="O156" s="35"/>
+      <c r="P156" s="35"/>
       <c r="Q156" s="17"/>
       <c r="R156" s="17"/>
       <c r="S156" s="17"/>
@@ -22380,12 +26025,8 @@
       <c r="L157" s="17"/>
       <c r="M157" s="17"/>
       <c r="N157" s="17"/>
-      <c r="O157" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="P157" s="28" t="s">
-        <v>402</v>
-      </c>
+      <c r="O157" s="35"/>
+      <c r="P157" s="35"/>
       <c r="Q157" s="17"/>
       <c r="R157" s="17"/>
       <c r="S157" s="17"/>
@@ -22455,12 +26096,8 @@
       <c r="L158" s="17"/>
       <c r="M158" s="17"/>
       <c r="N158" s="17"/>
-      <c r="O158" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="P158" s="34" t="s">
-        <v>370</v>
-      </c>
+      <c r="O158" s="15"/>
+      <c r="P158" s="15"/>
       <c r="Q158" s="17"/>
       <c r="R158" s="17"/>
       <c r="S158" s="17"/>
@@ -22530,12 +26167,8 @@
       <c r="L159" s="17"/>
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
-      <c r="O159" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="P159" s="28">
-        <v>197316935</v>
-      </c>
+      <c r="O159" s="38"/>
+      <c r="P159" s="38"/>
       <c r="Q159" s="17"/>
       <c r="R159" s="17"/>
       <c r="S159" s="17"/>
@@ -22659,6 +26292,75 @@
       <c r="BP160" s="17"/>
       <c r="BQ160" s="17"/>
     </row>
+    <row r="161" spans="1:69">
+      <c r="A161" s="17"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="17"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+      <c r="M161" s="17"/>
+      <c r="N161" s="17"/>
+      <c r="Q161" s="17"/>
+      <c r="R161" s="17"/>
+      <c r="S161" s="17"/>
+      <c r="T161" s="17"/>
+      <c r="U161" s="17"/>
+      <c r="V161" s="17"/>
+      <c r="W161" s="17"/>
+      <c r="X161" s="17"/>
+      <c r="Y161" s="17"/>
+      <c r="Z161" s="17"/>
+      <c r="AA161" s="17"/>
+      <c r="AB161" s="17"/>
+      <c r="AC161" s="17"/>
+      <c r="AD161" s="17"/>
+      <c r="AE161" s="17"/>
+      <c r="AF161" s="17"/>
+      <c r="AG161" s="17"/>
+      <c r="AH161" s="17"/>
+      <c r="AI161" s="17"/>
+      <c r="AJ161" s="17"/>
+      <c r="AK161" s="17"/>
+      <c r="AL161" s="17"/>
+      <c r="AM161" s="17"/>
+      <c r="AN161" s="17"/>
+      <c r="AO161" s="17"/>
+      <c r="AP161" s="17"/>
+      <c r="AQ161" s="17"/>
+      <c r="AR161" s="17"/>
+      <c r="AS161" s="17"/>
+      <c r="AT161" s="17"/>
+      <c r="AU161" s="17"/>
+      <c r="AV161" s="17"/>
+      <c r="AW161" s="17"/>
+      <c r="AX161" s="17"/>
+      <c r="AY161" s="17"/>
+      <c r="AZ161" s="17"/>
+      <c r="BA161" s="17"/>
+      <c r="BB161" s="17"/>
+      <c r="BC161" s="17"/>
+      <c r="BD161" s="17"/>
+      <c r="BE161" s="17"/>
+      <c r="BF161" s="17"/>
+      <c r="BG161" s="17"/>
+      <c r="BH161" s="17"/>
+      <c r="BI161" s="17"/>
+      <c r="BJ161" s="17"/>
+      <c r="BK161" s="17"/>
+      <c r="BL161" s="17"/>
+      <c r="BM161" s="17"/>
+      <c r="BN161" s="17"/>
+      <c r="BO161" s="17"/>
+      <c r="BP161" s="17"/>
+      <c r="BQ161" s="17"/>
+    </row>
     <row r="162" spans="1:69">
       <c r="A162" s="17"/>
       <c r="B162" s="17"/>
@@ -22674,8 +26376,6 @@
       <c r="L162" s="17"/>
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
-      <c r="O162" s="35"/>
-      <c r="P162" s="35"/>
       <c r="Q162" s="17"/>
       <c r="R162" s="17"/>
       <c r="S162" s="17"/>
@@ -22745,8 +26445,6 @@
       <c r="L163" s="17"/>
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
-      <c r="O163" s="35"/>
-      <c r="P163" s="35"/>
       <c r="Q163" s="17"/>
       <c r="R163" s="17"/>
       <c r="S163" s="17"/>
@@ -22816,8 +26514,6 @@
       <c r="L164" s="17"/>
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
-      <c r="O164" s="35"/>
-      <c r="P164" s="35"/>
       <c r="Q164" s="17"/>
       <c r="R164" s="17"/>
       <c r="S164" s="17"/>
@@ -22887,8 +26583,6 @@
       <c r="L165" s="17"/>
       <c r="M165" s="17"/>
       <c r="N165" s="17"/>
-      <c r="O165" s="35"/>
-      <c r="P165" s="35"/>
       <c r="Q165" s="17"/>
       <c r="R165" s="17"/>
       <c r="S165" s="17"/>
@@ -22958,8 +26652,6 @@
       <c r="L166" s="17"/>
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
-      <c r="O166" s="35"/>
-      <c r="P166" s="35"/>
       <c r="Q166" s="17"/>
       <c r="R166" s="17"/>
       <c r="S166" s="17"/>
@@ -23029,8 +26721,6 @@
       <c r="L167" s="17"/>
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
-      <c r="O167" s="35"/>
-      <c r="P167" s="35"/>
       <c r="Q167" s="17"/>
       <c r="R167" s="17"/>
       <c r="S167" s="17"/>
@@ -23100,8 +26790,6 @@
       <c r="L168" s="17"/>
       <c r="M168" s="17"/>
       <c r="N168" s="17"/>
-      <c r="O168" s="35"/>
-      <c r="P168" s="35"/>
       <c r="Q168" s="17"/>
       <c r="R168" s="17"/>
       <c r="S168" s="17"/>
@@ -23171,8 +26859,6 @@
       <c r="L169" s="17"/>
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
-      <c r="O169" s="35"/>
-      <c r="P169" s="35"/>
       <c r="Q169" s="17"/>
       <c r="R169" s="17"/>
       <c r="S169" s="17"/>
@@ -23242,8 +26928,6 @@
       <c r="L170" s="17"/>
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
-      <c r="O170" s="35"/>
-      <c r="P170" s="35"/>
       <c r="Q170" s="17"/>
       <c r="R170" s="17"/>
       <c r="S170" s="17"/>
@@ -23313,8 +26997,6 @@
       <c r="L171" s="17"/>
       <c r="M171" s="17"/>
       <c r="N171" s="17"/>
-      <c r="O171" s="35"/>
-      <c r="P171" s="35"/>
       <c r="Q171" s="17"/>
       <c r="R171" s="17"/>
       <c r="S171" s="17"/>
@@ -23384,8 +27066,6 @@
       <c r="L172" s="17"/>
       <c r="M172" s="17"/>
       <c r="N172" s="17"/>
-      <c r="O172" s="35"/>
-      <c r="P172" s="35"/>
       <c r="Q172" s="17"/>
       <c r="R172" s="17"/>
       <c r="S172" s="17"/>
@@ -23455,8 +27135,6 @@
       <c r="L173" s="17"/>
       <c r="M173" s="17"/>
       <c r="N173" s="17"/>
-      <c r="O173" s="35"/>
-      <c r="P173" s="35"/>
       <c r="Q173" s="17"/>
       <c r="R173" s="17"/>
       <c r="S173" s="17"/>
@@ -23526,8 +27204,8 @@
       <c r="L174" s="17"/>
       <c r="M174" s="17"/>
       <c r="N174" s="17"/>
-      <c r="O174" s="35"/>
-      <c r="P174" s="35"/>
+      <c r="O174" s="36"/>
+      <c r="P174" s="36"/>
       <c r="Q174" s="17"/>
       <c r="R174" s="17"/>
       <c r="S174" s="17"/>
@@ -23597,8 +27275,8 @@
       <c r="L175" s="17"/>
       <c r="M175" s="17"/>
       <c r="N175" s="17"/>
-      <c r="O175" s="35"/>
-      <c r="P175" s="35"/>
+      <c r="O175" s="64"/>
+      <c r="P175" s="64"/>
       <c r="Q175" s="17"/>
       <c r="R175" s="17"/>
       <c r="S175" s="17"/>
@@ -23668,8 +27346,8 @@
       <c r="L176" s="17"/>
       <c r="M176" s="17"/>
       <c r="N176" s="17"/>
-      <c r="O176" s="15"/>
-      <c r="P176" s="15"/>
+      <c r="O176" s="36"/>
+      <c r="P176" s="36"/>
       <c r="Q176" s="17"/>
       <c r="R176" s="17"/>
       <c r="S176" s="17"/>
@@ -23739,8 +27417,8 @@
       <c r="L177" s="17"/>
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
-      <c r="O177" s="38"/>
-      <c r="P177" s="38"/>
+      <c r="O177" s="36"/>
+      <c r="P177" s="36"/>
       <c r="Q177" s="17"/>
       <c r="R177" s="17"/>
       <c r="S177" s="17"/>
@@ -23795,6 +27473,787 @@
       <c r="BP177" s="17"/>
       <c r="BQ177" s="17"/>
     </row>
+    <row r="178" spans="1:69">
+      <c r="A178" s="17"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="17"/>
+      <c r="M178" s="17"/>
+      <c r="N178" s="17"/>
+      <c r="O178" s="18"/>
+      <c r="P178" s="18"/>
+      <c r="Q178" s="17"/>
+      <c r="R178" s="17"/>
+      <c r="S178" s="17"/>
+      <c r="T178" s="17"/>
+      <c r="U178" s="17"/>
+      <c r="V178" s="17"/>
+      <c r="W178" s="17"/>
+      <c r="X178" s="17"/>
+      <c r="Y178" s="17"/>
+      <c r="Z178" s="17"/>
+      <c r="AA178" s="17"/>
+      <c r="AB178" s="17"/>
+      <c r="AC178" s="17"/>
+      <c r="AD178" s="17"/>
+      <c r="AE178" s="17"/>
+      <c r="AF178" s="17"/>
+      <c r="AG178" s="17"/>
+      <c r="AH178" s="17"/>
+      <c r="AI178" s="17"/>
+      <c r="AJ178" s="17"/>
+      <c r="AK178" s="17"/>
+      <c r="AL178" s="17"/>
+      <c r="AM178" s="17"/>
+      <c r="AN178" s="17"/>
+      <c r="AO178" s="17"/>
+      <c r="AP178" s="17"/>
+      <c r="AQ178" s="17"/>
+      <c r="AR178" s="17"/>
+      <c r="AS178" s="17"/>
+      <c r="AT178" s="17"/>
+      <c r="AU178" s="17"/>
+      <c r="AV178" s="17"/>
+      <c r="AW178" s="17"/>
+      <c r="AX178" s="17"/>
+      <c r="AY178" s="17"/>
+      <c r="AZ178" s="17"/>
+      <c r="BA178" s="17"/>
+      <c r="BB178" s="17"/>
+      <c r="BC178" s="17"/>
+      <c r="BD178" s="17"/>
+      <c r="BE178" s="17"/>
+      <c r="BF178" s="17"/>
+      <c r="BG178" s="17"/>
+      <c r="BH178" s="17"/>
+      <c r="BI178" s="17"/>
+      <c r="BJ178" s="17"/>
+      <c r="BK178" s="17"/>
+      <c r="BL178" s="17"/>
+      <c r="BM178" s="17"/>
+      <c r="BN178" s="17"/>
+      <c r="BO178" s="17"/>
+      <c r="BP178" s="17"/>
+      <c r="BQ178" s="17"/>
+    </row>
+    <row r="179" spans="1:69">
+      <c r="A179" s="17"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="17"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="17"/>
+      <c r="L179" s="17"/>
+      <c r="M179" s="17"/>
+      <c r="N179" s="17"/>
+      <c r="O179" s="18"/>
+      <c r="P179" s="18"/>
+      <c r="Q179" s="17"/>
+      <c r="R179" s="17"/>
+      <c r="S179" s="17"/>
+      <c r="T179" s="17"/>
+      <c r="U179" s="17"/>
+      <c r="V179" s="17"/>
+      <c r="W179" s="17"/>
+      <c r="X179" s="17"/>
+      <c r="Y179" s="17"/>
+      <c r="Z179" s="17"/>
+      <c r="AA179" s="17"/>
+      <c r="AB179" s="17"/>
+      <c r="AC179" s="17"/>
+      <c r="AD179" s="17"/>
+      <c r="AE179" s="17"/>
+      <c r="AF179" s="17"/>
+      <c r="AG179" s="17"/>
+      <c r="AH179" s="17"/>
+      <c r="AI179" s="17"/>
+      <c r="AJ179" s="17"/>
+      <c r="AK179" s="17"/>
+      <c r="AL179" s="17"/>
+      <c r="AM179" s="17"/>
+      <c r="AN179" s="17"/>
+      <c r="AO179" s="17"/>
+      <c r="AP179" s="17"/>
+      <c r="AQ179" s="17"/>
+      <c r="AR179" s="17"/>
+      <c r="AS179" s="17"/>
+      <c r="AT179" s="17"/>
+      <c r="AU179" s="17"/>
+      <c r="AV179" s="17"/>
+      <c r="AW179" s="17"/>
+      <c r="AX179" s="17"/>
+      <c r="AY179" s="17"/>
+      <c r="AZ179" s="17"/>
+      <c r="BA179" s="17"/>
+      <c r="BB179" s="17"/>
+      <c r="BC179" s="17"/>
+      <c r="BD179" s="17"/>
+      <c r="BE179" s="17"/>
+      <c r="BF179" s="17"/>
+      <c r="BG179" s="17"/>
+      <c r="BH179" s="17"/>
+      <c r="BI179" s="17"/>
+      <c r="BJ179" s="17"/>
+      <c r="BK179" s="17"/>
+      <c r="BL179" s="17"/>
+      <c r="BM179" s="17"/>
+      <c r="BN179" s="17"/>
+      <c r="BO179" s="17"/>
+      <c r="BP179" s="17"/>
+      <c r="BQ179" s="17"/>
+    </row>
+    <row r="180" spans="1:69">
+      <c r="A180" s="17"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="17"/>
+      <c r="K180" s="17"/>
+      <c r="L180" s="17"/>
+      <c r="M180" s="17"/>
+      <c r="N180" s="17"/>
+      <c r="O180" s="18"/>
+      <c r="P180" s="18"/>
+      <c r="Q180" s="17"/>
+      <c r="R180" s="17"/>
+      <c r="S180" s="17"/>
+      <c r="T180" s="17"/>
+      <c r="U180" s="17"/>
+      <c r="V180" s="17"/>
+      <c r="W180" s="17"/>
+      <c r="X180" s="17"/>
+      <c r="Y180" s="17"/>
+      <c r="Z180" s="17"/>
+      <c r="AA180" s="17"/>
+      <c r="AB180" s="17"/>
+      <c r="AC180" s="17"/>
+      <c r="AD180" s="17"/>
+      <c r="AE180" s="17"/>
+      <c r="AF180" s="17"/>
+      <c r="AG180" s="17"/>
+      <c r="AH180" s="17"/>
+      <c r="AI180" s="17"/>
+      <c r="AJ180" s="17"/>
+      <c r="AK180" s="17"/>
+      <c r="AL180" s="17"/>
+      <c r="AM180" s="17"/>
+      <c r="AN180" s="17"/>
+      <c r="AO180" s="17"/>
+      <c r="AP180" s="17"/>
+      <c r="AQ180" s="17"/>
+      <c r="AR180" s="17"/>
+      <c r="AS180" s="17"/>
+      <c r="AT180" s="17"/>
+      <c r="AU180" s="17"/>
+      <c r="AV180" s="17"/>
+      <c r="AW180" s="17"/>
+      <c r="AX180" s="17"/>
+      <c r="AY180" s="17"/>
+      <c r="AZ180" s="17"/>
+      <c r="BA180" s="17"/>
+      <c r="BB180" s="17"/>
+      <c r="BC180" s="17"/>
+      <c r="BD180" s="17"/>
+      <c r="BE180" s="17"/>
+      <c r="BF180" s="17"/>
+      <c r="BG180" s="17"/>
+      <c r="BH180" s="17"/>
+      <c r="BI180" s="17"/>
+      <c r="BJ180" s="17"/>
+      <c r="BK180" s="17"/>
+      <c r="BL180" s="17"/>
+      <c r="BM180" s="17"/>
+      <c r="BN180" s="17"/>
+      <c r="BO180" s="17"/>
+      <c r="BP180" s="17"/>
+      <c r="BQ180" s="17"/>
+    </row>
+    <row r="181" spans="1:69">
+      <c r="A181" s="17"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="17"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="17"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
+      <c r="M181" s="17"/>
+      <c r="N181" s="17"/>
+      <c r="O181" s="18"/>
+      <c r="P181" s="18"/>
+      <c r="Q181" s="17"/>
+      <c r="R181" s="17"/>
+      <c r="S181" s="17"/>
+      <c r="T181" s="17"/>
+      <c r="U181" s="17"/>
+      <c r="V181" s="17"/>
+      <c r="W181" s="17"/>
+      <c r="X181" s="17"/>
+      <c r="Y181" s="17"/>
+      <c r="Z181" s="17"/>
+      <c r="AA181" s="17"/>
+      <c r="AB181" s="17"/>
+      <c r="AC181" s="17"/>
+      <c r="AD181" s="17"/>
+      <c r="AE181" s="17"/>
+      <c r="AF181" s="17"/>
+      <c r="AG181" s="17"/>
+      <c r="AH181" s="17"/>
+      <c r="AI181" s="17"/>
+      <c r="AJ181" s="17"/>
+      <c r="AK181" s="17"/>
+      <c r="AL181" s="17"/>
+      <c r="AM181" s="17"/>
+      <c r="AN181" s="17"/>
+      <c r="AO181" s="17"/>
+      <c r="AP181" s="17"/>
+      <c r="AQ181" s="17"/>
+      <c r="AR181" s="17"/>
+      <c r="AS181" s="17"/>
+      <c r="AT181" s="17"/>
+      <c r="AU181" s="17"/>
+      <c r="AV181" s="17"/>
+      <c r="AW181" s="17"/>
+      <c r="AX181" s="17"/>
+      <c r="AY181" s="17"/>
+      <c r="AZ181" s="17"/>
+      <c r="BA181" s="17"/>
+      <c r="BB181" s="17"/>
+      <c r="BC181" s="17"/>
+      <c r="BD181" s="17"/>
+      <c r="BE181" s="17"/>
+      <c r="BF181" s="17"/>
+      <c r="BG181" s="17"/>
+      <c r="BH181" s="17"/>
+      <c r="BI181" s="17"/>
+      <c r="BJ181" s="17"/>
+      <c r="BK181" s="17"/>
+      <c r="BL181" s="17"/>
+      <c r="BM181" s="17"/>
+      <c r="BN181" s="17"/>
+      <c r="BO181" s="17"/>
+      <c r="BP181" s="17"/>
+      <c r="BQ181" s="17"/>
+    </row>
+    <row r="182" spans="1:69">
+      <c r="A182" s="17"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="17"/>
+      <c r="L182" s="17"/>
+      <c r="M182" s="17"/>
+      <c r="N182" s="17"/>
+      <c r="O182" s="18"/>
+      <c r="P182" s="18"/>
+      <c r="Q182" s="17"/>
+      <c r="R182" s="17"/>
+      <c r="S182" s="17"/>
+      <c r="T182" s="17"/>
+      <c r="U182" s="17"/>
+      <c r="V182" s="17"/>
+      <c r="W182" s="17"/>
+      <c r="X182" s="17"/>
+      <c r="Y182" s="17"/>
+      <c r="Z182" s="17"/>
+      <c r="AA182" s="17"/>
+      <c r="AB182" s="17"/>
+      <c r="AC182" s="17"/>
+      <c r="AD182" s="17"/>
+      <c r="AE182" s="17"/>
+      <c r="AF182" s="17"/>
+      <c r="AG182" s="17"/>
+      <c r="AH182" s="17"/>
+      <c r="AI182" s="17"/>
+      <c r="AJ182" s="17"/>
+      <c r="AK182" s="17"/>
+      <c r="AL182" s="17"/>
+      <c r="AM182" s="17"/>
+      <c r="AN182" s="17"/>
+      <c r="AO182" s="17"/>
+      <c r="AP182" s="17"/>
+      <c r="AQ182" s="17"/>
+      <c r="AR182" s="17"/>
+      <c r="AS182" s="17"/>
+      <c r="AT182" s="17"/>
+      <c r="AU182" s="17"/>
+      <c r="AV182" s="17"/>
+      <c r="AW182" s="17"/>
+      <c r="AX182" s="17"/>
+      <c r="AY182" s="17"/>
+      <c r="AZ182" s="17"/>
+      <c r="BA182" s="17"/>
+      <c r="BB182" s="17"/>
+      <c r="BC182" s="17"/>
+      <c r="BD182" s="17"/>
+      <c r="BE182" s="17"/>
+      <c r="BF182" s="17"/>
+      <c r="BG182" s="17"/>
+      <c r="BH182" s="17"/>
+      <c r="BI182" s="17"/>
+      <c r="BJ182" s="17"/>
+      <c r="BK182" s="17"/>
+      <c r="BL182" s="17"/>
+      <c r="BM182" s="17"/>
+      <c r="BN182" s="17"/>
+      <c r="BO182" s="17"/>
+      <c r="BP182" s="17"/>
+      <c r="BQ182" s="17"/>
+    </row>
+    <row r="183" spans="1:69">
+      <c r="A183" s="17"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="17"/>
+      <c r="L183" s="17"/>
+      <c r="M183" s="17"/>
+      <c r="N183" s="17"/>
+      <c r="O183" s="18"/>
+      <c r="P183" s="18"/>
+      <c r="Q183" s="17"/>
+      <c r="R183" s="17"/>
+      <c r="S183" s="17"/>
+      <c r="T183" s="17"/>
+      <c r="U183" s="17"/>
+      <c r="V183" s="17"/>
+      <c r="W183" s="17"/>
+      <c r="X183" s="17"/>
+      <c r="Y183" s="17"/>
+      <c r="Z183" s="17"/>
+      <c r="AA183" s="17"/>
+      <c r="AB183" s="17"/>
+      <c r="AC183" s="17"/>
+      <c r="AD183" s="17"/>
+      <c r="AE183" s="17"/>
+      <c r="AF183" s="17"/>
+      <c r="AG183" s="17"/>
+      <c r="AH183" s="17"/>
+      <c r="AI183" s="17"/>
+      <c r="AJ183" s="17"/>
+      <c r="AK183" s="17"/>
+      <c r="AL183" s="17"/>
+      <c r="AM183" s="17"/>
+      <c r="AN183" s="17"/>
+      <c r="AO183" s="17"/>
+      <c r="AP183" s="17"/>
+      <c r="AQ183" s="17"/>
+      <c r="AR183" s="17"/>
+      <c r="AS183" s="17"/>
+      <c r="AT183" s="17"/>
+      <c r="AU183" s="17"/>
+      <c r="AV183" s="17"/>
+      <c r="AW183" s="17"/>
+      <c r="AX183" s="17"/>
+      <c r="AY183" s="17"/>
+      <c r="AZ183" s="17"/>
+      <c r="BA183" s="17"/>
+      <c r="BB183" s="17"/>
+      <c r="BC183" s="17"/>
+      <c r="BD183" s="17"/>
+      <c r="BE183" s="17"/>
+      <c r="BF183" s="17"/>
+      <c r="BG183" s="17"/>
+      <c r="BH183" s="17"/>
+      <c r="BI183" s="17"/>
+      <c r="BJ183" s="17"/>
+      <c r="BK183" s="17"/>
+      <c r="BL183" s="17"/>
+      <c r="BM183" s="17"/>
+      <c r="BN183" s="17"/>
+      <c r="BO183" s="17"/>
+      <c r="BP183" s="17"/>
+      <c r="BQ183" s="17"/>
+    </row>
+    <row r="184" spans="1:69">
+      <c r="A184" s="17"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="17"/>
+      <c r="I184" s="17"/>
+      <c r="J184" s="17"/>
+      <c r="K184" s="17"/>
+      <c r="L184" s="17"/>
+      <c r="M184" s="17"/>
+      <c r="N184" s="17"/>
+      <c r="O184" s="18"/>
+      <c r="P184" s="18"/>
+      <c r="Q184" s="17"/>
+      <c r="R184" s="17"/>
+      <c r="S184" s="17"/>
+      <c r="T184" s="17"/>
+      <c r="U184" s="17"/>
+      <c r="V184" s="17"/>
+      <c r="W184" s="17"/>
+      <c r="X184" s="17"/>
+      <c r="Y184" s="17"/>
+      <c r="Z184" s="17"/>
+      <c r="AA184" s="17"/>
+      <c r="AB184" s="17"/>
+      <c r="AC184" s="17"/>
+      <c r="AD184" s="17"/>
+      <c r="AE184" s="17"/>
+      <c r="AF184" s="17"/>
+      <c r="AG184" s="17"/>
+      <c r="AH184" s="17"/>
+      <c r="AI184" s="17"/>
+      <c r="AJ184" s="17"/>
+      <c r="AK184" s="17"/>
+      <c r="AL184" s="17"/>
+      <c r="AM184" s="17"/>
+      <c r="AN184" s="17"/>
+      <c r="AO184" s="17"/>
+      <c r="AP184" s="17"/>
+      <c r="AQ184" s="17"/>
+      <c r="AR184" s="17"/>
+      <c r="AS184" s="17"/>
+      <c r="AT184" s="17"/>
+      <c r="AU184" s="17"/>
+      <c r="AV184" s="17"/>
+      <c r="AW184" s="17"/>
+      <c r="AX184" s="17"/>
+      <c r="AY184" s="17"/>
+      <c r="AZ184" s="17"/>
+      <c r="BA184" s="17"/>
+      <c r="BB184" s="17"/>
+      <c r="BC184" s="17"/>
+      <c r="BD184" s="17"/>
+      <c r="BE184" s="17"/>
+      <c r="BF184" s="17"/>
+      <c r="BG184" s="17"/>
+      <c r="BH184" s="17"/>
+      <c r="BI184" s="17"/>
+      <c r="BJ184" s="17"/>
+      <c r="BK184" s="17"/>
+      <c r="BL184" s="17"/>
+      <c r="BM184" s="17"/>
+      <c r="BN184" s="17"/>
+      <c r="BO184" s="17"/>
+      <c r="BP184" s="17"/>
+      <c r="BQ184" s="17"/>
+    </row>
+    <row r="185" spans="1:69">
+      <c r="A185" s="17"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="17"/>
+      <c r="I185" s="17"/>
+      <c r="J185" s="17"/>
+      <c r="K185" s="17"/>
+      <c r="L185" s="17"/>
+      <c r="M185" s="17"/>
+      <c r="N185" s="17"/>
+      <c r="O185" s="18"/>
+      <c r="P185" s="18"/>
+      <c r="Q185" s="17"/>
+      <c r="R185" s="17"/>
+      <c r="S185" s="17"/>
+      <c r="T185" s="17"/>
+      <c r="U185" s="17"/>
+      <c r="V185" s="17"/>
+      <c r="W185" s="17"/>
+      <c r="X185" s="17"/>
+      <c r="Y185" s="17"/>
+      <c r="Z185" s="17"/>
+      <c r="AA185" s="17"/>
+      <c r="AB185" s="17"/>
+      <c r="AC185" s="17"/>
+      <c r="AD185" s="17"/>
+      <c r="AE185" s="17"/>
+      <c r="AF185" s="17"/>
+      <c r="AG185" s="17"/>
+      <c r="AH185" s="17"/>
+      <c r="AI185" s="17"/>
+      <c r="AJ185" s="17"/>
+      <c r="AK185" s="17"/>
+      <c r="AL185" s="17"/>
+      <c r="AM185" s="17"/>
+      <c r="AN185" s="17"/>
+      <c r="AO185" s="17"/>
+      <c r="AP185" s="17"/>
+      <c r="AQ185" s="17"/>
+      <c r="AR185" s="17"/>
+      <c r="AS185" s="17"/>
+      <c r="AT185" s="17"/>
+      <c r="AU185" s="17"/>
+      <c r="AV185" s="17"/>
+      <c r="AW185" s="17"/>
+      <c r="AX185" s="17"/>
+      <c r="AY185" s="17"/>
+      <c r="AZ185" s="17"/>
+      <c r="BA185" s="17"/>
+      <c r="BB185" s="17"/>
+      <c r="BC185" s="17"/>
+      <c r="BD185" s="17"/>
+      <c r="BE185" s="17"/>
+      <c r="BF185" s="17"/>
+      <c r="BG185" s="17"/>
+      <c r="BH185" s="17"/>
+      <c r="BI185" s="17"/>
+      <c r="BJ185" s="17"/>
+      <c r="BK185" s="17"/>
+      <c r="BL185" s="17"/>
+      <c r="BM185" s="17"/>
+      <c r="BN185" s="17"/>
+      <c r="BO185" s="17"/>
+      <c r="BP185" s="17"/>
+      <c r="BQ185" s="17"/>
+    </row>
+    <row r="186" spans="1:69">
+      <c r="A186" s="17"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="17"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="17"/>
+      <c r="K186" s="17"/>
+      <c r="L186" s="17"/>
+      <c r="M186" s="17"/>
+      <c r="N186" s="17"/>
+      <c r="O186" s="18"/>
+      <c r="P186" s="18"/>
+      <c r="Q186" s="17"/>
+      <c r="R186" s="17"/>
+      <c r="S186" s="17"/>
+      <c r="T186" s="17"/>
+      <c r="U186" s="17"/>
+      <c r="V186" s="17"/>
+      <c r="W186" s="17"/>
+      <c r="X186" s="17"/>
+      <c r="Y186" s="17"/>
+      <c r="Z186" s="17"/>
+      <c r="AA186" s="17"/>
+      <c r="AB186" s="17"/>
+      <c r="AC186" s="17"/>
+      <c r="AD186" s="17"/>
+      <c r="AE186" s="17"/>
+      <c r="AF186" s="17"/>
+      <c r="AG186" s="17"/>
+      <c r="AH186" s="17"/>
+      <c r="AI186" s="17"/>
+      <c r="AJ186" s="17"/>
+      <c r="AK186" s="17"/>
+      <c r="AL186" s="17"/>
+      <c r="AM186" s="17"/>
+      <c r="AN186" s="17"/>
+      <c r="AO186" s="17"/>
+      <c r="AP186" s="17"/>
+      <c r="AQ186" s="17"/>
+      <c r="AR186" s="17"/>
+      <c r="AS186" s="17"/>
+      <c r="AT186" s="17"/>
+      <c r="AU186" s="17"/>
+      <c r="AV186" s="17"/>
+      <c r="AW186" s="17"/>
+      <c r="AX186" s="17"/>
+      <c r="AY186" s="17"/>
+      <c r="AZ186" s="17"/>
+      <c r="BA186" s="17"/>
+      <c r="BB186" s="17"/>
+      <c r="BC186" s="17"/>
+      <c r="BD186" s="17"/>
+      <c r="BE186" s="17"/>
+      <c r="BF186" s="17"/>
+      <c r="BG186" s="17"/>
+      <c r="BH186" s="17"/>
+      <c r="BI186" s="17"/>
+      <c r="BJ186" s="17"/>
+      <c r="BK186" s="17"/>
+      <c r="BL186" s="17"/>
+      <c r="BM186" s="17"/>
+      <c r="BN186" s="17"/>
+      <c r="BO186" s="17"/>
+      <c r="BP186" s="17"/>
+      <c r="BQ186" s="17"/>
+    </row>
+    <row r="187" spans="1:69">
+      <c r="A187" s="17"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="17"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="17"/>
+      <c r="L187" s="17"/>
+      <c r="M187" s="17"/>
+      <c r="N187" s="17"/>
+      <c r="O187" s="17"/>
+      <c r="P187" s="17"/>
+      <c r="Q187" s="17"/>
+      <c r="R187" s="17"/>
+      <c r="S187" s="17"/>
+      <c r="T187" s="17"/>
+      <c r="U187" s="17"/>
+      <c r="V187" s="17"/>
+      <c r="W187" s="17"/>
+      <c r="X187" s="17"/>
+      <c r="Y187" s="17"/>
+      <c r="Z187" s="17"/>
+      <c r="AA187" s="17"/>
+      <c r="AB187" s="17"/>
+      <c r="AC187" s="17"/>
+      <c r="AD187" s="17"/>
+      <c r="AE187" s="17"/>
+      <c r="AF187" s="17"/>
+      <c r="AG187" s="17"/>
+      <c r="AH187" s="17"/>
+      <c r="AI187" s="17"/>
+      <c r="AJ187" s="17"/>
+      <c r="AK187" s="17"/>
+      <c r="AL187" s="17"/>
+      <c r="AM187" s="17"/>
+      <c r="AN187" s="17"/>
+      <c r="AO187" s="17"/>
+      <c r="AP187" s="17"/>
+      <c r="AQ187" s="17"/>
+      <c r="AR187" s="17"/>
+      <c r="AS187" s="17"/>
+      <c r="AT187" s="17"/>
+      <c r="AU187" s="17"/>
+      <c r="AV187" s="17"/>
+      <c r="AW187" s="17"/>
+      <c r="AX187" s="17"/>
+      <c r="AY187" s="17"/>
+      <c r="AZ187" s="17"/>
+      <c r="BA187" s="17"/>
+      <c r="BB187" s="17"/>
+      <c r="BC187" s="17"/>
+      <c r="BD187" s="17"/>
+      <c r="BE187" s="17"/>
+      <c r="BF187" s="17"/>
+      <c r="BG187" s="17"/>
+      <c r="BH187" s="17"/>
+      <c r="BI187" s="17"/>
+      <c r="BJ187" s="17"/>
+      <c r="BK187" s="17"/>
+      <c r="BL187" s="17"/>
+      <c r="BM187" s="17"/>
+      <c r="BN187" s="17"/>
+      <c r="BO187" s="17"/>
+      <c r="BP187" s="17"/>
+      <c r="BQ187" s="17"/>
+    </row>
+    <row r="188" spans="1:69">
+      <c r="A188" s="17"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="17"/>
+      <c r="I188" s="17"/>
+      <c r="J188" s="17"/>
+      <c r="K188" s="17"/>
+      <c r="L188" s="17"/>
+      <c r="M188" s="17"/>
+      <c r="N188" s="17"/>
+      <c r="O188" s="17"/>
+      <c r="P188" s="17"/>
+      <c r="Q188" s="17"/>
+      <c r="R188" s="17"/>
+      <c r="S188" s="17"/>
+      <c r="T188" s="17"/>
+      <c r="U188" s="17"/>
+      <c r="V188" s="17"/>
+      <c r="W188" s="17"/>
+      <c r="X188" s="17"/>
+      <c r="Y188" s="17"/>
+      <c r="Z188" s="17"/>
+      <c r="AA188" s="17"/>
+      <c r="AB188" s="17"/>
+      <c r="AC188" s="17"/>
+      <c r="AD188" s="17"/>
+      <c r="AE188" s="17"/>
+      <c r="AF188" s="17"/>
+      <c r="AG188" s="17"/>
+      <c r="AH188" s="17"/>
+      <c r="AI188" s="17"/>
+      <c r="AJ188" s="17"/>
+      <c r="AK188" s="17"/>
+      <c r="AL188" s="17"/>
+      <c r="AM188" s="17"/>
+      <c r="AN188" s="17"/>
+      <c r="AO188" s="17"/>
+      <c r="AP188" s="17"/>
+      <c r="AQ188" s="17"/>
+      <c r="AR188" s="17"/>
+      <c r="AS188" s="17"/>
+      <c r="AT188" s="17"/>
+      <c r="AU188" s="17"/>
+      <c r="AV188" s="17"/>
+      <c r="AW188" s="17"/>
+      <c r="AX188" s="17"/>
+      <c r="AY188" s="17"/>
+      <c r="AZ188" s="17"/>
+      <c r="BA188" s="17"/>
+      <c r="BB188" s="17"/>
+      <c r="BC188" s="17"/>
+      <c r="BD188" s="17"/>
+      <c r="BE188" s="17"/>
+      <c r="BF188" s="17"/>
+      <c r="BG188" s="17"/>
+      <c r="BH188" s="17"/>
+      <c r="BI188" s="17"/>
+      <c r="BJ188" s="17"/>
+      <c r="BK188" s="17"/>
+      <c r="BL188" s="17"/>
+      <c r="BM188" s="17"/>
+      <c r="BN188" s="17"/>
+      <c r="BO188" s="17"/>
+      <c r="BP188" s="17"/>
+      <c r="BQ188" s="17"/>
+    </row>
     <row r="189" spans="1:69">
       <c r="A189" s="17"/>
       <c r="B189" s="17"/>
@@ -23810,6 +28269,8 @@
       <c r="L189" s="17"/>
       <c r="M189" s="17"/>
       <c r="N189" s="17"/>
+      <c r="O189" s="17"/>
+      <c r="P189" s="17"/>
       <c r="Q189" s="17"/>
       <c r="R189" s="17"/>
       <c r="S189" s="17"/>
@@ -23879,6 +28340,8 @@
       <c r="L190" s="17"/>
       <c r="M190" s="17"/>
       <c r="N190" s="17"/>
+      <c r="O190" s="17"/>
+      <c r="P190" s="17"/>
       <c r="Q190" s="17"/>
       <c r="R190" s="17"/>
       <c r="S190" s="17"/>
@@ -23948,6 +28411,12 @@
       <c r="L191" s="17"/>
       <c r="M191" s="17"/>
       <c r="N191" s="17"/>
+      <c r="O191" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P191" s="20" t="s">
+        <v>514</v>
+      </c>
       <c r="Q191" s="17"/>
       <c r="R191" s="17"/>
       <c r="S191" s="17"/>
@@ -24017,8 +28486,12 @@
       <c r="L192" s="17"/>
       <c r="M192" s="17"/>
       <c r="N192" s="17"/>
-      <c r="O192" s="36"/>
-      <c r="P192" s="36"/>
+      <c r="O192" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P192" s="42">
+        <v>657167265</v>
+      </c>
       <c r="Q192" s="17"/>
       <c r="R192" s="17"/>
       <c r="S192" s="17"/>
@@ -24088,8 +28561,12 @@
       <c r="L193" s="17"/>
       <c r="M193" s="17"/>
       <c r="N193" s="17"/>
-      <c r="O193" s="64"/>
-      <c r="P193" s="64"/>
+      <c r="O193" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P193" s="44">
+        <v>548392715</v>
+      </c>
       <c r="Q193" s="17"/>
       <c r="R193" s="17"/>
       <c r="S193" s="17"/>
@@ -24159,8 +28636,8 @@
       <c r="L194" s="17"/>
       <c r="M194" s="17"/>
       <c r="N194" s="17"/>
-      <c r="O194" s="36"/>
-      <c r="P194" s="36"/>
+      <c r="O194" s="17"/>
+      <c r="P194" s="17"/>
       <c r="Q194" s="17"/>
       <c r="R194" s="17"/>
       <c r="S194" s="17"/>
@@ -24230,8 +28707,8 @@
       <c r="L195" s="17"/>
       <c r="M195" s="17"/>
       <c r="N195" s="17"/>
-      <c r="O195" s="36"/>
-      <c r="P195" s="36"/>
+      <c r="O195" s="17"/>
+      <c r="P195" s="17"/>
       <c r="Q195" s="17"/>
       <c r="R195" s="17"/>
       <c r="S195" s="17"/>
@@ -24301,8 +28778,8 @@
       <c r="L196" s="17"/>
       <c r="M196" s="17"/>
       <c r="N196" s="17"/>
-      <c r="O196" s="18"/>
-      <c r="P196" s="18"/>
+      <c r="O196" s="17"/>
+      <c r="P196" s="17"/>
       <c r="Q196" s="17"/>
       <c r="R196" s="17"/>
       <c r="S196" s="17"/>
@@ -24372,8 +28849,8 @@
       <c r="L197" s="17"/>
       <c r="M197" s="17"/>
       <c r="N197" s="17"/>
-      <c r="O197" s="18"/>
-      <c r="P197" s="18"/>
+      <c r="O197" s="14"/>
+      <c r="P197" s="14"/>
       <c r="Q197" s="17"/>
       <c r="R197" s="17"/>
       <c r="S197" s="17"/>
@@ -24443,8 +28920,12 @@
       <c r="L198" s="17"/>
       <c r="M198" s="17"/>
       <c r="N198" s="17"/>
-      <c r="O198" s="18"/>
-      <c r="P198" s="18"/>
+      <c r="O198" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="P198" s="17">
+        <v>197316935</v>
+      </c>
       <c r="Q198" s="17"/>
       <c r="R198" s="17"/>
       <c r="S198" s="17"/>
@@ -24514,8 +28995,12 @@
       <c r="L199" s="17"/>
       <c r="M199" s="17"/>
       <c r="N199" s="17"/>
-      <c r="O199" s="18"/>
-      <c r="P199" s="18"/>
+      <c r="O199" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="P199" s="17">
+        <v>197316935</v>
+      </c>
       <c r="Q199" s="17"/>
       <c r="R199" s="17"/>
       <c r="S199" s="17"/>
@@ -24585,8 +29070,12 @@
       <c r="L200" s="17"/>
       <c r="M200" s="17"/>
       <c r="N200" s="17"/>
-      <c r="O200" s="18"/>
-      <c r="P200" s="18"/>
+      <c r="O200" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="P200" s="17">
+        <v>197316935</v>
+      </c>
       <c r="Q200" s="17"/>
       <c r="R200" s="17"/>
       <c r="S200" s="17"/>
@@ -24656,8 +29145,12 @@
       <c r="L201" s="17"/>
       <c r="M201" s="17"/>
       <c r="N201" s="17"/>
-      <c r="O201" s="18"/>
-      <c r="P201" s="18"/>
+      <c r="O201" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="P201" s="17">
+        <v>197316935</v>
+      </c>
       <c r="Q201" s="17"/>
       <c r="R201" s="17"/>
       <c r="S201" s="17"/>
@@ -24727,8 +29220,12 @@
       <c r="L202" s="17"/>
       <c r="M202" s="17"/>
       <c r="N202" s="17"/>
-      <c r="O202" s="18"/>
-      <c r="P202" s="18"/>
+      <c r="O202" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="P202" s="17">
+        <v>197316935</v>
+      </c>
       <c r="Q202" s="17"/>
       <c r="R202" s="17"/>
       <c r="S202" s="17"/>
@@ -24798,8 +29295,12 @@
       <c r="L203" s="17"/>
       <c r="M203" s="17"/>
       <c r="N203" s="17"/>
-      <c r="O203" s="18"/>
-      <c r="P203" s="18"/>
+      <c r="O203" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="P203" s="17">
+        <v>197316935</v>
+      </c>
       <c r="Q203" s="17"/>
       <c r="R203" s="17"/>
       <c r="S203" s="17"/>
@@ -24869,8 +29370,8 @@
       <c r="L204" s="17"/>
       <c r="M204" s="17"/>
       <c r="N204" s="17"/>
-      <c r="O204" s="18"/>
-      <c r="P204" s="18"/>
+      <c r="O204" s="17"/>
+      <c r="P204" s="17"/>
       <c r="Q204" s="17"/>
       <c r="R204" s="17"/>
       <c r="S204" s="17"/>
@@ -25153,8 +29654,12 @@
       <c r="L208" s="17"/>
       <c r="M208" s="17"/>
       <c r="N208" s="17"/>
-      <c r="O208" s="17"/>
-      <c r="P208" s="17"/>
+      <c r="O208" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="P208" s="14">
+        <v>353358909</v>
+      </c>
       <c r="Q208" s="17"/>
       <c r="R208" s="17"/>
       <c r="S208" s="17"/>
@@ -25224,11 +29729,11 @@
       <c r="L209" s="17"/>
       <c r="M209" s="17"/>
       <c r="N209" s="17"/>
-      <c r="O209" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P209" s="20" t="s">
-        <v>514</v>
+      <c r="O209" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="P209" s="14">
+        <v>353358909</v>
       </c>
       <c r="Q209" s="17"/>
       <c r="R209" s="17"/>
@@ -25299,12 +29804,8 @@
       <c r="L210" s="17"/>
       <c r="M210" s="17"/>
       <c r="N210" s="17"/>
-      <c r="O210" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P210" s="42">
-        <v>657167265</v>
-      </c>
+      <c r="O210" s="14"/>
+      <c r="P210" s="14"/>
       <c r="Q210" s="17"/>
       <c r="R210" s="17"/>
       <c r="S210" s="17"/>
@@ -25374,12 +29875,8 @@
       <c r="L211" s="17"/>
       <c r="M211" s="17"/>
       <c r="N211" s="17"/>
-      <c r="O211" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P211" s="44">
-        <v>548392715</v>
-      </c>
+      <c r="O211" s="14"/>
+      <c r="P211" s="14"/>
       <c r="Q211" s="17"/>
       <c r="R211" s="17"/>
       <c r="S211" s="17"/>
@@ -25449,8 +29946,8 @@
       <c r="L212" s="17"/>
       <c r="M212" s="17"/>
       <c r="N212" s="17"/>
-      <c r="O212" s="17"/>
-      <c r="P212" s="17"/>
+      <c r="O212" s="14"/>
+      <c r="P212" s="14"/>
       <c r="Q212" s="17"/>
       <c r="R212" s="17"/>
       <c r="S212" s="17"/>
@@ -25520,8 +30017,8 @@
       <c r="L213" s="17"/>
       <c r="M213" s="17"/>
       <c r="N213" s="17"/>
-      <c r="O213" s="17"/>
-      <c r="P213" s="17"/>
+      <c r="O213" s="14"/>
+      <c r="P213" s="14"/>
       <c r="Q213" s="17"/>
       <c r="R213" s="17"/>
       <c r="S213" s="17"/>
@@ -25591,8 +30088,8 @@
       <c r="L214" s="17"/>
       <c r="M214" s="17"/>
       <c r="N214" s="17"/>
-      <c r="O214" s="17"/>
-      <c r="P214" s="17"/>
+      <c r="O214" s="14"/>
+      <c r="P214" s="14"/>
       <c r="Q214" s="17"/>
       <c r="R214" s="17"/>
       <c r="S214" s="17"/>
@@ -25733,12 +30230,8 @@
       <c r="L216" s="17"/>
       <c r="M216" s="17"/>
       <c r="N216" s="17"/>
-      <c r="O216" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="P216" s="17">
-        <v>197316935</v>
-      </c>
+      <c r="O216" s="14"/>
+      <c r="P216" s="14"/>
       <c r="Q216" s="17"/>
       <c r="R216" s="17"/>
       <c r="S216" s="17"/>
@@ -25808,12 +30301,8 @@
       <c r="L217" s="17"/>
       <c r="M217" s="17"/>
       <c r="N217" s="17"/>
-      <c r="O217" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="P217" s="17">
-        <v>197316935</v>
-      </c>
+      <c r="O217" s="14"/>
+      <c r="P217" s="14"/>
       <c r="Q217" s="17"/>
       <c r="R217" s="17"/>
       <c r="S217" s="17"/>
@@ -25883,12 +30372,8 @@
       <c r="L218" s="17"/>
       <c r="M218" s="17"/>
       <c r="N218" s="17"/>
-      <c r="O218" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="P218" s="17">
-        <v>197316935</v>
-      </c>
+      <c r="O218" s="14"/>
+      <c r="P218" s="14"/>
       <c r="Q218" s="17"/>
       <c r="R218" s="17"/>
       <c r="S218" s="17"/>
@@ -25958,12 +30443,8 @@
       <c r="L219" s="17"/>
       <c r="M219" s="17"/>
       <c r="N219" s="17"/>
-      <c r="O219" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="P219" s="17">
-        <v>197316935</v>
-      </c>
+      <c r="O219" s="14"/>
+      <c r="P219" s="14"/>
       <c r="Q219" s="17"/>
       <c r="R219" s="17"/>
       <c r="S219" s="17"/>
@@ -26033,12 +30514,8 @@
       <c r="L220" s="17"/>
       <c r="M220" s="17"/>
       <c r="N220" s="17"/>
-      <c r="O220" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="P220" s="17">
-        <v>197316935</v>
-      </c>
+      <c r="O220" s="14"/>
+      <c r="P220" s="14"/>
       <c r="Q220" s="17"/>
       <c r="R220" s="17"/>
       <c r="S220" s="17"/>
@@ -26108,12 +30585,8 @@
       <c r="L221" s="17"/>
       <c r="M221" s="17"/>
       <c r="N221" s="17"/>
-      <c r="O221" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="P221" s="17">
-        <v>197316935</v>
-      </c>
+      <c r="O221" s="14"/>
+      <c r="P221" s="14"/>
       <c r="Q221" s="17"/>
       <c r="R221" s="17"/>
       <c r="S221" s="17"/>
@@ -26183,8 +30656,8 @@
       <c r="L222" s="17"/>
       <c r="M222" s="17"/>
       <c r="N222" s="17"/>
-      <c r="O222" s="17"/>
-      <c r="P222" s="17"/>
+      <c r="O222" s="14"/>
+      <c r="P222" s="14"/>
       <c r="Q222" s="17"/>
       <c r="R222" s="17"/>
       <c r="S222" s="17"/>
@@ -26254,8 +30727,8 @@
       <c r="L223" s="17"/>
       <c r="M223" s="17"/>
       <c r="N223" s="17"/>
-      <c r="O223" s="17"/>
-      <c r="P223" s="17"/>
+      <c r="O223" s="14"/>
+      <c r="P223" s="14"/>
       <c r="Q223" s="17"/>
       <c r="R223" s="17"/>
       <c r="S223" s="17"/>
@@ -26325,8 +30798,8 @@
       <c r="L224" s="17"/>
       <c r="M224" s="17"/>
       <c r="N224" s="17"/>
-      <c r="O224" s="17"/>
-      <c r="P224" s="17"/>
+      <c r="O224" s="14"/>
+      <c r="P224" s="14"/>
       <c r="Q224" s="17"/>
       <c r="R224" s="17"/>
       <c r="S224" s="17"/>
@@ -26396,8 +30869,8 @@
       <c r="L225" s="17"/>
       <c r="M225" s="17"/>
       <c r="N225" s="17"/>
-      <c r="O225" s="17"/>
-      <c r="P225" s="17"/>
+      <c r="O225" s="50"/>
+      <c r="P225" s="50"/>
       <c r="Q225" s="17"/>
       <c r="R225" s="17"/>
       <c r="S225" s="17"/>
@@ -26467,12 +30940,8 @@
       <c r="L226" s="17"/>
       <c r="M226" s="17"/>
       <c r="N226" s="17"/>
-      <c r="O226" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="P226" s="14">
-        <v>353358909</v>
-      </c>
+      <c r="O226" s="14"/>
+      <c r="P226" s="14"/>
       <c r="Q226" s="17"/>
       <c r="R226" s="17"/>
       <c r="S226" s="17"/>
@@ -26542,12 +31011,8 @@
       <c r="L227" s="17"/>
       <c r="M227" s="17"/>
       <c r="N227" s="17"/>
-      <c r="O227" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="P227" s="14">
-        <v>353358909</v>
-      </c>
+      <c r="O227" s="14"/>
+      <c r="P227" s="14"/>
       <c r="Q227" s="17"/>
       <c r="R227" s="17"/>
       <c r="S227" s="17"/>
@@ -26688,8 +31153,8 @@
       <c r="L229" s="17"/>
       <c r="M229" s="17"/>
       <c r="N229" s="17"/>
-      <c r="O229" s="14"/>
-      <c r="P229" s="14"/>
+      <c r="O229" s="17"/>
+      <c r="P229" s="17"/>
       <c r="Q229" s="17"/>
       <c r="R229" s="17"/>
       <c r="S229" s="17"/>
@@ -26759,8 +31224,8 @@
       <c r="L230" s="17"/>
       <c r="M230" s="17"/>
       <c r="N230" s="17"/>
-      <c r="O230" s="14"/>
-      <c r="P230" s="14"/>
+      <c r="O230" s="17"/>
+      <c r="P230" s="17"/>
       <c r="Q230" s="17"/>
       <c r="R230" s="17"/>
       <c r="S230" s="17"/>
@@ -26830,8 +31295,8 @@
       <c r="L231" s="17"/>
       <c r="M231" s="17"/>
       <c r="N231" s="17"/>
-      <c r="O231" s="14"/>
-      <c r="P231" s="14"/>
+      <c r="O231" s="17"/>
+      <c r="P231" s="17"/>
       <c r="Q231" s="17"/>
       <c r="R231" s="17"/>
       <c r="S231" s="17"/>
@@ -26901,8 +31366,8 @@
       <c r="L232" s="17"/>
       <c r="M232" s="17"/>
       <c r="N232" s="17"/>
-      <c r="O232" s="14"/>
-      <c r="P232" s="14"/>
+      <c r="O232" s="17"/>
+      <c r="P232" s="17"/>
       <c r="Q232" s="17"/>
       <c r="R232" s="17"/>
       <c r="S232" s="17"/>
@@ -26972,8 +31437,8 @@
       <c r="L233" s="17"/>
       <c r="M233" s="17"/>
       <c r="N233" s="17"/>
-      <c r="O233" s="14"/>
-      <c r="P233" s="14"/>
+      <c r="O233" s="17"/>
+      <c r="P233" s="17"/>
       <c r="Q233" s="17"/>
       <c r="R233" s="17"/>
       <c r="S233" s="17"/>
@@ -27043,8 +31508,8 @@
       <c r="L234" s="17"/>
       <c r="M234" s="17"/>
       <c r="N234" s="17"/>
-      <c r="O234" s="14"/>
-      <c r="P234" s="14"/>
+      <c r="O234" s="17"/>
+      <c r="P234" s="17"/>
       <c r="Q234" s="17"/>
       <c r="R234" s="17"/>
       <c r="S234" s="17"/>
@@ -27114,8 +31579,8 @@
       <c r="L235" s="17"/>
       <c r="M235" s="17"/>
       <c r="N235" s="17"/>
-      <c r="O235" s="14"/>
-      <c r="P235" s="14"/>
+      <c r="O235" s="17"/>
+      <c r="P235" s="17"/>
       <c r="Q235" s="17"/>
       <c r="R235" s="17"/>
       <c r="S235" s="17"/>
@@ -27185,8 +31650,8 @@
       <c r="L236" s="17"/>
       <c r="M236" s="17"/>
       <c r="N236" s="17"/>
-      <c r="O236" s="14"/>
-      <c r="P236" s="14"/>
+      <c r="O236" s="17"/>
+      <c r="P236" s="17"/>
       <c r="Q236" s="17"/>
       <c r="R236" s="17"/>
       <c r="S236" s="17"/>
@@ -27256,8 +31721,8 @@
       <c r="L237" s="17"/>
       <c r="M237" s="17"/>
       <c r="N237" s="17"/>
-      <c r="O237" s="14"/>
-      <c r="P237" s="14"/>
+      <c r="O237" s="17"/>
+      <c r="P237" s="17"/>
       <c r="Q237" s="17"/>
       <c r="R237" s="17"/>
       <c r="S237" s="17"/>
@@ -27327,8 +31792,8 @@
       <c r="L238" s="17"/>
       <c r="M238" s="17"/>
       <c r="N238" s="17"/>
-      <c r="O238" s="14"/>
-      <c r="P238" s="14"/>
+      <c r="O238" s="17"/>
+      <c r="P238" s="17"/>
       <c r="Q238" s="17"/>
       <c r="R238" s="17"/>
       <c r="S238" s="17"/>
@@ -27398,8 +31863,8 @@
       <c r="L239" s="17"/>
       <c r="M239" s="17"/>
       <c r="N239" s="17"/>
-      <c r="O239" s="14"/>
-      <c r="P239" s="14"/>
+      <c r="O239" s="18"/>
+      <c r="P239" s="18"/>
       <c r="Q239" s="17"/>
       <c r="R239" s="17"/>
       <c r="S239" s="17"/>
@@ -27469,8 +31934,6 @@
       <c r="L240" s="17"/>
       <c r="M240" s="17"/>
       <c r="N240" s="17"/>
-      <c r="O240" s="14"/>
-      <c r="P240" s="14"/>
       <c r="Q240" s="17"/>
       <c r="R240" s="17"/>
       <c r="S240" s="17"/>
@@ -27540,8 +32003,6 @@
       <c r="L241" s="17"/>
       <c r="M241" s="17"/>
       <c r="N241" s="17"/>
-      <c r="O241" s="14"/>
-      <c r="P241" s="14"/>
       <c r="Q241" s="17"/>
       <c r="R241" s="17"/>
       <c r="S241" s="17"/>
@@ -27611,8 +32072,12 @@
       <c r="L242" s="17"/>
       <c r="M242" s="17"/>
       <c r="N242" s="17"/>
-      <c r="O242" s="14"/>
-      <c r="P242" s="14"/>
+      <c r="O242" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="P242" s="58">
+        <v>472940358</v>
+      </c>
       <c r="Q242" s="17"/>
       <c r="R242" s="17"/>
       <c r="S242" s="17"/>
@@ -27682,8 +32147,12 @@
       <c r="L243" s="17"/>
       <c r="M243" s="17"/>
       <c r="N243" s="17"/>
-      <c r="O243" s="50"/>
-      <c r="P243" s="50"/>
+      <c r="O243" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="P243" s="17">
+        <v>197316935</v>
+      </c>
       <c r="Q243" s="17"/>
       <c r="R243" s="17"/>
       <c r="S243" s="17"/>
@@ -27753,8 +32222,8 @@
       <c r="L244" s="17"/>
       <c r="M244" s="17"/>
       <c r="N244" s="17"/>
-      <c r="O244" s="14"/>
-      <c r="P244" s="14"/>
+      <c r="O244" s="17"/>
+      <c r="P244" s="17"/>
       <c r="Q244" s="17"/>
       <c r="R244" s="17"/>
       <c r="S244" s="17"/>
@@ -27824,8 +32293,8 @@
       <c r="L245" s="17"/>
       <c r="M245" s="17"/>
       <c r="N245" s="17"/>
-      <c r="O245" s="14"/>
-      <c r="P245" s="14"/>
+      <c r="O245" s="17"/>
+      <c r="P245" s="17"/>
       <c r="Q245" s="17"/>
       <c r="R245" s="17"/>
       <c r="S245" s="17"/>
@@ -27895,8 +32364,8 @@
       <c r="L246" s="17"/>
       <c r="M246" s="17"/>
       <c r="N246" s="17"/>
-      <c r="O246" s="14"/>
-      <c r="P246" s="14"/>
+      <c r="O246" s="17"/>
+      <c r="P246" s="17"/>
       <c r="Q246" s="17"/>
       <c r="R246" s="17"/>
       <c r="S246" s="17"/>
@@ -28250,8 +32719,6 @@
       <c r="L251" s="17"/>
       <c r="M251" s="17"/>
       <c r="N251" s="17"/>
-      <c r="O251" s="17"/>
-      <c r="P251" s="17"/>
       <c r="Q251" s="17"/>
       <c r="R251" s="17"/>
       <c r="S251" s="17"/>
@@ -28321,8 +32788,6 @@
       <c r="L252" s="17"/>
       <c r="M252" s="17"/>
       <c r="N252" s="17"/>
-      <c r="O252" s="17"/>
-      <c r="P252" s="17"/>
       <c r="Q252" s="17"/>
       <c r="R252" s="17"/>
       <c r="S252" s="17"/>
@@ -28392,8 +32857,6 @@
       <c r="L253" s="17"/>
       <c r="M253" s="17"/>
       <c r="N253" s="17"/>
-      <c r="O253" s="17"/>
-      <c r="P253" s="17"/>
       <c r="Q253" s="17"/>
       <c r="R253" s="17"/>
       <c r="S253" s="17"/>
@@ -28463,8 +32926,6 @@
       <c r="L254" s="17"/>
       <c r="M254" s="17"/>
       <c r="N254" s="17"/>
-      <c r="O254" s="17"/>
-      <c r="P254" s="17"/>
       <c r="Q254" s="17"/>
       <c r="R254" s="17"/>
       <c r="S254" s="17"/>
@@ -28534,8 +32995,6 @@
       <c r="L255" s="17"/>
       <c r="M255" s="17"/>
       <c r="N255" s="17"/>
-      <c r="O255" s="17"/>
-      <c r="P255" s="17"/>
       <c r="Q255" s="17"/>
       <c r="R255" s="17"/>
       <c r="S255" s="17"/>
@@ -28605,8 +33064,6 @@
       <c r="L256" s="17"/>
       <c r="M256" s="17"/>
       <c r="N256" s="17"/>
-      <c r="O256" s="17"/>
-      <c r="P256" s="17"/>
       <c r="Q256" s="17"/>
       <c r="R256" s="17"/>
       <c r="S256" s="17"/>
@@ -28661,76 +33118,143 @@
       <c r="BP256" s="17"/>
       <c r="BQ256" s="17"/>
     </row>
-    <row r="257" spans="1:69">
-      <c r="A257" s="17"/>
-      <c r="B257" s="17"/>
-      <c r="C257" s="17"/>
-      <c r="D257" s="17"/>
-      <c r="E257" s="19"/>
-      <c r="F257" s="17"/>
-      <c r="G257" s="19"/>
-      <c r="H257" s="17"/>
-      <c r="I257" s="17"/>
-      <c r="J257" s="17"/>
-      <c r="K257" s="17"/>
-      <c r="L257" s="17"/>
-      <c r="M257" s="17"/>
-      <c r="N257" s="17"/>
-      <c r="O257" s="18"/>
-      <c r="P257" s="18"/>
-      <c r="Q257" s="17"/>
-      <c r="R257" s="17"/>
-      <c r="S257" s="17"/>
-      <c r="T257" s="17"/>
-      <c r="U257" s="17"/>
-      <c r="V257" s="17"/>
-      <c r="W257" s="17"/>
-      <c r="X257" s="17"/>
-      <c r="Y257" s="17"/>
-      <c r="Z257" s="17"/>
-      <c r="AA257" s="17"/>
-      <c r="AB257" s="17"/>
-      <c r="AC257" s="17"/>
-      <c r="AD257" s="17"/>
-      <c r="AE257" s="17"/>
-      <c r="AF257" s="17"/>
-      <c r="AG257" s="17"/>
-      <c r="AH257" s="17"/>
-      <c r="AI257" s="17"/>
-      <c r="AJ257" s="17"/>
-      <c r="AK257" s="17"/>
-      <c r="AL257" s="17"/>
-      <c r="AM257" s="17"/>
-      <c r="AN257" s="17"/>
-      <c r="AO257" s="17"/>
-      <c r="AP257" s="17"/>
-      <c r="AQ257" s="17"/>
-      <c r="AR257" s="17"/>
-      <c r="AS257" s="17"/>
-      <c r="AT257" s="17"/>
-      <c r="AU257" s="17"/>
-      <c r="AV257" s="17"/>
-      <c r="AW257" s="17"/>
-      <c r="AX257" s="17"/>
-      <c r="AY257" s="17"/>
-      <c r="AZ257" s="17"/>
-      <c r="BA257" s="17"/>
-      <c r="BB257" s="17"/>
-      <c r="BC257" s="17"/>
-      <c r="BD257" s="17"/>
-      <c r="BE257" s="17"/>
-      <c r="BF257" s="17"/>
-      <c r="BG257" s="17"/>
-      <c r="BH257" s="17"/>
-      <c r="BI257" s="17"/>
-      <c r="BJ257" s="17"/>
-      <c r="BK257" s="17"/>
-      <c r="BL257" s="17"/>
-      <c r="BM257" s="17"/>
-      <c r="BN257" s="17"/>
-      <c r="BO257" s="17"/>
-      <c r="BP257" s="17"/>
-      <c r="BQ257" s="17"/>
+    <row r="258" spans="1:69">
+      <c r="A258" s="17"/>
+      <c r="B258" s="17"/>
+      <c r="C258" s="17"/>
+      <c r="D258" s="17"/>
+      <c r="E258" s="19"/>
+      <c r="F258" s="17"/>
+      <c r="G258" s="19"/>
+      <c r="H258" s="17"/>
+      <c r="I258" s="17"/>
+      <c r="J258" s="17"/>
+      <c r="K258" s="17"/>
+      <c r="L258" s="17"/>
+      <c r="M258" s="17"/>
+      <c r="N258" s="17"/>
+      <c r="Q258" s="17"/>
+      <c r="R258" s="17"/>
+      <c r="S258" s="17"/>
+      <c r="T258" s="17"/>
+      <c r="U258" s="17"/>
+      <c r="V258" s="17"/>
+      <c r="W258" s="17"/>
+      <c r="X258" s="17"/>
+      <c r="Y258" s="17"/>
+      <c r="Z258" s="17"/>
+      <c r="AA258" s="17"/>
+      <c r="AB258" s="17"/>
+      <c r="AC258" s="17"/>
+      <c r="AD258" s="17"/>
+      <c r="AE258" s="17"/>
+      <c r="AF258" s="17"/>
+      <c r="AG258" s="17"/>
+      <c r="AH258" s="17"/>
+      <c r="AI258" s="17"/>
+      <c r="AJ258" s="17"/>
+      <c r="AK258" s="17"/>
+      <c r="AL258" s="17"/>
+      <c r="AM258" s="17"/>
+      <c r="AN258" s="17"/>
+      <c r="AO258" s="17"/>
+      <c r="AP258" s="17"/>
+      <c r="AQ258" s="17"/>
+      <c r="AR258" s="17"/>
+      <c r="AS258" s="17"/>
+      <c r="AT258" s="17"/>
+      <c r="AU258" s="17"/>
+      <c r="AV258" s="17"/>
+      <c r="AW258" s="17"/>
+      <c r="AX258" s="17"/>
+      <c r="AY258" s="17"/>
+      <c r="AZ258" s="17"/>
+      <c r="BA258" s="17"/>
+      <c r="BB258" s="17"/>
+      <c r="BC258" s="17"/>
+      <c r="BD258" s="17"/>
+      <c r="BE258" s="17"/>
+      <c r="BF258" s="17"/>
+      <c r="BG258" s="17"/>
+      <c r="BH258" s="17"/>
+      <c r="BI258" s="17"/>
+      <c r="BJ258" s="17"/>
+      <c r="BK258" s="17"/>
+      <c r="BL258" s="17"/>
+      <c r="BM258" s="17"/>
+      <c r="BN258" s="17"/>
+      <c r="BO258" s="17"/>
+      <c r="BP258" s="17"/>
+      <c r="BQ258" s="17"/>
+    </row>
+    <row r="259" spans="1:69">
+      <c r="A259" s="17"/>
+      <c r="B259" s="17"/>
+      <c r="C259" s="17"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="19"/>
+      <c r="F259" s="17"/>
+      <c r="G259" s="19"/>
+      <c r="H259" s="17"/>
+      <c r="I259" s="17"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="17"/>
+      <c r="L259" s="17"/>
+      <c r="M259" s="17"/>
+      <c r="N259" s="17"/>
+      <c r="Q259" s="17"/>
+      <c r="R259" s="17"/>
+      <c r="S259" s="17"/>
+      <c r="T259" s="17"/>
+      <c r="U259" s="17"/>
+      <c r="V259" s="17"/>
+      <c r="W259" s="17"/>
+      <c r="X259" s="17"/>
+      <c r="Y259" s="17"/>
+      <c r="Z259" s="17"/>
+      <c r="AA259" s="17"/>
+      <c r="AB259" s="17"/>
+      <c r="AC259" s="17"/>
+      <c r="AD259" s="17"/>
+      <c r="AE259" s="17"/>
+      <c r="AF259" s="17"/>
+      <c r="AG259" s="17"/>
+      <c r="AH259" s="17"/>
+      <c r="AI259" s="17"/>
+      <c r="AJ259" s="17"/>
+      <c r="AK259" s="17"/>
+      <c r="AL259" s="17"/>
+      <c r="AM259" s="17"/>
+      <c r="AN259" s="17"/>
+      <c r="AO259" s="17"/>
+      <c r="AP259" s="17"/>
+      <c r="AQ259" s="17"/>
+      <c r="AR259" s="17"/>
+      <c r="AS259" s="17"/>
+      <c r="AT259" s="17"/>
+      <c r="AU259" s="17"/>
+      <c r="AV259" s="17"/>
+      <c r="AW259" s="17"/>
+      <c r="AX259" s="17"/>
+      <c r="AY259" s="17"/>
+      <c r="AZ259" s="17"/>
+      <c r="BA259" s="17"/>
+      <c r="BB259" s="17"/>
+      <c r="BC259" s="17"/>
+      <c r="BD259" s="17"/>
+      <c r="BE259" s="17"/>
+      <c r="BF259" s="17"/>
+      <c r="BG259" s="17"/>
+      <c r="BH259" s="17"/>
+      <c r="BI259" s="17"/>
+      <c r="BJ259" s="17"/>
+      <c r="BK259" s="17"/>
+      <c r="BL259" s="17"/>
+      <c r="BM259" s="17"/>
+      <c r="BN259" s="17"/>
+      <c r="BO259" s="17"/>
+      <c r="BP259" s="17"/>
+      <c r="BQ259" s="17"/>
     </row>
     <row r="260" spans="1:69">
       <c r="A260" s="17"/>
@@ -28747,12 +33271,6 @@
       <c r="L260" s="17"/>
       <c r="M260" s="17"/>
       <c r="N260" s="17"/>
-      <c r="O260" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="P260" s="58">
-        <v>472940358</v>
-      </c>
       <c r="Q260" s="17"/>
       <c r="R260" s="17"/>
       <c r="S260" s="17"/>
@@ -28822,12 +33340,6 @@
       <c r="L261" s="17"/>
       <c r="M261" s="17"/>
       <c r="N261" s="17"/>
-      <c r="O261" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="P261" s="17">
-        <v>197316935</v>
-      </c>
       <c r="Q261" s="17"/>
       <c r="R261" s="17"/>
       <c r="S261" s="17"/>
@@ -28897,8 +33409,6 @@
       <c r="L262" s="17"/>
       <c r="M262" s="17"/>
       <c r="N262" s="17"/>
-      <c r="O262" s="17"/>
-      <c r="P262" s="17"/>
       <c r="Q262" s="17"/>
       <c r="R262" s="17"/>
       <c r="S262" s="17"/>
@@ -28968,8 +33478,6 @@
       <c r="L263" s="17"/>
       <c r="M263" s="17"/>
       <c r="N263" s="17"/>
-      <c r="O263" s="17"/>
-      <c r="P263" s="17"/>
       <c r="Q263" s="17"/>
       <c r="R263" s="17"/>
       <c r="S263" s="17"/>
@@ -29039,8 +33547,6 @@
       <c r="L264" s="17"/>
       <c r="M264" s="17"/>
       <c r="N264" s="17"/>
-      <c r="O264" s="17"/>
-      <c r="P264" s="17"/>
       <c r="Q264" s="17"/>
       <c r="R264" s="17"/>
       <c r="S264" s="17"/>
@@ -29110,8 +33616,6 @@
       <c r="L265" s="17"/>
       <c r="M265" s="17"/>
       <c r="N265" s="17"/>
-      <c r="O265" s="17"/>
-      <c r="P265" s="17"/>
       <c r="Q265" s="17"/>
       <c r="R265" s="17"/>
       <c r="S265" s="17"/>
@@ -29181,8 +33685,6 @@
       <c r="L266" s="17"/>
       <c r="M266" s="17"/>
       <c r="N266" s="17"/>
-      <c r="O266" s="17"/>
-      <c r="P266" s="17"/>
       <c r="Q266" s="17"/>
       <c r="R266" s="17"/>
       <c r="S266" s="17"/>
@@ -29252,8 +33754,6 @@
       <c r="L267" s="17"/>
       <c r="M267" s="17"/>
       <c r="N267" s="17"/>
-      <c r="O267" s="17"/>
-      <c r="P267" s="17"/>
       <c r="Q267" s="17"/>
       <c r="R267" s="17"/>
       <c r="S267" s="17"/>
@@ -29323,8 +33823,6 @@
       <c r="L268" s="17"/>
       <c r="M268" s="17"/>
       <c r="N268" s="17"/>
-      <c r="O268" s="17"/>
-      <c r="P268" s="17"/>
       <c r="Q268" s="17"/>
       <c r="R268" s="17"/>
       <c r="S268" s="17"/>
@@ -29586,76 +34084,10 @@
       <c r="BP271" s="17"/>
       <c r="BQ271" s="17"/>
     </row>
-    <row r="272" spans="1:69">
-      <c r="A272" s="17"/>
-      <c r="B272" s="17"/>
-      <c r="C272" s="17"/>
-      <c r="D272" s="17"/>
-      <c r="E272" s="19"/>
-      <c r="F272" s="17"/>
-      <c r="G272" s="19"/>
-      <c r="H272" s="17"/>
-      <c r="I272" s="17"/>
-      <c r="J272" s="17"/>
-      <c r="K272" s="17"/>
-      <c r="L272" s="17"/>
-      <c r="M272" s="17"/>
-      <c r="N272" s="17"/>
-      <c r="Q272" s="17"/>
-      <c r="R272" s="17"/>
-      <c r="S272" s="17"/>
-      <c r="T272" s="17"/>
-      <c r="U272" s="17"/>
-      <c r="V272" s="17"/>
-      <c r="W272" s="17"/>
-      <c r="X272" s="17"/>
-      <c r="Y272" s="17"/>
-      <c r="Z272" s="17"/>
-      <c r="AA272" s="17"/>
-      <c r="AB272" s="17"/>
-      <c r="AC272" s="17"/>
-      <c r="AD272" s="17"/>
-      <c r="AE272" s="17"/>
-      <c r="AF272" s="17"/>
-      <c r="AG272" s="17"/>
-      <c r="AH272" s="17"/>
-      <c r="AI272" s="17"/>
-      <c r="AJ272" s="17"/>
-      <c r="AK272" s="17"/>
-      <c r="AL272" s="17"/>
-      <c r="AM272" s="17"/>
-      <c r="AN272" s="17"/>
-      <c r="AO272" s="17"/>
-      <c r="AP272" s="17"/>
-      <c r="AQ272" s="17"/>
-      <c r="AR272" s="17"/>
-      <c r="AS272" s="17"/>
-      <c r="AT272" s="17"/>
-      <c r="AU272" s="17"/>
-      <c r="AV272" s="17"/>
-      <c r="AW272" s="17"/>
-      <c r="AX272" s="17"/>
-      <c r="AY272" s="17"/>
-      <c r="AZ272" s="17"/>
-      <c r="BA272" s="17"/>
-      <c r="BB272" s="17"/>
-      <c r="BC272" s="17"/>
-      <c r="BD272" s="17"/>
-      <c r="BE272" s="17"/>
-      <c r="BF272" s="17"/>
-      <c r="BG272" s="17"/>
-      <c r="BH272" s="17"/>
-      <c r="BI272" s="17"/>
-      <c r="BJ272" s="17"/>
-      <c r="BK272" s="17"/>
-      <c r="BL272" s="17"/>
-      <c r="BM272" s="17"/>
-      <c r="BN272" s="17"/>
-      <c r="BO272" s="17"/>
-      <c r="BP272" s="17"/>
-      <c r="BQ272" s="17"/>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>